--- a/Code/Data/DAX30/Efficient Portfolios with Prediction/Manual Recurrence/input 125/DAX30_efficient_portfolios_and_returns_with_prediction_semester.xlsx
+++ b/Code/Data/DAX30/Efficient Portfolios with Prediction/Manual Recurrence/input 125/DAX30_efficient_portfolios_and_returns_with_prediction_semester.xlsx
@@ -595,79 +595,79 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.1784555421640867</v>
+        <v>0.1855711045889872</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08097505068903763</v>
+        <v>0.04672145031409718</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02006659746378606</v>
+        <v>0.00462842665778036</v>
       </c>
       <c r="H2" t="n">
-        <v>0.08700455393478004</v>
+        <v>0.01167312694553221</v>
       </c>
       <c r="I2" t="n">
-        <v>0.00209909739368797</v>
+        <v>0.01593893344321674</v>
       </c>
       <c r="J2" t="n">
-        <v>0.05770792439124317</v>
+        <v>0.06873444755696946</v>
       </c>
       <c r="K2" t="n">
-        <v>0.008877558539807434</v>
+        <v>0.07623131573812021</v>
       </c>
       <c r="L2" t="n">
-        <v>0.003395613509980485</v>
+        <v>0.05531109967962611</v>
       </c>
       <c r="M2" t="n">
-        <v>0.05979052432340674</v>
+        <v>0.06172206689765526</v>
       </c>
       <c r="N2" t="n">
-        <v>0.003193403219600046</v>
+        <v>0.08241191681970067</v>
       </c>
       <c r="O2" t="n">
-        <v>0.06046090405180976</v>
+        <v>0.05790425115219085</v>
       </c>
       <c r="P2" t="n">
-        <v>0.08761322925511367</v>
+        <v>0.04970131097056878</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.03930300002413082</v>
+        <v>0.08224424645980997</v>
       </c>
       <c r="R2" t="n">
-        <v>0.07146535887998491</v>
+        <v>0.02815296855831027</v>
       </c>
       <c r="S2" t="n">
-        <v>0.05346390804661549</v>
+        <v>0.005938710724697091</v>
       </c>
       <c r="T2" t="n">
-        <v>0.001023934084364292</v>
+        <v>0.006328970470961677</v>
       </c>
       <c r="U2" t="n">
-        <v>0.06193480618113881</v>
+        <v>0.06196530642410172</v>
       </c>
       <c r="V2" t="n">
-        <v>0.01153381899262645</v>
+        <v>0.01858669750896165</v>
       </c>
       <c r="W2" t="n">
-        <v>0.0423801038296043</v>
+        <v>0.01492069431522823</v>
       </c>
       <c r="X2" t="n">
-        <v>0.005888086305458812</v>
+        <v>0.003974918562776479</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.08294879674434917</v>
+        <v>0.0750127182156516</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.07258946544956862</v>
+        <v>0.08832877484562829</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.04349916499434533</v>
+        <v>0.01144502248198629</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.04278509969555989</v>
+        <v>0.07212262525642882</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.06594262563616313</v>
+        <v>0.06945541931069417</v>
       </c>
     </row>
     <row r="3">
@@ -690,79 +690,79 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.4918321256148685</v>
+        <v>0.5058421255186153</v>
       </c>
       <c r="F3" t="n">
-        <v>0.03667831102877327</v>
+        <v>0.02481319750727461</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0924255457445257</v>
+        <v>0.08248382254406661</v>
       </c>
       <c r="H3" t="n">
-        <v>0.003009330154803093</v>
+        <v>0.0167256208282396</v>
       </c>
       <c r="I3" t="n">
-        <v>0.002493228615000159</v>
+        <v>0.002663876862687053</v>
       </c>
       <c r="J3" t="n">
-        <v>0.09918409078005701</v>
+        <v>0.09397043397885399</v>
       </c>
       <c r="K3" t="n">
-        <v>0.02682676554424201</v>
+        <v>0.007234329312052933</v>
       </c>
       <c r="L3" t="n">
-        <v>0.03173569300590372</v>
+        <v>0.05468712547447048</v>
       </c>
       <c r="M3" t="n">
-        <v>0.05395141906549079</v>
+        <v>0.03262000411384842</v>
       </c>
       <c r="N3" t="n">
-        <v>0.05005425723146135</v>
+        <v>0.05319772151742033</v>
       </c>
       <c r="O3" t="n">
-        <v>0.01389337762030511</v>
+        <v>0.04987548178688851</v>
       </c>
       <c r="P3" t="n">
-        <v>0.04321753639264671</v>
+        <v>0.006481174372273832</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.002981204247965696</v>
+        <v>0.02040668838036107</v>
       </c>
       <c r="R3" t="n">
-        <v>0.01839271473148307</v>
+        <v>0.08932417482575009</v>
       </c>
       <c r="S3" t="n">
-        <v>0.06771191755770291</v>
+        <v>0.04548387821368571</v>
       </c>
       <c r="T3" t="n">
-        <v>0.004246474966279044</v>
+        <v>0.01234938285991455</v>
       </c>
       <c r="U3" t="n">
-        <v>0.03473322030536349</v>
+        <v>0.03113991917736032</v>
       </c>
       <c r="V3" t="n">
-        <v>0.02003379788485403</v>
+        <v>0.05267853748592915</v>
       </c>
       <c r="W3" t="n">
-        <v>0.06149684383170909</v>
+        <v>0.004389656654128005</v>
       </c>
       <c r="X3" t="n">
-        <v>0.0818356919109357</v>
+        <v>0.08439243783008893</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.009977337328264032</v>
+        <v>0.04988141012725353</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.08122307506406952</v>
+        <v>0.05727170483491702</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.08828944037210647</v>
+        <v>0.07028330156565041</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.07560872661605805</v>
+        <v>0.05764611974688484</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.09702419516003097</v>
+        <v>0.09349869261810012</v>
       </c>
     </row>
     <row r="4">
@@ -785,79 +785,79 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.1887081526379998</v>
+        <v>0.1887400461287352</v>
       </c>
       <c r="F4" t="n">
-        <v>0.106054681108351</v>
+        <v>0.07703410905660973</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1177309257002609</v>
+        <v>0.0557898347670686</v>
       </c>
       <c r="H4" t="n">
-        <v>0.007435812340514544</v>
+        <v>0.002456954337201421</v>
       </c>
       <c r="I4" t="n">
-        <v>0.003886821188213173</v>
+        <v>0.001111347392829206</v>
       </c>
       <c r="J4" t="n">
-        <v>0.08422017921901383</v>
+        <v>0.06657100078845592</v>
       </c>
       <c r="K4" t="n">
-        <v>0.04188582740733246</v>
+        <v>0.0151128966038692</v>
       </c>
       <c r="L4" t="n">
-        <v>0.004845994481499545</v>
+        <v>0.03080509686907862</v>
       </c>
       <c r="M4" t="n">
-        <v>0.06166261088637672</v>
+        <v>0.07503374343829075</v>
       </c>
       <c r="N4" t="n">
-        <v>0.01891113461843239</v>
+        <v>0.07202632430870964</v>
       </c>
       <c r="O4" t="n">
-        <v>0.1063348043512861</v>
+        <v>0.08928907814797037</v>
       </c>
       <c r="P4" t="n">
-        <v>0.01479298414732607</v>
+        <v>0.08046426997503121</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.009404626631960157</v>
+        <v>0.0144222630797222</v>
       </c>
       <c r="R4" t="n">
-        <v>0.1242113652068967</v>
+        <v>0.04356502801793489</v>
       </c>
       <c r="S4" t="n">
-        <v>0.04867802732579116</v>
+        <v>0.01827891584631785</v>
       </c>
       <c r="T4" t="n">
-        <v>0.02061346786178414</v>
+        <v>0.0259032276986623</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03348448473343742</v>
+        <v>0.06589479138360393</v>
       </c>
       <c r="V4" t="n">
-        <v>0.006373820347203148</v>
+        <v>0.02983091201025126</v>
       </c>
       <c r="W4" t="n">
-        <v>0.03551200076516828</v>
+        <v>0.01790011372238164</v>
       </c>
       <c r="X4" t="n">
-        <v>0.06627009622873024</v>
+        <v>0.04098574891770996</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.07477026939079777</v>
+        <v>0.08936759156869337</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.003939028619839275</v>
+        <v>0.03611819869764396</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.008356819340680789</v>
+        <v>0.00486644654109854</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.0006242180991041811</v>
+        <v>0.04717210683086549</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.01538708387452448</v>
+        <v>0.0319872546868956</v>
       </c>
     </row>
     <row r="5">
@@ -880,79 +880,79 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.3069852374631079</v>
+        <v>0.4580046247288</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08787264763569806</v>
+        <v>0.07370594838826831</v>
       </c>
       <c r="G5" t="n">
-        <v>0.05542407875992274</v>
+        <v>0.07208172307969644</v>
       </c>
       <c r="H5" t="n">
-        <v>4.970487304251802e-05</v>
+        <v>9.775387568765085e-05</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0109850688652407</v>
+        <v>0.04715557213392557</v>
       </c>
       <c r="J5" t="n">
-        <v>0.09170581591067152</v>
+        <v>0.0497816380175308</v>
       </c>
       <c r="K5" t="n">
-        <v>0.04169198031255246</v>
+        <v>0.006815478438883984</v>
       </c>
       <c r="L5" t="n">
-        <v>0.08917878577036385</v>
+        <v>0.08082947821811262</v>
       </c>
       <c r="M5" t="n">
-        <v>0.02334577408226961</v>
+        <v>0.0715161939992425</v>
       </c>
       <c r="N5" t="n">
-        <v>0.008040589543557216</v>
+        <v>0.0197949920429859</v>
       </c>
       <c r="O5" t="n">
-        <v>0.08479885044627937</v>
+        <v>0.06453181992146399</v>
       </c>
       <c r="P5" t="n">
-        <v>0.04598719842258172</v>
+        <v>0.07806570247348907</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.08479996665411076</v>
+        <v>0.04773078946342008</v>
       </c>
       <c r="R5" t="n">
-        <v>0.01718504637804956</v>
+        <v>0.02614446054680565</v>
       </c>
       <c r="S5" t="n">
-        <v>0.04058778544294703</v>
+        <v>0.0246883017421008</v>
       </c>
       <c r="T5" t="n">
-        <v>0.05101167590450179</v>
+        <v>0.05967336953835282</v>
       </c>
       <c r="U5" t="n">
-        <v>0.05953728087349525</v>
+        <v>0.0474725125698203</v>
       </c>
       <c r="V5" t="n">
-        <v>0.07625755935685298</v>
+        <v>0.06990491748384838</v>
       </c>
       <c r="W5" t="n">
-        <v>0.04249235731534391</v>
+        <v>0.06582495522277815</v>
       </c>
       <c r="X5" t="n">
-        <v>0.01275308327498677</v>
+        <v>0.004481350668451034</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.04913130104993863</v>
+        <v>0.01388471030172288</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.02102817570194696</v>
+        <v>0.05601381013095862</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.005681070038725544</v>
+        <v>0.0009946903122850612</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.0004542033869212101</v>
+        <v>0.01880983143016938</v>
       </c>
       <c r="AC5" t="n">
-        <v>-0.02723854551843541</v>
+        <v>-0.002380750856928651</v>
       </c>
     </row>
     <row r="6">
@@ -975,79 +975,79 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.1968591770222295</v>
+        <v>0.1974499712828985</v>
       </c>
       <c r="F6" t="n">
-        <v>0.003852304016644874</v>
+        <v>0.04473978336427809</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0562475609224135</v>
+        <v>0.02840014616183613</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0007437385643589761</v>
+        <v>0.003177960889432876</v>
       </c>
       <c r="I6" t="n">
-        <v>0.03923422750348461</v>
+        <v>0.07568445073737394</v>
       </c>
       <c r="J6" t="n">
-        <v>0.04054425102713008</v>
+        <v>0.06640684442169702</v>
       </c>
       <c r="K6" t="n">
-        <v>0.05961100721771191</v>
+        <v>0.03227553183625199</v>
       </c>
       <c r="L6" t="n">
-        <v>0.07739481936954311</v>
+        <v>0.001687062132182375</v>
       </c>
       <c r="M6" t="n">
-        <v>0.02639189625514645</v>
+        <v>0.0156001732973352</v>
       </c>
       <c r="N6" t="n">
-        <v>0.03263423132439357</v>
+        <v>0.03869142074934098</v>
       </c>
       <c r="O6" t="n">
-        <v>0.06622857171484563</v>
+        <v>0.05053583494134339</v>
       </c>
       <c r="P6" t="n">
-        <v>0.00837454115705602</v>
+        <v>0.03806109062694804</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.0163355309288491</v>
+        <v>0.006371293931466394</v>
       </c>
       <c r="R6" t="n">
-        <v>0.04780302707382997</v>
+        <v>0.08686786036862121</v>
       </c>
       <c r="S6" t="n">
-        <v>0.06849551269724952</v>
+        <v>0.08432717792501195</v>
       </c>
       <c r="T6" t="n">
-        <v>0.03950476022998492</v>
+        <v>0.0708359841785078</v>
       </c>
       <c r="U6" t="n">
-        <v>0.03010962944473422</v>
+        <v>0.08638006956247703</v>
       </c>
       <c r="V6" t="n">
-        <v>0.05900223909036353</v>
+        <v>0.04776831187288923</v>
       </c>
       <c r="W6" t="n">
-        <v>0.06157570170119977</v>
+        <v>0.05807579700865774</v>
       </c>
       <c r="X6" t="n">
-        <v>0.06708641262500761</v>
+        <v>0.0533888382410356</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.000912040027683486</v>
+        <v>0.002653641306766362</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.0610695566462856</v>
+        <v>0.05079346857257499</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.07155078197944162</v>
+        <v>0.01098856616345087</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.06529765848264178</v>
+        <v>0.04628869171052078</v>
       </c>
       <c r="AC6" t="n">
-        <v>-0.2609141545998175</v>
+        <v>-0.2224733353303241</v>
       </c>
     </row>
     <row r="7">
@@ -1070,79 +1070,79 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.357919226507171</v>
+        <v>0.968956427328394</v>
       </c>
       <c r="F7" t="n">
-        <v>0.01606127655883256</v>
+        <v>0.08188498536619312</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0276120460850118</v>
+        <v>0.1005530115027089</v>
       </c>
       <c r="H7" t="n">
-        <v>0.05189048651023603</v>
+        <v>0.0653461209199388</v>
       </c>
       <c r="I7" t="n">
-        <v>0.003318471031801999</v>
+        <v>0.08694573438283269</v>
       </c>
       <c r="J7" t="n">
-        <v>0.004556857266379897</v>
+        <v>0.003041601513928877</v>
       </c>
       <c r="K7" t="n">
-        <v>0.08981013611473586</v>
+        <v>0.00202414688383669</v>
       </c>
       <c r="L7" t="n">
-        <v>0.07118298420018078</v>
+        <v>0.002379439576161151</v>
       </c>
       <c r="M7" t="n">
-        <v>0.008454364272561223</v>
+        <v>0.0108507743204074</v>
       </c>
       <c r="N7" t="n">
-        <v>0.01811042170561681</v>
+        <v>0.007707002773579187</v>
       </c>
       <c r="O7" t="n">
-        <v>0.01392570941687868</v>
+        <v>0.003666939118876201</v>
       </c>
       <c r="P7" t="n">
-        <v>4.144989602917299e-05</v>
+        <v>0.001950876418365432</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.08978907805139261</v>
+        <v>0.0567549707119296</v>
       </c>
       <c r="R7" t="n">
-        <v>0.07817137373331129</v>
+        <v>0.005673516313720871</v>
       </c>
       <c r="S7" t="n">
-        <v>0.07569771268880049</v>
+        <v>0.07705033978270275</v>
       </c>
       <c r="T7" t="n">
-        <v>0.007315449132555903</v>
+        <v>0.000248129452141053</v>
       </c>
       <c r="U7" t="n">
-        <v>0.01738048986559286</v>
+        <v>0.06486115688125119</v>
       </c>
       <c r="V7" t="n">
-        <v>0.00662466743524609</v>
+        <v>0.0005397424058277441</v>
       </c>
       <c r="W7" t="n">
-        <v>0.037605767725758</v>
+        <v>0.1046742614034396</v>
       </c>
       <c r="X7" t="n">
-        <v>0.1009054576619799</v>
+        <v>0.01576510217827015</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.01770215268121471</v>
+        <v>0.1064825460360086</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.06800284067247599</v>
+        <v>0.08039255750755471</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.08421065440849927</v>
+        <v>0.01375878452943746</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.111630152884908</v>
+        <v>0.1074482600208878</v>
       </c>
       <c r="AC7" t="n">
-        <v>-0.2037278114954199</v>
+        <v>-0.1632254436820946</v>
       </c>
     </row>
     <row r="8">
@@ -1165,79 +1165,79 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.1626714646800961</v>
+        <v>0.1637983326078617</v>
       </c>
       <c r="F8" t="n">
-        <v>0.04714605649775415</v>
+        <v>0.05484989310281827</v>
       </c>
       <c r="G8" t="n">
-        <v>0.01808581400689789</v>
+        <v>0.08226203038704975</v>
       </c>
       <c r="H8" t="n">
-        <v>0.01189219914534509</v>
+        <v>0.005850822646852641</v>
       </c>
       <c r="I8" t="n">
-        <v>0.006420120303902148</v>
+        <v>0.02119487339751383</v>
       </c>
       <c r="J8" t="n">
-        <v>0.03072207641369175</v>
+        <v>0.03592052004438916</v>
       </c>
       <c r="K8" t="n">
-        <v>0.001640905411946686</v>
+        <v>0.006728563845186138</v>
       </c>
       <c r="L8" t="n">
-        <v>0.03102347544740366</v>
+        <v>0.07867214164483702</v>
       </c>
       <c r="M8" t="n">
-        <v>0.01923713449218526</v>
+        <v>0.01900810855604822</v>
       </c>
       <c r="N8" t="n">
-        <v>0.01911811454295823</v>
+        <v>0.002848382976642882</v>
       </c>
       <c r="O8" t="n">
-        <v>0.06690251945202137</v>
+        <v>0.07145306077881246</v>
       </c>
       <c r="P8" t="n">
-        <v>0.07673050658622238</v>
+        <v>0.05502339706149934</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.07419377370378236</v>
+        <v>0.04100660477379193</v>
       </c>
       <c r="R8" t="n">
-        <v>0.00654236481224128</v>
+        <v>0.005569620476049544</v>
       </c>
       <c r="S8" t="n">
-        <v>0.02596246665280388</v>
+        <v>0.03232941470862836</v>
       </c>
       <c r="T8" t="n">
-        <v>0.07900348664653209</v>
+        <v>0.08521774297954544</v>
       </c>
       <c r="U8" t="n">
-        <v>0.07248946836076153</v>
+        <v>0.09685348388888791</v>
       </c>
       <c r="V8" t="n">
-        <v>0.007056917935648989</v>
+        <v>0.02068331759427157</v>
       </c>
       <c r="W8" t="n">
-        <v>0.06987144384436744</v>
+        <v>0.0992533798554425</v>
       </c>
       <c r="X8" t="n">
-        <v>0.06504566866078076</v>
+        <v>0.03662938522870898</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.09067774906389196</v>
+        <v>0.01673586291599074</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.02380436048391394</v>
+        <v>0.03137291536973422</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.05983248676232711</v>
+        <v>0.0006505820082242348</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.09660089077261999</v>
+        <v>0.09988589575907485</v>
       </c>
       <c r="AC8" t="n">
-        <v>-0.3848944312099292</v>
+        <v>-0.4272931295765198</v>
       </c>
     </row>
     <row r="9">
@@ -1260,79 +1260,79 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.2057877037543377</v>
+        <v>0.1786543749830397</v>
       </c>
       <c r="F9" t="n">
-        <v>0.003085406205551078</v>
+        <v>0.01539099739944843</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02307579841469323</v>
+        <v>0.08034322289112525</v>
       </c>
       <c r="H9" t="n">
-        <v>0.01588888247812813</v>
+        <v>0.01321829237200771</v>
       </c>
       <c r="I9" t="n">
-        <v>0.03705787985131992</v>
+        <v>0.08783700253693519</v>
       </c>
       <c r="J9" t="n">
-        <v>0.06404507786636998</v>
+        <v>0.01091317668327066</v>
       </c>
       <c r="K9" t="n">
-        <v>0.000653603807475255</v>
+        <v>0.01960358819845516</v>
       </c>
       <c r="L9" t="n">
-        <v>0.09170967619258259</v>
+        <v>0.04917058826459008</v>
       </c>
       <c r="M9" t="n">
-        <v>0.003335903847797137</v>
+        <v>0.01287635410504115</v>
       </c>
       <c r="N9" t="n">
-        <v>0.008558961366257611</v>
+        <v>0.02553060260284363</v>
       </c>
       <c r="O9" t="n">
-        <v>0.0001797911989850904</v>
+        <v>0.04250211671719061</v>
       </c>
       <c r="P9" t="n">
-        <v>0.03076308628424832</v>
+        <v>0.03544872451851114</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.05840814524327125</v>
+        <v>0.06500298915580303</v>
       </c>
       <c r="R9" t="n">
-        <v>0.06922081789858325</v>
+        <v>0.008746935604946637</v>
       </c>
       <c r="S9" t="n">
-        <v>0.003988568392009681</v>
+        <v>0.006498786579370345</v>
       </c>
       <c r="T9" t="n">
-        <v>0.09768470812621748</v>
+        <v>0.1099547719713061</v>
       </c>
       <c r="U9" t="n">
-        <v>0.03125810099400538</v>
+        <v>0.02447415867554531</v>
       </c>
       <c r="V9" t="n">
-        <v>0.01989775095746091</v>
+        <v>0.02422695121103728</v>
       </c>
       <c r="W9" t="n">
-        <v>0.0883843319899426</v>
+        <v>0.04767010555185069</v>
       </c>
       <c r="X9" t="n">
-        <v>0.06130404824657595</v>
+        <v>0.05593307419710463</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.05348447456904797</v>
+        <v>0.04626909670476067</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.04478969598803929</v>
+        <v>0.00224864351193015</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.1024914805140315</v>
+        <v>0.1094918466702735</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.09073380956740643</v>
+        <v>0.1066479738766528</v>
       </c>
       <c r="AC9" t="n">
-        <v>-0.4120516325453524</v>
+        <v>-0.4677568661113735</v>
       </c>
     </row>
     <row r="10">
@@ -1355,79 +1355,79 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.2758754520752528</v>
+        <v>0.2736419841633043</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0863009436126372</v>
+        <v>0.0670290368762209</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03892896265217088</v>
+        <v>0.0866473056553219</v>
       </c>
       <c r="H10" t="n">
-        <v>0.02682121735562409</v>
+        <v>0.02754472082019264</v>
       </c>
       <c r="I10" t="n">
-        <v>0.05958160160037621</v>
+        <v>0.08320465262716095</v>
       </c>
       <c r="J10" t="n">
-        <v>0.002417434863259057</v>
+        <v>0.02189354725993842</v>
       </c>
       <c r="K10" t="n">
-        <v>0.02628705126925299</v>
+        <v>0.01604343052800726</v>
       </c>
       <c r="L10" t="n">
-        <v>0.001672309437459839</v>
+        <v>0.01359414003318557</v>
       </c>
       <c r="M10" t="n">
-        <v>0.08053720167933018</v>
+        <v>0.02508156906468458</v>
       </c>
       <c r="N10" t="n">
-        <v>0.04037914059081089</v>
+        <v>0.01572120632918943</v>
       </c>
       <c r="O10" t="n">
-        <v>0.0009191785781531798</v>
+        <v>0.002623239791878619</v>
       </c>
       <c r="P10" t="n">
-        <v>0.08008422136036301</v>
+        <v>0.08736620816253449</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.0121352543904738</v>
+        <v>0.04217279284322641</v>
       </c>
       <c r="R10" t="n">
-        <v>0.08715301754650796</v>
+        <v>0.08319784480143373</v>
       </c>
       <c r="S10" t="n">
-        <v>0.08139683337688916</v>
+        <v>0.0131688819770564</v>
       </c>
       <c r="T10" t="n">
-        <v>0.05794645031524314</v>
+        <v>0.07593638480511475</v>
       </c>
       <c r="U10" t="n">
-        <v>0.05867615234619929</v>
+        <v>0.06409930463278375</v>
       </c>
       <c r="V10" t="n">
-        <v>0.01784445871122656</v>
+        <v>0.0146000566654639</v>
       </c>
       <c r="W10" t="n">
-        <v>0.01430441349582153</v>
+        <v>0.09011876074641208</v>
       </c>
       <c r="X10" t="n">
-        <v>0.04454675359885809</v>
+        <v>0.06057215700004646</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.08499541145933569</v>
+        <v>0.06392675878707055</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.0005337129964895755</v>
+        <v>0.0184964848850026</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.02768050380186594</v>
+        <v>0.01080980135869559</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.0688577749616516</v>
+        <v>0.01615171434937892</v>
       </c>
       <c r="AC10" t="n">
-        <v>-0.03142576320332963</v>
+        <v>-0.04780475720886686</v>
       </c>
     </row>
     <row r="11">
@@ -1450,79 +1450,79 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.6259949837867206</v>
+        <v>0.5658142527943023</v>
       </c>
       <c r="F11" t="n">
-        <v>0.02053138995910174</v>
+        <v>0.003930693814607013</v>
       </c>
       <c r="G11" t="n">
-        <v>0.01332701290772059</v>
+        <v>0.03332356287043466</v>
       </c>
       <c r="H11" t="n">
-        <v>0.07161286357105204</v>
+        <v>0.04780387408477105</v>
       </c>
       <c r="I11" t="n">
-        <v>0.004396057090830473</v>
+        <v>0.0148877503466523</v>
       </c>
       <c r="J11" t="n">
-        <v>0.003027657058904055</v>
+        <v>0.01384421768965114</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0169194400588185</v>
+        <v>0.02382593346885156</v>
       </c>
       <c r="L11" t="n">
-        <v>0.04378681109878465</v>
+        <v>0.01660994472472911</v>
       </c>
       <c r="M11" t="n">
-        <v>0.1002675398376686</v>
+        <v>0.05267738643060125</v>
       </c>
       <c r="N11" t="n">
-        <v>0.01708391342621655</v>
+        <v>0.07638461223229094</v>
       </c>
       <c r="O11" t="n">
-        <v>0.03366429054969035</v>
+        <v>0.02121311285734429</v>
       </c>
       <c r="P11" t="n">
-        <v>0.04886386089196133</v>
+        <v>0.00476281145266303</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.03963610667278159</v>
+        <v>0.06783991599000271</v>
       </c>
       <c r="R11" t="n">
-        <v>0.03542817254839022</v>
+        <v>0.07548272139533545</v>
       </c>
       <c r="S11" t="n">
-        <v>0.01855053888900456</v>
+        <v>0.0148957241850721</v>
       </c>
       <c r="T11" t="n">
-        <v>0.02700907551950112</v>
+        <v>0.03010741020768961</v>
       </c>
       <c r="U11" t="n">
-        <v>0.01214732466067981</v>
+        <v>0.08080864006497615</v>
       </c>
       <c r="V11" t="n">
-        <v>0.120363952023113</v>
+        <v>0.108475780066124</v>
       </c>
       <c r="W11" t="n">
-        <v>0.1214311996781538</v>
+        <v>0.1070244953309212</v>
       </c>
       <c r="X11" t="n">
-        <v>0.004235116949247114</v>
+        <v>0.1051817571280938</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.07700391539521474</v>
+        <v>0.02080372195765357</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.07756462927359115</v>
+        <v>0.06464180938162201</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.08677040927092255</v>
+        <v>0.008901587556455181</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.006378722668651295</v>
+        <v>0.006572536763457795</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.08919571814935272</v>
+        <v>0.1006826925446078</v>
       </c>
     </row>
     <row r="12">
@@ -1545,79 +1545,79 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.2772537210207686</v>
+        <v>0.2771330165094931</v>
       </c>
       <c r="F12" t="n">
-        <v>0.06188472025775009</v>
+        <v>0.008721737215991203</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0271562635353425</v>
+        <v>0.02802072050083994</v>
       </c>
       <c r="H12" t="n">
-        <v>0.09820936851319632</v>
+        <v>0.03236032580790255</v>
       </c>
       <c r="I12" t="n">
-        <v>0.09776756396880745</v>
+        <v>0.0526169417852678</v>
       </c>
       <c r="J12" t="n">
-        <v>0.03362859786292155</v>
+        <v>0.03695573224843494</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0543817726629176</v>
+        <v>0.02810499995480931</v>
       </c>
       <c r="L12" t="n">
-        <v>0.002094617128923976</v>
+        <v>0.008617522310631823</v>
       </c>
       <c r="M12" t="n">
-        <v>0.04225232478091676</v>
+        <v>0.00271199947666117</v>
       </c>
       <c r="N12" t="n">
-        <v>0.003014192412797572</v>
+        <v>0.003773463330546822</v>
       </c>
       <c r="O12" t="n">
-        <v>0.02895406043809746</v>
+        <v>0.01478196745842933</v>
       </c>
       <c r="P12" t="n">
-        <v>0.05296759119772941</v>
+        <v>0.06400268905363242</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.00061424079333785</v>
+        <v>0.03863049681573383</v>
       </c>
       <c r="R12" t="n">
-        <v>0.05151288809991632</v>
+        <v>0.07863188932911504</v>
       </c>
       <c r="S12" t="n">
-        <v>0.09976048818833978</v>
+        <v>0.08400355504106959</v>
       </c>
       <c r="T12" t="n">
-        <v>0.002353443481641641</v>
+        <v>0.002624194288849137</v>
       </c>
       <c r="U12" t="n">
-        <v>0.02382925446083132</v>
+        <v>0.0524589092311436</v>
       </c>
       <c r="V12" t="n">
-        <v>0.0007962624687803867</v>
+        <v>0.02823693429091914</v>
       </c>
       <c r="W12" t="n">
-        <v>0.09349190605570003</v>
+        <v>0.08654044484578899</v>
       </c>
       <c r="X12" t="n">
-        <v>0.08628479220790611</v>
+        <v>0.06483965397002225</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.02829379573502691</v>
+        <v>0.08895257950886523</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.05397556273373359</v>
+        <v>0.08058729753508831</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.01007622215740201</v>
+        <v>0.02742400661330533</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.04670007085798346</v>
+        <v>0.08640193938695213</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.2310351204276539</v>
+        <v>0.2142891697627738</v>
       </c>
     </row>
     <row r="13">
@@ -1640,79 +1640,79 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.5787938762191577</v>
+        <v>0.5901858658252002</v>
       </c>
       <c r="F13" t="n">
-        <v>0.002365495798762767</v>
+        <v>0.002117209202399379</v>
       </c>
       <c r="G13" t="n">
-        <v>0.07881716103484944</v>
+        <v>0.01031979506730337</v>
       </c>
       <c r="H13" t="n">
-        <v>0.02608455745260122</v>
+        <v>0.03315732857809158</v>
       </c>
       <c r="I13" t="n">
-        <v>0.07893902977594401</v>
+        <v>0.05263590231647772</v>
       </c>
       <c r="J13" t="n">
-        <v>0.01690576849020095</v>
+        <v>0.005529244289520263</v>
       </c>
       <c r="K13" t="n">
-        <v>0.003341021055936776</v>
+        <v>0.00249771817840987</v>
       </c>
       <c r="L13" t="n">
-        <v>0.07754568301986441</v>
+        <v>0.06237669374135045</v>
       </c>
       <c r="M13" t="n">
-        <v>0.03339543833435003</v>
+        <v>0.004074708528873103</v>
       </c>
       <c r="N13" t="n">
-        <v>0.03480617721005629</v>
+        <v>0.07853840953972847</v>
       </c>
       <c r="O13" t="n">
-        <v>0.01458285340599277</v>
+        <v>0.01154670992984902</v>
       </c>
       <c r="P13" t="n">
-        <v>0.03064308743977241</v>
+        <v>0.03481238292082652</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.002200230838609335</v>
+        <v>0.02459538349107541</v>
       </c>
       <c r="R13" t="n">
-        <v>0.01767217483213713</v>
+        <v>0.01958899619822999</v>
       </c>
       <c r="S13" t="n">
-        <v>0.001370456268740115</v>
+        <v>0.01472875211041178</v>
       </c>
       <c r="T13" t="n">
-        <v>0.08656032226855019</v>
+        <v>0.103928233441769</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04119242326887191</v>
+        <v>0.02572479991601773</v>
       </c>
       <c r="V13" t="n">
-        <v>0.09648633319351375</v>
+        <v>0.1017609861422976</v>
       </c>
       <c r="W13" t="n">
-        <v>0.09709164420263305</v>
+        <v>0.08764613862492342</v>
       </c>
       <c r="X13" t="n">
-        <v>0.07402827498878167</v>
+        <v>0.09480783136737331</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.02125287463663184</v>
+        <v>0.06176656973774575</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.06350481059346581</v>
+        <v>0.07351914170338383</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.01053307322088184</v>
+        <v>0.03203584229661632</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.09068110866885228</v>
+        <v>0.0622912226773261</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.2633198360782122</v>
+        <v>0.2575270914992639</v>
       </c>
     </row>
     <row r="14">
@@ -1735,79 +1735,79 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.291611842731528</v>
+        <v>0.2891504703799126</v>
       </c>
       <c r="F14" t="n">
-        <v>0.06913364862788651</v>
+        <v>0.03518203793467416</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03250561198089706</v>
+        <v>0.0445346108204424</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0213553450426105</v>
+        <v>0.06026820237262664</v>
       </c>
       <c r="I14" t="n">
-        <v>0.005879860488694755</v>
+        <v>0.09333932478511135</v>
       </c>
       <c r="J14" t="n">
-        <v>0.04884454495165698</v>
+        <v>0.03607091270191272</v>
       </c>
       <c r="K14" t="n">
-        <v>0.003664642028523242</v>
+        <v>0.04758859694169557</v>
       </c>
       <c r="L14" t="n">
-        <v>0.003741873627426267</v>
+        <v>0.002308861040979695</v>
       </c>
       <c r="M14" t="n">
-        <v>0.04782238243222334</v>
+        <v>0.01959809685872435</v>
       </c>
       <c r="N14" t="n">
-        <v>0.06732581652636199</v>
+        <v>0.004197969944051231</v>
       </c>
       <c r="O14" t="n">
-        <v>0.05910076814115861</v>
+        <v>0.004574976245829691</v>
       </c>
       <c r="P14" t="n">
-        <v>0.07440818958408807</v>
+        <v>0.01830921352280862</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.07066808964220986</v>
+        <v>0.09269750287963484</v>
       </c>
       <c r="R14" t="n">
-        <v>0.08302099158084947</v>
+        <v>0.08525034494023662</v>
       </c>
       <c r="S14" t="n">
-        <v>0.08954816633564225</v>
+        <v>0.05563044989799002</v>
       </c>
       <c r="T14" t="n">
-        <v>0.004754206563369439</v>
+        <v>0.04638201139368121</v>
       </c>
       <c r="U14" t="n">
-        <v>0.004419479889494334</v>
+        <v>0.004907263970190811</v>
       </c>
       <c r="V14" t="n">
-        <v>0.00227561558707742</v>
+        <v>0.009703095489579034</v>
       </c>
       <c r="W14" t="n">
-        <v>0.06071488195224856</v>
+        <v>0.06060346936990826</v>
       </c>
       <c r="X14" t="n">
-        <v>0.02351086941056147</v>
+        <v>0.008466066786536785</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.06547493582474991</v>
+        <v>0.07842821354825109</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.06473088138235158</v>
+        <v>0.08541270586958817</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.03421174498229783</v>
+        <v>0.0277995680379159</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.06288745341762056</v>
+        <v>0.07874650464763105</v>
       </c>
       <c r="AC14" t="n">
-        <v>-0.02899989685765186</v>
+        <v>-0.04253632807769994</v>
       </c>
     </row>
     <row r="15">
@@ -1830,79 +1830,79 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.3517797026195791</v>
+        <v>0.3581015522747725</v>
       </c>
       <c r="F15" t="n">
-        <v>0.03367297289036827</v>
+        <v>0.09587556444151088</v>
       </c>
       <c r="G15" t="n">
-        <v>0.01682798742464198</v>
+        <v>0.0535270043499231</v>
       </c>
       <c r="H15" t="n">
-        <v>0.01600193349116999</v>
+        <v>0.01522972003972674</v>
       </c>
       <c r="I15" t="n">
-        <v>0.09971975088655341</v>
+        <v>0.02085996362431508</v>
       </c>
       <c r="J15" t="n">
-        <v>0.07775701772838015</v>
+        <v>0.06405132355469696</v>
       </c>
       <c r="K15" t="n">
-        <v>0.002682375791011296</v>
+        <v>0.002156663661743705</v>
       </c>
       <c r="L15" t="n">
-        <v>0.08846034734677438</v>
+        <v>0.09015529751546709</v>
       </c>
       <c r="M15" t="n">
-        <v>0.02028688723227752</v>
+        <v>0.05189157101897663</v>
       </c>
       <c r="N15" t="n">
-        <v>0.009770238335757806</v>
+        <v>0.05485876746975572</v>
       </c>
       <c r="O15" t="n">
-        <v>0.04040811697736457</v>
+        <v>0.01127301467619289</v>
       </c>
       <c r="P15" t="n">
-        <v>0.06918941267545092</v>
+        <v>0.04537141568076601</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.02441383966655049</v>
+        <v>0.02409347089304333</v>
       </c>
       <c r="R15" t="n">
-        <v>0.01861547853554173</v>
+        <v>0.03993325511175946</v>
       </c>
       <c r="S15" t="n">
-        <v>0.01174477814597452</v>
+        <v>0.08756614264915152</v>
       </c>
       <c r="T15" t="n">
-        <v>0.01575773823754694</v>
+        <v>0.06914845906023406</v>
       </c>
       <c r="U15" t="n">
-        <v>0.005555953414135447</v>
+        <v>0.001596437946327407</v>
       </c>
       <c r="V15" t="n">
-        <v>0.1216447633326054</v>
+        <v>0.09315204733055733</v>
       </c>
       <c r="W15" t="n">
-        <v>0.03466379963172136</v>
+        <v>0.0002471329083174187</v>
       </c>
       <c r="X15" t="n">
-        <v>0.01817003631749885</v>
+        <v>0.003215922539249045</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.07078671285224801</v>
+        <v>0.002953363493482335</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.09924370025461897</v>
+        <v>0.1034008192049863</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.05287750876840064</v>
+        <v>0.02080230151384363</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.05174865006340737</v>
+        <v>0.04864034131597343</v>
       </c>
       <c r="AC15" t="n">
-        <v>-0.01094612414933629</v>
+        <v>0.01217757038339743</v>
       </c>
     </row>
     <row r="16">
@@ -1925,79 +1925,79 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.3141756758895942</v>
+        <v>0.3365913059386517</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0616489294892839</v>
+        <v>0.08894664501504726</v>
       </c>
       <c r="G16" t="n">
-        <v>0.003682143763184257</v>
+        <v>0.05895012117374193</v>
       </c>
       <c r="H16" t="n">
-        <v>0.04920754990521879</v>
+        <v>0.03510509440622447</v>
       </c>
       <c r="I16" t="n">
-        <v>0.09127032099527996</v>
+        <v>0.02702461576341098</v>
       </c>
       <c r="J16" t="n">
-        <v>0.03775704471409128</v>
+        <v>0.04028219744485891</v>
       </c>
       <c r="K16" t="n">
-        <v>0.08672017020750214</v>
+        <v>0.03653880447362703</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0007330920713734078</v>
+        <v>0.002987836913003795</v>
       </c>
       <c r="M16" t="n">
-        <v>0.04124372140091886</v>
+        <v>0.01209030275506343</v>
       </c>
       <c r="N16" t="n">
-        <v>0.03144746020306515</v>
+        <v>0.04919004584061685</v>
       </c>
       <c r="O16" t="n">
-        <v>0.09893281751764942</v>
+        <v>0.08500140967725105</v>
       </c>
       <c r="P16" t="n">
-        <v>0.04659876222893568</v>
+        <v>0.08282458685321466</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.07101767943085685</v>
+        <v>0.06573303211606812</v>
       </c>
       <c r="R16" t="n">
-        <v>0.003539791904666575</v>
+        <v>0.02232420176344256</v>
       </c>
       <c r="S16" t="n">
-        <v>0.002205387410524279</v>
+        <v>0.003985952861509359</v>
       </c>
       <c r="T16" t="n">
-        <v>0.02915596466596035</v>
+        <v>0.02523006746925078</v>
       </c>
       <c r="U16" t="n">
-        <v>0.02646345253266346</v>
+        <v>0.09206657590294241</v>
       </c>
       <c r="V16" t="n">
-        <v>0.004488069846984391</v>
+        <v>0.0291248737662551</v>
       </c>
       <c r="W16" t="n">
-        <v>0.07567695895794788</v>
+        <v>0.06824899311417124</v>
       </c>
       <c r="X16" t="n">
-        <v>0.03908535128314022</v>
+        <v>0.01004820672308062</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.08012934578337597</v>
+        <v>0.0600228438370229</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.008731622871898003</v>
+        <v>0.006553623564492888</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.03819477704135375</v>
+        <v>0.05991673767807028</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.0720695857741253</v>
+        <v>0.03780323088763338</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.1659130643700023</v>
+        <v>0.1464452094648861</v>
       </c>
     </row>
     <row r="17">
@@ -2020,79 +2020,79 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.6596425022442282</v>
+        <v>0.7277001185468471</v>
       </c>
       <c r="F17" t="n">
-        <v>0.06064813770854429</v>
+        <v>0.07865948944191473</v>
       </c>
       <c r="G17" t="n">
-        <v>0.01966691155146445</v>
+        <v>0.04577775429687688</v>
       </c>
       <c r="H17" t="n">
-        <v>0.05673121311395096</v>
+        <v>0.0380845854936589</v>
       </c>
       <c r="I17" t="n">
-        <v>0.01689268854068975</v>
+        <v>0.08181592520735748</v>
       </c>
       <c r="J17" t="n">
-        <v>0.02679702461133966</v>
+        <v>0.06537818227547508</v>
       </c>
       <c r="K17" t="n">
-        <v>0.0383145991136327</v>
+        <v>0.03189048052466677</v>
       </c>
       <c r="L17" t="n">
-        <v>0.02757834470373839</v>
+        <v>0.01094974937124504</v>
       </c>
       <c r="M17" t="n">
-        <v>0.0132477239758527</v>
+        <v>0.007977218659791249</v>
       </c>
       <c r="N17" t="n">
-        <v>0.09893661724991466</v>
+        <v>0.06149965504315235</v>
       </c>
       <c r="O17" t="n">
-        <v>0.05288163191971294</v>
+        <v>0.0278479952987851</v>
       </c>
       <c r="P17" t="n">
-        <v>0.003646170458338974</v>
+        <v>0.0001321000031332186</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.08426708635814444</v>
+        <v>0.005375615847762594</v>
       </c>
       <c r="R17" t="n">
-        <v>0.002127133962072707</v>
+        <v>0.0002069628666333857</v>
       </c>
       <c r="S17" t="n">
-        <v>0.04077204897347986</v>
+        <v>0.06377528416854897</v>
       </c>
       <c r="T17" t="n">
-        <v>0.09223239742349178</v>
+        <v>0.01553709391488876</v>
       </c>
       <c r="U17" t="n">
-        <v>0.03258373676113469</v>
+        <v>0.08917773661102878</v>
       </c>
       <c r="V17" t="n">
-        <v>0.0854659335583567</v>
+        <v>0.08229176514929741</v>
       </c>
       <c r="W17" t="n">
-        <v>0.02235490897593979</v>
+        <v>0.03051141881863468</v>
       </c>
       <c r="X17" t="n">
-        <v>0.09387559233765454</v>
+        <v>0.0496574929360771</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.02578942797718534</v>
+        <v>0.0130079556582441</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.08238287047814358</v>
+        <v>0.09086059187875098</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.002543904540011915</v>
+        <v>0.04769476877400381</v>
       </c>
       <c r="AB17" t="n">
-        <v>0.02026389570720509</v>
+        <v>0.06189017776007247</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.160148252018062</v>
+        <v>0.2072174633608206</v>
       </c>
     </row>
     <row r="18">
@@ -2115,79 +2115,79 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.2871044590841604</v>
+        <v>0.2767039169438849</v>
       </c>
       <c r="F18" t="n">
-        <v>0.02504369646971631</v>
+        <v>0.01833423341964751</v>
       </c>
       <c r="G18" t="n">
-        <v>0.01579847920339288</v>
+        <v>0.01334591713946497</v>
       </c>
       <c r="H18" t="n">
-        <v>0.03653045407408149</v>
+        <v>0.01142482271942413</v>
       </c>
       <c r="I18" t="n">
-        <v>0.08039184256276441</v>
+        <v>0.1059086770996489</v>
       </c>
       <c r="J18" t="n">
-        <v>0.04952105430934703</v>
+        <v>0.01168308517718227</v>
       </c>
       <c r="K18" t="n">
-        <v>0.05233638580432914</v>
+        <v>0.05692475413750701</v>
       </c>
       <c r="L18" t="n">
-        <v>0.004445509478147419</v>
+        <v>0.01322077385792366</v>
       </c>
       <c r="M18" t="n">
-        <v>0.03356336679826904</v>
+        <v>0.02032434907323286</v>
       </c>
       <c r="N18" t="n">
-        <v>0.06282985498533221</v>
+        <v>0.03149525890417157</v>
       </c>
       <c r="O18" t="n">
-        <v>0.01369799705747234</v>
+        <v>0.04469886265087388</v>
       </c>
       <c r="P18" t="n">
-        <v>0.05999934635757737</v>
+        <v>0.03051633151623072</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.04631553042813413</v>
+        <v>0.04957289095440845</v>
       </c>
       <c r="R18" t="n">
-        <v>0.09763952498784452</v>
+        <v>0.08740057098689163</v>
       </c>
       <c r="S18" t="n">
-        <v>0.01333065528390894</v>
+        <v>0.03934404788311502</v>
       </c>
       <c r="T18" t="n">
-        <v>0.06888650457839351</v>
+        <v>0.1107031634267283</v>
       </c>
       <c r="U18" t="n">
-        <v>0.02400946746600639</v>
+        <v>0.002632393722543934</v>
       </c>
       <c r="V18" t="n">
-        <v>0.04563649491745875</v>
+        <v>0.06625599040252027</v>
       </c>
       <c r="W18" t="n">
-        <v>0.07169849856082301</v>
+        <v>0.1368253022427158</v>
       </c>
       <c r="X18" t="n">
-        <v>0.09979699607512141</v>
+        <v>0.01372801675700626</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.009502169721926593</v>
+        <v>0.1234451424350468</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.08149310762822314</v>
+        <v>0.004330716676331768</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.002157422083697638</v>
+        <v>0.00651126607668446</v>
       </c>
       <c r="AB18" t="n">
-        <v>0.005375641168032263</v>
+        <v>0.001373432740699847</v>
       </c>
       <c r="AC18" t="n">
-        <v>0.06169347635551305</v>
+        <v>0.03540522168747869</v>
       </c>
     </row>
     <row r="19">
@@ -2210,79 +2210,79 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.4545651985229188</v>
+        <v>0.4245626215871716</v>
       </c>
       <c r="F19" t="n">
-        <v>0.08143241841176369</v>
+        <v>0.009277869412746611</v>
       </c>
       <c r="G19" t="n">
-        <v>0.03310275512579557</v>
+        <v>0.04722284012900466</v>
       </c>
       <c r="H19" t="n">
-        <v>0.03516156063649684</v>
+        <v>0.09247436360302611</v>
       </c>
       <c r="I19" t="n">
-        <v>0.01265623985609399</v>
+        <v>0.1213928890151331</v>
       </c>
       <c r="J19" t="n">
-        <v>0.09323525016707727</v>
+        <v>0.08230693625716527</v>
       </c>
       <c r="K19" t="n">
-        <v>0.07742446792488179</v>
+        <v>0.1325380143910279</v>
       </c>
       <c r="L19" t="n">
-        <v>0.001657010559700154</v>
+        <v>0.005350440607022211</v>
       </c>
       <c r="M19" t="n">
-        <v>0.02095735318366955</v>
+        <v>0.007001529475405796</v>
       </c>
       <c r="N19" t="n">
-        <v>0.03180022378566807</v>
+        <v>0.01159858796673527</v>
       </c>
       <c r="O19" t="n">
-        <v>0.07469614752964358</v>
+        <v>0.001711660003334939</v>
       </c>
       <c r="P19" t="n">
-        <v>0.04947723720429033</v>
+        <v>0.003724181054219988</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.02535663941844865</v>
+        <v>0.02143614614246015</v>
       </c>
       <c r="R19" t="n">
-        <v>0.07489245632104775</v>
+        <v>0.05905052534754153</v>
       </c>
       <c r="S19" t="n">
-        <v>0.09809044447659016</v>
+        <v>0.05059831012214525</v>
       </c>
       <c r="T19" t="n">
-        <v>0.02938628368990273</v>
+        <v>0.04827476294161859</v>
       </c>
       <c r="U19" t="n">
-        <v>0.02060858040944125</v>
+        <v>0.0255844539200913</v>
       </c>
       <c r="V19" t="n">
-        <v>0.08143187270564854</v>
+        <v>0.02584096787602162</v>
       </c>
       <c r="W19" t="n">
-        <v>0.01352680532469721</v>
+        <v>0.1334557840444051</v>
       </c>
       <c r="X19" t="n">
-        <v>0.001266722052916785</v>
+        <v>0.05101787313451844</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.07944918928584417</v>
+        <v>0.02356174175020348</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.03641540227670204</v>
+        <v>0.0160420117860427</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.006969443322729587</v>
+        <v>0.01619297624648849</v>
       </c>
       <c r="AB19" t="n">
-        <v>0.02100549633095043</v>
+        <v>0.01434513477364147</v>
       </c>
       <c r="AC19" t="n">
-        <v>0.06608329864323562</v>
+        <v>0.08896806781927279</v>
       </c>
     </row>
     <row r="20">
@@ -2305,79 +2305,79 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0.2061193885156409</v>
+        <v>0.2139212350948786</v>
       </c>
       <c r="F20" t="n">
-        <v>0.01258165732413009</v>
+        <v>0.01439776787914359</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1004125558320536</v>
+        <v>0.0884911901528099</v>
       </c>
       <c r="H20" t="n">
-        <v>0.01026715741417428</v>
+        <v>0.04813098186293713</v>
       </c>
       <c r="I20" t="n">
-        <v>0.05441461362991541</v>
+        <v>0.01332917480182339</v>
       </c>
       <c r="J20" t="n">
-        <v>0.01686105301303775</v>
+        <v>0.03470552821663841</v>
       </c>
       <c r="K20" t="n">
-        <v>0.004133895807371136</v>
+        <v>0.002115580104686634</v>
       </c>
       <c r="L20" t="n">
-        <v>0.03935514056839403</v>
+        <v>0.02030632771974481</v>
       </c>
       <c r="M20" t="n">
-        <v>0.08526358751735419</v>
+        <v>0.04970526147411986</v>
       </c>
       <c r="N20" t="n">
-        <v>0.08213059924449112</v>
+        <v>0.07313207615862195</v>
       </c>
       <c r="O20" t="n">
-        <v>0.04186469031826003</v>
+        <v>0.004125684773644645</v>
       </c>
       <c r="P20" t="n">
-        <v>0.06619302146598122</v>
+        <v>0.09471517644667056</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.03801150603805176</v>
+        <v>0.09510870681774794</v>
       </c>
       <c r="R20" t="n">
-        <v>0.05269794604656211</v>
+        <v>0.05418053898122584</v>
       </c>
       <c r="S20" t="n">
-        <v>0.01768252412856273</v>
+        <v>0.005879457512235837</v>
       </c>
       <c r="T20" t="n">
-        <v>0.003019707717731484</v>
+        <v>0.006736404154290367</v>
       </c>
       <c r="U20" t="n">
-        <v>0.02642754188607212</v>
+        <v>0.03938506082119134</v>
       </c>
       <c r="V20" t="n">
-        <v>0.004168298973959473</v>
+        <v>0.0111495008441844</v>
       </c>
       <c r="W20" t="n">
-        <v>0.02759959340870527</v>
+        <v>0.08342205214536536</v>
       </c>
       <c r="X20" t="n">
-        <v>0.09463401098067592</v>
+        <v>0.09156932105854231</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.09059870355440532</v>
+        <v>0.04555666166814421</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.001172259496861562</v>
+        <v>0.06973951985408418</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.06528456714922677</v>
+        <v>0.05402945520642624</v>
       </c>
       <c r="AB20" t="n">
-        <v>0.06522536848402267</v>
+        <v>8.85713457211029e-05</v>
       </c>
       <c r="AC20" t="n">
-        <v>-0.2064424989038313</v>
+        <v>-0.1757920433900003</v>
       </c>
     </row>
     <row r="21">
@@ -2400,79 +2400,79 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>0.3878715344371582</v>
+        <v>0.3483107914636128</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1279142896695165</v>
+        <v>0.1069275889133448</v>
       </c>
       <c r="G21" t="n">
-        <v>0.06042133474836204</v>
+        <v>0.01126528307558878</v>
       </c>
       <c r="H21" t="n">
-        <v>0.08333777197290491</v>
+        <v>0.01009103154361248</v>
       </c>
       <c r="I21" t="n">
-        <v>0.06801886398314785</v>
+        <v>0.02312193328717317</v>
       </c>
       <c r="J21" t="n">
-        <v>0.04655413972759006</v>
+        <v>0.04850849297464272</v>
       </c>
       <c r="K21" t="n">
-        <v>0.01573548327492227</v>
+        <v>0.003099026178025054</v>
       </c>
       <c r="L21" t="n">
-        <v>0.02832393121682116</v>
+        <v>0.08223445296155202</v>
       </c>
       <c r="M21" t="n">
-        <v>0.01422036267410269</v>
+        <v>0.06964240554108285</v>
       </c>
       <c r="N21" t="n">
-        <v>0.03445698044187663</v>
+        <v>0.001183549876026871</v>
       </c>
       <c r="O21" t="n">
-        <v>0.008618651261252478</v>
+        <v>0.08748049514738515</v>
       </c>
       <c r="P21" t="n">
-        <v>0.09540003711985881</v>
+        <v>0.006177345679974381</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.00389649841320679</v>
+        <v>0.05313808563906273</v>
       </c>
       <c r="R21" t="n">
-        <v>0.06205901742474852</v>
+        <v>0.06348565772589276</v>
       </c>
       <c r="S21" t="n">
-        <v>0.007806841581932157</v>
+        <v>0.03139977122501827</v>
       </c>
       <c r="T21" t="n">
-        <v>0.003258203598522381</v>
+        <v>0.0197760289347961</v>
       </c>
       <c r="U21" t="n">
-        <v>0.02694608375002862</v>
+        <v>0.0476993229786741</v>
       </c>
       <c r="V21" t="n">
-        <v>0.0006409404329382758</v>
+        <v>0.01450484442403274</v>
       </c>
       <c r="W21" t="n">
-        <v>0.03579453273141359</v>
+        <v>0.07325839393101605</v>
       </c>
       <c r="X21" t="n">
-        <v>0.01720355629233248</v>
+        <v>0.05615391141760741</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.09871997601551988</v>
+        <v>0.0005146228494165579</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.09158204163226454</v>
+        <v>0.06297847725880816</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.02336854775638456</v>
+        <v>0.04555390065265205</v>
       </c>
       <c r="AB21" t="n">
-        <v>0.04572191428035284</v>
+        <v>0.08180537778461465</v>
       </c>
       <c r="AC21" t="n">
-        <v>-0.1764705726742633</v>
+        <v>-0.1495722484360507</v>
       </c>
     </row>
     <row r="22">
@@ -2495,79 +2495,79 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0.1861618901024981</v>
+        <v>0.1802002460992129</v>
       </c>
       <c r="F22" t="n">
-        <v>0.02512664857735767</v>
+        <v>0.007705967360276888</v>
       </c>
       <c r="G22" t="n">
-        <v>0.001898506417316797</v>
+        <v>0.0250140059302585</v>
       </c>
       <c r="H22" t="n">
-        <v>0.03889292002204263</v>
+        <v>0.04730736404969635</v>
       </c>
       <c r="I22" t="n">
-        <v>0.0514857831428653</v>
+        <v>0.02745405176250753</v>
       </c>
       <c r="J22" t="n">
-        <v>0.01131354953096393</v>
+        <v>0.001507165470977405</v>
       </c>
       <c r="K22" t="n">
-        <v>0.002624115037092034</v>
+        <v>0.02296158490701548</v>
       </c>
       <c r="L22" t="n">
-        <v>0.01737391626977105</v>
+        <v>0.009183737282639685</v>
       </c>
       <c r="M22" t="n">
-        <v>0.06508561542214872</v>
+        <v>0.03043652087756022</v>
       </c>
       <c r="N22" t="n">
-        <v>0.06732313693521352</v>
+        <v>0.01191532051737411</v>
       </c>
       <c r="O22" t="n">
-        <v>0.08202819254626315</v>
+        <v>0.004526640519698368</v>
       </c>
       <c r="P22" t="n">
-        <v>0.02210382463550434</v>
+        <v>0.0816256528195608</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.05429247806229243</v>
+        <v>0.07983216466705215</v>
       </c>
       <c r="R22" t="n">
-        <v>0.07396704418102695</v>
+        <v>0.05853310175051454</v>
       </c>
       <c r="S22" t="n">
-        <v>0.08708835794534148</v>
+        <v>0.08000027338292379</v>
       </c>
       <c r="T22" t="n">
-        <v>0.008276711565729483</v>
+        <v>0.0003727946236527751</v>
       </c>
       <c r="U22" t="n">
-        <v>0.0581115435477628</v>
+        <v>0.08977481141584739</v>
       </c>
       <c r="V22" t="n">
-        <v>0.04957071461500642</v>
+        <v>0.03351493344390705</v>
       </c>
       <c r="W22" t="n">
-        <v>0.08744256181773599</v>
+        <v>0.1011450184621971</v>
       </c>
       <c r="X22" t="n">
-        <v>0.03082921906309529</v>
+        <v>0.08232831765753795</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.01810376673128844</v>
+        <v>0.0185946912139928</v>
       </c>
       <c r="Z22" t="n">
-        <v>0.0997079207978433</v>
+        <v>0.1067849329689168</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.042037354147876</v>
+        <v>0.06482737896694256</v>
       </c>
       <c r="AB22" t="n">
-        <v>0.005316118988462262</v>
+        <v>0.0146535699489497</v>
       </c>
       <c r="AC22" t="n">
-        <v>0.0400489867770151</v>
+        <v>0.03888876448762387</v>
       </c>
     </row>
     <row r="23">
@@ -2590,79 +2590,79 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0.2371936198839483</v>
+        <v>0.2584024624873476</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1041558430730758</v>
+        <v>0.03623695218258441</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1006798057218289</v>
+        <v>0.05657914292356881</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0003818083972171556</v>
+        <v>0.004047214460505332</v>
       </c>
       <c r="I23" t="n">
-        <v>0.08786866468509062</v>
+        <v>0.002098805337419586</v>
       </c>
       <c r="J23" t="n">
-        <v>0.0546526588095228</v>
+        <v>0.09177775957354303</v>
       </c>
       <c r="K23" t="n">
-        <v>0.08702092307625277</v>
+        <v>0.09282059115870404</v>
       </c>
       <c r="L23" t="n">
-        <v>0.08313699497609946</v>
+        <v>0.08426518324625502</v>
       </c>
       <c r="M23" t="n">
-        <v>0.03220960687381385</v>
+        <v>0.0661496532384897</v>
       </c>
       <c r="N23" t="n">
-        <v>0.07800165007111237</v>
+        <v>0.08291318276378182</v>
       </c>
       <c r="O23" t="n">
-        <v>0.006043462376802897</v>
+        <v>0.003578415438704846</v>
       </c>
       <c r="P23" t="n">
-        <v>0.01612252800067362</v>
+        <v>0.09400320617916291</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.003071486697418923</v>
+        <v>0.0005731565735630058</v>
       </c>
       <c r="R23" t="n">
-        <v>0.085625165059744</v>
+        <v>0.05962383742466208</v>
       </c>
       <c r="S23" t="n">
-        <v>0.06186827202959946</v>
+        <v>0.01440439981497304</v>
       </c>
       <c r="T23" t="n">
-        <v>0.0003504132721675059</v>
+        <v>0.07493400492131765</v>
       </c>
       <c r="U23" t="n">
-        <v>0.01609920063671261</v>
+        <v>0.009492755901210475</v>
       </c>
       <c r="V23" t="n">
-        <v>0.01363847756928732</v>
+        <v>0.01211796353078683</v>
       </c>
       <c r="W23" t="n">
-        <v>0.02245770022692128</v>
+        <v>0.02843866182636099</v>
       </c>
       <c r="X23" t="n">
-        <v>0.023194195534999</v>
+        <v>0.01361648560055053</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.005406147126652504</v>
+        <v>0.02332793653485039</v>
       </c>
       <c r="Z23" t="n">
-        <v>0.0548748928738326</v>
+        <v>0.04752727088237552</v>
       </c>
       <c r="AA23" t="n">
-        <v>0.01347519783319509</v>
+        <v>0.01262055841053054</v>
       </c>
       <c r="AB23" t="n">
-        <v>0.04966490507797949</v>
+        <v>0.08885286207609958</v>
       </c>
       <c r="AC23" t="n">
-        <v>0.064556946755186</v>
+        <v>0.04882927976274308</v>
       </c>
     </row>
     <row r="24">
@@ -2685,79 +2685,79 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0.1930597430102144</v>
+        <v>0.1967820581343643</v>
       </c>
       <c r="F24" t="n">
-        <v>0.07850288998411781</v>
+        <v>0.007989594438313874</v>
       </c>
       <c r="G24" t="n">
-        <v>0.002672549873859636</v>
+        <v>0.00132187402768097</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0761610652125851</v>
+        <v>0.007876845126340215</v>
       </c>
       <c r="I24" t="n">
-        <v>0.05051427384174051</v>
+        <v>0.06404913040596126</v>
       </c>
       <c r="J24" t="n">
-        <v>0.001327160753357699</v>
+        <v>0.006654490218069719</v>
       </c>
       <c r="K24" t="n">
-        <v>0.002846397244656406</v>
+        <v>0.01448309788524983</v>
       </c>
       <c r="L24" t="n">
-        <v>0.06957732085698433</v>
+        <v>0.0314425262133825</v>
       </c>
       <c r="M24" t="n">
-        <v>0.07041358401612274</v>
+        <v>0.04586174381296634</v>
       </c>
       <c r="N24" t="n">
-        <v>0.03974189804194266</v>
+        <v>0.04067197416188385</v>
       </c>
       <c r="O24" t="n">
-        <v>0.004843197946587806</v>
+        <v>0.02648376984977018</v>
       </c>
       <c r="P24" t="n">
-        <v>0.077776948862397</v>
+        <v>0.03391278054102402</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.02744208575584318</v>
+        <v>0.05218072279026807</v>
       </c>
       <c r="R24" t="n">
-        <v>0.07926294136505065</v>
+        <v>0.0839175417273864</v>
       </c>
       <c r="S24" t="n">
-        <v>0.06253902167771622</v>
+        <v>0.08640251589055749</v>
       </c>
       <c r="T24" t="n">
-        <v>0.03164742122267364</v>
+        <v>0.0844458526586519</v>
       </c>
       <c r="U24" t="n">
-        <v>0.07592243161693714</v>
+        <v>0.09381807581109158</v>
       </c>
       <c r="V24" t="n">
-        <v>0.001922959548740482</v>
+        <v>0.02760420624957206</v>
       </c>
       <c r="W24" t="n">
-        <v>0.0774028697361252</v>
+        <v>0.04935864650995529</v>
       </c>
       <c r="X24" t="n">
-        <v>0.03473307665004794</v>
+        <v>0.04526313178423613</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.009321887386338341</v>
+        <v>0.05219281484311588</v>
       </c>
       <c r="Z24" t="n">
-        <v>0.07256765978664671</v>
+        <v>0.07840093879278368</v>
       </c>
       <c r="AA24" t="n">
-        <v>0.04602172116561462</v>
+        <v>0.06275046194575662</v>
       </c>
       <c r="AB24" t="n">
-        <v>0.006838637453914192</v>
+        <v>0.002917264315982138</v>
       </c>
       <c r="AC24" t="n">
-        <v>0.1266379969440539</v>
+        <v>0.1102964164904302</v>
       </c>
     </row>
     <row r="25">
@@ -2780,79 +2780,79 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>0.2268938741718497</v>
+        <v>0.2359840456801926</v>
       </c>
       <c r="F25" t="n">
-        <v>0.01946386815007526</v>
+        <v>0.04959806369187651</v>
       </c>
       <c r="G25" t="n">
-        <v>0.003994331283332014</v>
+        <v>0.02088441455943749</v>
       </c>
       <c r="H25" t="n">
-        <v>0.05566959259142356</v>
+        <v>0.02971657892879789</v>
       </c>
       <c r="I25" t="n">
-        <v>0.04879258058020044</v>
+        <v>0.06449624083213233</v>
       </c>
       <c r="J25" t="n">
-        <v>0.0691508370681163</v>
+        <v>0.0304519071102286</v>
       </c>
       <c r="K25" t="n">
-        <v>0.02599366571412438</v>
+        <v>0.05788949366016041</v>
       </c>
       <c r="L25" t="n">
-        <v>0.01480365142978733</v>
+        <v>0.005042460515380478</v>
       </c>
       <c r="M25" t="n">
-        <v>0.03404074777472848</v>
+        <v>0.007595726259833204</v>
       </c>
       <c r="N25" t="n">
-        <v>0.09913670300508157</v>
+        <v>0.07099116376288013</v>
       </c>
       <c r="O25" t="n">
-        <v>0.09222739498725557</v>
+        <v>0.1046303990422955</v>
       </c>
       <c r="P25" t="n">
-        <v>0.004820726497869324</v>
+        <v>0.04656609675544739</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.0005099680525071986</v>
+        <v>0.02647506948082152</v>
       </c>
       <c r="R25" t="n">
-        <v>0.03143633031121906</v>
+        <v>0.09805740850372241</v>
       </c>
       <c r="S25" t="n">
-        <v>0.08058899060348279</v>
+        <v>0.0515769248643908</v>
       </c>
       <c r="T25" t="n">
-        <v>0.01425307310152621</v>
+        <v>0.0003696697500145025</v>
       </c>
       <c r="U25" t="n">
-        <v>0.01167407899799305</v>
+        <v>0.03337838036211057</v>
       </c>
       <c r="V25" t="n">
-        <v>0.06165242203622151</v>
+        <v>0.02087867793403383</v>
       </c>
       <c r="W25" t="n">
-        <v>0.1164476787988884</v>
+        <v>0.1101566567200373</v>
       </c>
       <c r="X25" t="n">
-        <v>0.05454141659910319</v>
+        <v>0.01845110292864099</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.03017339267194661</v>
+        <v>0.002509373934946588</v>
       </c>
       <c r="Z25" t="n">
-        <v>0.0771964052096256</v>
+        <v>0.007033753518272878</v>
       </c>
       <c r="AA25" t="n">
-        <v>0.007030263839405136</v>
+        <v>0.03335950620218201</v>
       </c>
       <c r="AB25" t="n">
-        <v>0.04640188069608691</v>
+        <v>0.1098909306823567</v>
       </c>
       <c r="AC25" t="n">
-        <v>0.169499223935716</v>
+        <v>0.1564294645494417</v>
       </c>
     </row>
     <row r="26">
@@ -2875,79 +2875,79 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>0.2285071302562116</v>
+        <v>0.2275145625104341</v>
       </c>
       <c r="F26" t="n">
-        <v>0.05188141868749643</v>
+        <v>0.05274099756191709</v>
       </c>
       <c r="G26" t="n">
-        <v>0.01202177449853332</v>
+        <v>0.03290137391555267</v>
       </c>
       <c r="H26" t="n">
-        <v>0.04626676623012566</v>
+        <v>0.05538632823578699</v>
       </c>
       <c r="I26" t="n">
-        <v>0.009179862422959061</v>
+        <v>0.01819324110955638</v>
       </c>
       <c r="J26" t="n">
-        <v>0.01065956051478117</v>
+        <v>0.03860360884785138</v>
       </c>
       <c r="K26" t="n">
-        <v>0.0609499439397085</v>
+        <v>0.03717611157727635</v>
       </c>
       <c r="L26" t="n">
-        <v>0.03943491735531353</v>
+        <v>0.02504324392224021</v>
       </c>
       <c r="M26" t="n">
-        <v>0.06317975162017186</v>
+        <v>0.04226537210865699</v>
       </c>
       <c r="N26" t="n">
-        <v>0.03263107047186652</v>
+        <v>0.02902929013029678</v>
       </c>
       <c r="O26" t="n">
-        <v>0.03697654553673826</v>
+        <v>0.01542088911548068</v>
       </c>
       <c r="P26" t="n">
-        <v>0.07623531611909774</v>
+        <v>0.07660901277344639</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.0766108585657664</v>
+        <v>0.003105994872231495</v>
       </c>
       <c r="R26" t="n">
-        <v>0.08203560474825292</v>
+        <v>0.08176446251076132</v>
       </c>
       <c r="S26" t="n">
-        <v>0.06576740929853675</v>
+        <v>0.0918868060912942</v>
       </c>
       <c r="T26" t="n">
-        <v>0.02756456443912854</v>
+        <v>0.001873407225333282</v>
       </c>
       <c r="U26" t="n">
-        <v>0.01713435018222287</v>
+        <v>0.04921560104120223</v>
       </c>
       <c r="V26" t="n">
-        <v>0.05987722200545727</v>
+        <v>0.05318690172700185</v>
       </c>
       <c r="W26" t="n">
-        <v>0.05659175538944076</v>
+        <v>0.02724692140334137</v>
       </c>
       <c r="X26" t="n">
-        <v>0.002729960896865637</v>
+        <v>0.01501541664089332</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.04139512776813443</v>
+        <v>0.07931283805598888</v>
       </c>
       <c r="Z26" t="n">
-        <v>0.05809279786979321</v>
+        <v>0.07406485376132096</v>
       </c>
       <c r="AA26" t="n">
-        <v>0.04959515497364026</v>
+        <v>0.09576710918563298</v>
       </c>
       <c r="AB26" t="n">
-        <v>0.02318826646596919</v>
+        <v>0.004190218186936102</v>
       </c>
       <c r="AC26" t="n">
-        <v>0.01820790828064661</v>
+        <v>0.005121160308161785</v>
       </c>
     </row>
     <row r="27">
@@ -2970,79 +2970,79 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>0.281527907409765</v>
+        <v>0.2686451067962343</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1147537123152987</v>
+        <v>0.02734432887915992</v>
       </c>
       <c r="G27" t="n">
-        <v>0.04176554481449118</v>
+        <v>0.02459764864735087</v>
       </c>
       <c r="H27" t="n">
-        <v>0.001948778423441328</v>
+        <v>0.06735751482596783</v>
       </c>
       <c r="I27" t="n">
-        <v>0.01954277339728366</v>
+        <v>0.0334943228487086</v>
       </c>
       <c r="J27" t="n">
-        <v>0.09351509198944427</v>
+        <v>0.08874657897498631</v>
       </c>
       <c r="K27" t="n">
-        <v>0.07802141915018283</v>
+        <v>0.08444981142257162</v>
       </c>
       <c r="L27" t="n">
-        <v>0.01312950370682618</v>
+        <v>0.028151060923711</v>
       </c>
       <c r="M27" t="n">
-        <v>0.01085434694436167</v>
+        <v>9.502008008405497e-05</v>
       </c>
       <c r="N27" t="n">
-        <v>0.04590447328397125</v>
+        <v>0.006070286302958167</v>
       </c>
       <c r="O27" t="n">
-        <v>0.01814463837530298</v>
+        <v>0.05291129320199688</v>
       </c>
       <c r="P27" t="n">
-        <v>0.006508333482513158</v>
+        <v>0.03737236661696754</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.03853247999221122</v>
+        <v>0.008848777684050261</v>
       </c>
       <c r="R27" t="n">
-        <v>0.06109618027260681</v>
+        <v>0.07089231086421095</v>
       </c>
       <c r="S27" t="n">
-        <v>0.0399413296860638</v>
+        <v>0.06325717942414637</v>
       </c>
       <c r="T27" t="n">
-        <v>0.03382711020717066</v>
+        <v>0.07392171045475249</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1293555812391105</v>
+        <v>0.06552617613734424</v>
       </c>
       <c r="V27" t="n">
-        <v>0.01688622974037999</v>
+        <v>0.0276993577570504</v>
       </c>
       <c r="W27" t="n">
-        <v>0.0830489285048526</v>
+        <v>0.06496605812694725</v>
       </c>
       <c r="X27" t="n">
-        <v>0.02353740373664082</v>
+        <v>0.01380346615847237</v>
       </c>
       <c r="Y27" t="n">
-        <v>0.04757564331857856</v>
+        <v>0.03880116043890166</v>
       </c>
       <c r="Z27" t="n">
-        <v>0.03454195094892748</v>
+        <v>0.09095183497200381</v>
       </c>
       <c r="AA27" t="n">
-        <v>0.02542766521016408</v>
+        <v>0.01030773406712642</v>
       </c>
       <c r="AB27" t="n">
-        <v>0.02214088126017623</v>
+        <v>0.02043400119053098</v>
       </c>
       <c r="AC27" t="n">
-        <v>0.04310669022565676</v>
+        <v>0.02571075827568861</v>
       </c>
     </row>
     <row r="28">
@@ -3065,79 +3065,79 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>0.2320814596640754</v>
+        <v>0.2252959624425869</v>
       </c>
       <c r="F28" t="n">
-        <v>0.04297106514306893</v>
+        <v>0.05260075481264778</v>
       </c>
       <c r="G28" t="n">
-        <v>0.01028437613585122</v>
+        <v>0.0005638834400334602</v>
       </c>
       <c r="H28" t="n">
-        <v>0.07718319258211831</v>
+        <v>0.05854879502691279</v>
       </c>
       <c r="I28" t="n">
-        <v>0.07894154795416532</v>
+        <v>0.006279868350560843</v>
       </c>
       <c r="J28" t="n">
-        <v>0.04873993415390909</v>
+        <v>0.03316523635736436</v>
       </c>
       <c r="K28" t="n">
-        <v>7.322301446996243e-05</v>
+        <v>0.004175619105947507</v>
       </c>
       <c r="L28" t="n">
-        <v>0.0239683553620718</v>
+        <v>0.06803581367205395</v>
       </c>
       <c r="M28" t="n">
-        <v>0.04552567622031292</v>
+        <v>0.07237701949320278</v>
       </c>
       <c r="N28" t="n">
-        <v>0.07494322193803915</v>
+        <v>0.02198325967841935</v>
       </c>
       <c r="O28" t="n">
-        <v>0.02937440057517671</v>
+        <v>0.09557851866441455</v>
       </c>
       <c r="P28" t="n">
-        <v>0.070456866199129</v>
+        <v>0.09337778355149311</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.06894503076900445</v>
+        <v>0.02964516819004317</v>
       </c>
       <c r="R28" t="n">
-        <v>0.05967152055337851</v>
+        <v>0.06261206166129817</v>
       </c>
       <c r="S28" t="n">
-        <v>0.07965637711681667</v>
+        <v>0.04915743053294125</v>
       </c>
       <c r="T28" t="n">
-        <v>0.0005310124949565368</v>
+        <v>0.008017538444213743</v>
       </c>
       <c r="U28" t="n">
-        <v>0.006149611700293545</v>
+        <v>0.03731065643025847</v>
       </c>
       <c r="V28" t="n">
-        <v>0.07629021238517361</v>
+        <v>0.03267973143553092</v>
       </c>
       <c r="W28" t="n">
-        <v>0.006807494674805619</v>
+        <v>0.01959249993709681</v>
       </c>
       <c r="X28" t="n">
-        <v>0.05051477271079606</v>
+        <v>0.06915894864177997</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.0645556868579969</v>
+        <v>0.02243694730343619</v>
       </c>
       <c r="Z28" t="n">
-        <v>0.006224727054460749</v>
+        <v>0.0442570131219159</v>
       </c>
       <c r="AA28" t="n">
-        <v>0.00557352188101344</v>
+        <v>0.03514428875508599</v>
       </c>
       <c r="AB28" t="n">
-        <v>0.07261817252299135</v>
+        <v>0.08330116339334881</v>
       </c>
       <c r="AC28" t="n">
-        <v>0.1622869672452911</v>
+        <v>0.1852169158322425</v>
       </c>
     </row>
     <row r="29">
@@ -3160,79 +3160,79 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>0.3625836385659486</v>
+        <v>0.3001720231824537</v>
       </c>
       <c r="F29" t="n">
-        <v>0.08656243358591806</v>
+        <v>0.06404566276883053</v>
       </c>
       <c r="G29" t="n">
-        <v>0.05604104963758658</v>
+        <v>0.01914143437359547</v>
       </c>
       <c r="H29" t="n">
-        <v>0.007353205627665641</v>
+        <v>0.02359763755267345</v>
       </c>
       <c r="I29" t="n">
-        <v>0.02535344152301235</v>
+        <v>0.04030469193236867</v>
       </c>
       <c r="J29" t="n">
-        <v>0.002094108345124221</v>
+        <v>0.0744293034400076</v>
       </c>
       <c r="K29" t="n">
-        <v>0.06023594065892544</v>
+        <v>0.06703274443231608</v>
       </c>
       <c r="L29" t="n">
-        <v>0.05524549866341563</v>
+        <v>0.00259287875981392</v>
       </c>
       <c r="M29" t="n">
-        <v>0.006997116051115393</v>
+        <v>0.01998138092546465</v>
       </c>
       <c r="N29" t="n">
-        <v>0.0984769893811754</v>
+        <v>0.01972123207712675</v>
       </c>
       <c r="O29" t="n">
-        <v>0.008474047565895039</v>
+        <v>0.07120919354597209</v>
       </c>
       <c r="P29" t="n">
-        <v>0.0157581143623184</v>
+        <v>0.02320654147300198</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.01698337649036016</v>
+        <v>0.02644090496323407</v>
       </c>
       <c r="R29" t="n">
-        <v>0.001068304173788112</v>
+        <v>0.05356820416044755</v>
       </c>
       <c r="S29" t="n">
-        <v>0.04857213095312433</v>
+        <v>0.06083787918163392</v>
       </c>
       <c r="T29" t="n">
-        <v>0.0003055128477349287</v>
+        <v>0.0051788356544716</v>
       </c>
       <c r="U29" t="n">
-        <v>0.07469517057684517</v>
+        <v>0.08767926122693119</v>
       </c>
       <c r="V29" t="n">
-        <v>0.01732561881083312</v>
+        <v>0.02781253552943738</v>
       </c>
       <c r="W29" t="n">
-        <v>0.02825089396248323</v>
+        <v>0.05623866132045111</v>
       </c>
       <c r="X29" t="n">
-        <v>0.1001000852753224</v>
+        <v>0.08105171084311584</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.06842427679342358</v>
+        <v>0.06938540287267325</v>
       </c>
       <c r="Z29" t="n">
-        <v>0.06316574048875197</v>
+        <v>0.08225979551934295</v>
       </c>
       <c r="AA29" t="n">
-        <v>0.091403336198059</v>
+        <v>0.002311730876152131</v>
       </c>
       <c r="AB29" t="n">
-        <v>0.06711360802712185</v>
+        <v>0.02197237657093777</v>
       </c>
       <c r="AC29" t="n">
-        <v>0.1771718586614895</v>
+        <v>0.1712427901252587</v>
       </c>
     </row>
     <row r="30">
@@ -3255,79 +3255,79 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>0.1930896987144194</v>
+        <v>0.1976302793666468</v>
       </c>
       <c r="F30" t="n">
-        <v>0.04647240900038242</v>
+        <v>0.07703116390501762</v>
       </c>
       <c r="G30" t="n">
-        <v>0.07286872923051833</v>
+        <v>0.02687433214284567</v>
       </c>
       <c r="H30" t="n">
-        <v>0.04749805624248816</v>
+        <v>0.0878648896107217</v>
       </c>
       <c r="I30" t="n">
-        <v>0.02440180652536687</v>
+        <v>0.03421641114571295</v>
       </c>
       <c r="J30" t="n">
-        <v>0.04540334565728688</v>
+        <v>0.04793342619889365</v>
       </c>
       <c r="K30" t="n">
-        <v>0.07271892439202467</v>
+        <v>0.02369767554363813</v>
       </c>
       <c r="L30" t="n">
-        <v>0.09169788664006165</v>
+        <v>0.07281998295242502</v>
       </c>
       <c r="M30" t="n">
-        <v>0.004462271531243404</v>
+        <v>0.001583477262655314</v>
       </c>
       <c r="N30" t="n">
-        <v>0.00460975760674343</v>
+        <v>0.0888556438678786</v>
       </c>
       <c r="O30" t="n">
-        <v>0.007232424416049581</v>
+        <v>0.03557291856741303</v>
       </c>
       <c r="P30" t="n">
-        <v>0.04992227125898899</v>
+        <v>0.07246049928421108</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.1086347541420959</v>
+        <v>0.05304283806401826</v>
       </c>
       <c r="R30" t="n">
-        <v>0.05019199078823489</v>
+        <v>0.07144489977416084</v>
       </c>
       <c r="S30" t="n">
-        <v>0.0648015283871724</v>
+        <v>0.08737388354293481</v>
       </c>
       <c r="T30" t="n">
-        <v>0.001058736873935414</v>
+        <v>0.07657487811540102</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01401698862353244</v>
+        <v>0.005268932016005045</v>
       </c>
       <c r="V30" t="n">
-        <v>0.003684728068928082</v>
+        <v>0.02116646911387883</v>
       </c>
       <c r="W30" t="n">
-        <v>0.01563493441848961</v>
+        <v>0.008362773064661162</v>
       </c>
       <c r="X30" t="n">
-        <v>0.1091566603444111</v>
+        <v>0.01559812856422636</v>
       </c>
       <c r="Y30" t="n">
-        <v>0.04709519206170797</v>
+        <v>0.04736619249166578</v>
       </c>
       <c r="Z30" t="n">
-        <v>0.09692822686521232</v>
+        <v>0.02866251997716061</v>
       </c>
       <c r="AA30" t="n">
-        <v>0.008021083175705841</v>
+        <v>0.00641011968689433</v>
       </c>
       <c r="AB30" t="n">
-        <v>0.01348729374941974</v>
+        <v>0.009817945107580293</v>
       </c>
       <c r="AC30" t="n">
-        <v>0.03660607725697868</v>
+        <v>0.02012504302092714</v>
       </c>
     </row>
     <row r="31">
@@ -3350,79 +3350,79 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>0.2309028090988725</v>
+        <v>0.2584304109883179</v>
       </c>
       <c r="F31" t="n">
-        <v>0.06198826086600282</v>
+        <v>0.06166162167332507</v>
       </c>
       <c r="G31" t="n">
-        <v>0.008437698700922446</v>
+        <v>0.0133977325527282</v>
       </c>
       <c r="H31" t="n">
-        <v>0.05338070995856888</v>
+        <v>0.02989094775572819</v>
       </c>
       <c r="I31" t="n">
-        <v>0.05932391971471161</v>
+        <v>0.05865021194164335</v>
       </c>
       <c r="J31" t="n">
-        <v>0.0398246368037686</v>
+        <v>0.03773945791220726</v>
       </c>
       <c r="K31" t="n">
-        <v>0.08683226691753158</v>
+        <v>0.07715799584993424</v>
       </c>
       <c r="L31" t="n">
-        <v>0.06431008488730866</v>
+        <v>0.07733698895220875</v>
       </c>
       <c r="M31" t="n">
-        <v>0.05736428294453455</v>
+        <v>0.03984406552217015</v>
       </c>
       <c r="N31" t="n">
-        <v>0.01408102498810784</v>
+        <v>0.03512032292526879</v>
       </c>
       <c r="O31" t="n">
-        <v>0.06122581616288778</v>
+        <v>0.07232960871174852</v>
       </c>
       <c r="P31" t="n">
-        <v>0.08193828141632149</v>
+        <v>0.02793118254647511</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.04979003996533427</v>
+        <v>0.0744338090778216</v>
       </c>
       <c r="R31" t="n">
-        <v>0.03652140948435534</v>
+        <v>0.01054418296290044</v>
       </c>
       <c r="S31" t="n">
-        <v>0.0668264926132681</v>
+        <v>0.07255524467216024</v>
       </c>
       <c r="T31" t="n">
-        <v>0.02054177517910527</v>
+        <v>0.05765248854093991</v>
       </c>
       <c r="U31" t="n">
-        <v>0.003607881913921835</v>
+        <v>0.001650383476299022</v>
       </c>
       <c r="V31" t="n">
-        <v>0.03521171861305613</v>
+        <v>0.0709734888852465</v>
       </c>
       <c r="W31" t="n">
-        <v>0.04504587028079313</v>
+        <v>0.07078285936615127</v>
       </c>
       <c r="X31" t="n">
-        <v>0.05464903831185556</v>
+        <v>0.0580566904921717</v>
       </c>
       <c r="Y31" t="n">
-        <v>0.03789368662642519</v>
+        <v>0.0006680476303779222</v>
       </c>
       <c r="Z31" t="n">
-        <v>0.04983884922260355</v>
+        <v>0.009298075553053063</v>
       </c>
       <c r="AA31" t="n">
-        <v>0.001767809202471141</v>
+        <v>0.02062433222231086</v>
       </c>
       <c r="AB31" t="n">
-        <v>0.009598445226144399</v>
+        <v>0.02170026077712963</v>
       </c>
       <c r="AC31" t="n">
-        <v>0.03429664044876861</v>
+        <v>0.03576073969376106</v>
       </c>
     </row>
     <row r="32">
@@ -3445,79 +3445,79 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>0.1364343562358917</v>
+        <v>0.1334734657222681</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07193045109120272</v>
+        <v>0.0577842448788612</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02324299268628248</v>
+        <v>0.03999692668919835</v>
       </c>
       <c r="H32" t="n">
-        <v>0.02407673045504653</v>
+        <v>0.001484994663961947</v>
       </c>
       <c r="I32" t="n">
-        <v>0.03061263003245654</v>
+        <v>0.02057443786461245</v>
       </c>
       <c r="J32" t="n">
-        <v>0.05232905423873694</v>
+        <v>0.04018733046207567</v>
       </c>
       <c r="K32" t="n">
-        <v>0.02889577292503585</v>
+        <v>0.03469435143225939</v>
       </c>
       <c r="L32" t="n">
-        <v>0.007356164235921162</v>
+        <v>0.04575406469387174</v>
       </c>
       <c r="M32" t="n">
-        <v>0.07969977089892812</v>
+        <v>0.0654930405178846</v>
       </c>
       <c r="N32" t="n">
-        <v>0.078345330318899</v>
+        <v>0.01191924697368934</v>
       </c>
       <c r="O32" t="n">
-        <v>0.02123765686547425</v>
+        <v>0.008121453034332862</v>
       </c>
       <c r="P32" t="n">
-        <v>0.04674631909363772</v>
+        <v>0.1014686134779088</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.03931822534831652</v>
+        <v>0.1055626599838094</v>
       </c>
       <c r="R32" t="n">
-        <v>0.002850625932205302</v>
+        <v>0.05214894324695445</v>
       </c>
       <c r="S32" t="n">
-        <v>0.07244045075111608</v>
+        <v>0.05883662691966002</v>
       </c>
       <c r="T32" t="n">
-        <v>0.004810747575774223</v>
+        <v>0.06052583378543087</v>
       </c>
       <c r="U32" t="n">
-        <v>0.04910770232169229</v>
+        <v>0.04282596318313769</v>
       </c>
       <c r="V32" t="n">
-        <v>0.006577463629506191</v>
+        <v>0.004724310156958459</v>
       </c>
       <c r="W32" t="n">
-        <v>0.074303269363692</v>
+        <v>0.07608661420969731</v>
       </c>
       <c r="X32" t="n">
-        <v>0.07858487693403565</v>
+        <v>0.04032592896400917</v>
       </c>
       <c r="Y32" t="n">
-        <v>0.02774649408016678</v>
+        <v>0.0003327944766821215</v>
       </c>
       <c r="Z32" t="n">
-        <v>0.07603215676423133</v>
+        <v>0.04763336003463856</v>
       </c>
       <c r="AA32" t="n">
-        <v>0.02772500716742703</v>
+        <v>0.03627706248924096</v>
       </c>
       <c r="AB32" t="n">
-        <v>0.07603010729021534</v>
+        <v>0.04724119786112486</v>
       </c>
       <c r="AC32" t="n">
-        <v>0.004544596347164535</v>
+        <v>0.02306417761190661</v>
       </c>
     </row>
     <row r="33">
@@ -3540,79 +3540,79 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>0.1722851265127828</v>
+        <v>0.1547971168136583</v>
       </c>
       <c r="F33" t="n">
-        <v>0.04098287445061945</v>
+        <v>0.1085258838836428</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04656831838318482</v>
+        <v>0.02460200209390664</v>
       </c>
       <c r="H33" t="n">
-        <v>0.01911245681100061</v>
+        <v>0.004587171112273288</v>
       </c>
       <c r="I33" t="n">
-        <v>0.08537750255573297</v>
+        <v>0.05463778140348061</v>
       </c>
       <c r="J33" t="n">
-        <v>0.03738134697705835</v>
+        <v>0.0155499817888488</v>
       </c>
       <c r="K33" t="n">
-        <v>0.08199943539334954</v>
+        <v>0.08694281890551474</v>
       </c>
       <c r="L33" t="n">
-        <v>0.04542562672568397</v>
+        <v>0.02574080255317175</v>
       </c>
       <c r="M33" t="n">
-        <v>0.06271359498622756</v>
+        <v>0.1012996963282694</v>
       </c>
       <c r="N33" t="n">
-        <v>0.02636487954599272</v>
+        <v>0.00191159072873971</v>
       </c>
       <c r="O33" t="n">
-        <v>0.02765561591821684</v>
+        <v>0.05648509549465894</v>
       </c>
       <c r="P33" t="n">
-        <v>0.08649052241088805</v>
+        <v>0.03078537134455961</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.07613256649001249</v>
+        <v>0.006553295411343557</v>
       </c>
       <c r="R33" t="n">
-        <v>0.04940174972833834</v>
+        <v>0.008114494362255347</v>
       </c>
       <c r="S33" t="n">
-        <v>0.001077336662649054</v>
+        <v>0.07057413409172203</v>
       </c>
       <c r="T33" t="n">
-        <v>0.03291445430349521</v>
+        <v>0.003943195384002269</v>
       </c>
       <c r="U33" t="n">
-        <v>0.07629036281223137</v>
+        <v>0.1061472850359276</v>
       </c>
       <c r="V33" t="n">
-        <v>0.02953918979112333</v>
+        <v>0.03779489771645756</v>
       </c>
       <c r="W33" t="n">
-        <v>0.03099202796409016</v>
+        <v>0.04949866821489757</v>
       </c>
       <c r="X33" t="n">
-        <v>0.05458350730573917</v>
+        <v>0.0790937806275948</v>
       </c>
       <c r="Y33" t="n">
-        <v>0.02431991464479947</v>
+        <v>0.02815787968851632</v>
       </c>
       <c r="Z33" t="n">
-        <v>0.001180099482163769</v>
+        <v>0.02718977460818542</v>
       </c>
       <c r="AA33" t="n">
-        <v>0.05928114422405495</v>
+        <v>0.05580888087189643</v>
       </c>
       <c r="AB33" t="n">
-        <v>0.004215472433347771</v>
+        <v>0.01605551835013478</v>
       </c>
       <c r="AC33" t="n">
-        <v>0.009406539123004376</v>
+        <v>0.007488741468394969</v>
       </c>
     </row>
     <row r="34">
@@ -3635,79 +3635,79 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>0.1720182554938558</v>
+        <v>0.1810208248024618</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07915605147987954</v>
+        <v>0.05937527819255941</v>
       </c>
       <c r="G34" t="n">
-        <v>0.07950161809855602</v>
+        <v>0.06113424568675972</v>
       </c>
       <c r="H34" t="n">
-        <v>0.06410397074285566</v>
+        <v>0.01939527695526826</v>
       </c>
       <c r="I34" t="n">
-        <v>0.004615324792401389</v>
+        <v>0.002046088623779944</v>
       </c>
       <c r="J34" t="n">
-        <v>0.06450213847487646</v>
+        <v>0.005032474349168562</v>
       </c>
       <c r="K34" t="n">
-        <v>0.06784059810205471</v>
+        <v>0.06145263343994789</v>
       </c>
       <c r="L34" t="n">
-        <v>0.05456236133218898</v>
+        <v>0.01557766210444938</v>
       </c>
       <c r="M34" t="n">
-        <v>0.03117252262907431</v>
+        <v>0.04575691895855336</v>
       </c>
       <c r="N34" t="n">
-        <v>0.03204403574443081</v>
+        <v>0.061193767105476</v>
       </c>
       <c r="O34" t="n">
-        <v>0.04309503896276989</v>
+        <v>0.02612853920714557</v>
       </c>
       <c r="P34" t="n">
-        <v>0.08379995155042158</v>
+        <v>0.08270241480233817</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.03447151444275001</v>
+        <v>0.07856806327809612</v>
       </c>
       <c r="R34" t="n">
-        <v>0.0003471037945554327</v>
+        <v>0.0001733247901767095</v>
       </c>
       <c r="S34" t="n">
-        <v>0.004215021832117241</v>
+        <v>0.003132878742066344</v>
       </c>
       <c r="T34" t="n">
-        <v>0.06296069682600934</v>
+        <v>0.07921790614027766</v>
       </c>
       <c r="U34" t="n">
-        <v>0.03153678757806801</v>
+        <v>0.0526479173077529</v>
       </c>
       <c r="V34" t="n">
-        <v>0.0483643077406395</v>
+        <v>0.04253417057891612</v>
       </c>
       <c r="W34" t="n">
-        <v>0.00816235546449625</v>
+        <v>0.005076593237266905</v>
       </c>
       <c r="X34" t="n">
-        <v>0.0348992979704834</v>
+        <v>0.05034688222062824</v>
       </c>
       <c r="Y34" t="n">
-        <v>0.04670034454253115</v>
+        <v>0.07028704117990262</v>
       </c>
       <c r="Z34" t="n">
-        <v>0.03691337241144357</v>
+        <v>0.08623148940957702</v>
       </c>
       <c r="AA34" t="n">
-        <v>0.0114859551272792</v>
+        <v>0.08642966831632302</v>
       </c>
       <c r="AB34" t="n">
-        <v>0.07554963036011761</v>
+        <v>0.005558765373570349</v>
       </c>
       <c r="AC34" t="n">
-        <v>0.1214323955898484</v>
+        <v>0.08028610370952603</v>
       </c>
     </row>
     <row r="35">
@@ -3730,79 +3730,79 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>0.201072258410183</v>
+        <v>0.2798988024585201</v>
       </c>
       <c r="F35" t="n">
-        <v>0.04150918676211991</v>
+        <v>0.02185962096634358</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03399330212421835</v>
+        <v>0.06387553596322501</v>
       </c>
       <c r="H35" t="n">
-        <v>0.03591904061735317</v>
+        <v>0.0352766209499359</v>
       </c>
       <c r="I35" t="n">
-        <v>0.007683973943553246</v>
+        <v>0.02845603886447643</v>
       </c>
       <c r="J35" t="n">
-        <v>0.05253291590714092</v>
+        <v>0.03522177745516906</v>
       </c>
       <c r="K35" t="n">
-        <v>0.06670208657347951</v>
+        <v>0.1058824784516186</v>
       </c>
       <c r="L35" t="n">
-        <v>0.0210473077059925</v>
+        <v>0.06239325153394881</v>
       </c>
       <c r="M35" t="n">
-        <v>0.05584772934266027</v>
+        <v>0.08777054995796478</v>
       </c>
       <c r="N35" t="n">
-        <v>0.007361779840915284</v>
+        <v>0.01733100440429114</v>
       </c>
       <c r="O35" t="n">
-        <v>0.003796788437692201</v>
+        <v>0.05549045217668049</v>
       </c>
       <c r="P35" t="n">
-        <v>0.0003915019197676071</v>
+        <v>0.009032798858794648</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.1034033790435814</v>
+        <v>0.1054307444788831</v>
       </c>
       <c r="R35" t="n">
-        <v>0.01358833105712051</v>
+        <v>0.00657368606888618</v>
       </c>
       <c r="S35" t="n">
-        <v>0.007358888474855432</v>
+        <v>0.00507930255813925</v>
       </c>
       <c r="T35" t="n">
-        <v>0.09983501523826066</v>
+        <v>0.02317567929572588</v>
       </c>
       <c r="U35" t="n">
-        <v>0.085006599223216</v>
+        <v>0.02784599167918837</v>
       </c>
       <c r="V35" t="n">
-        <v>0.08695848669112741</v>
+        <v>0.09711386242907111</v>
       </c>
       <c r="W35" t="n">
-        <v>0.01360686920153834</v>
+        <v>0.0150820333763899</v>
       </c>
       <c r="X35" t="n">
-        <v>0.04082297367229654</v>
+        <v>0.08774142294908541</v>
       </c>
       <c r="Y35" t="n">
-        <v>0.006917134801451013</v>
+        <v>0.01024011014966056</v>
       </c>
       <c r="Z35" t="n">
-        <v>0.07727947290482264</v>
+        <v>0.009143087406211184</v>
       </c>
       <c r="AA35" t="n">
-        <v>0.04005926945283313</v>
+        <v>0.01244332308544189</v>
       </c>
       <c r="AB35" t="n">
-        <v>0.09837796706400401</v>
+        <v>0.07754062694086856</v>
       </c>
       <c r="AC35" t="n">
-        <v>0.126242236281507</v>
+        <v>0.1152670058733629</v>
       </c>
     </row>
     <row r="36">
@@ -3825,79 +3825,79 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>0.1595435926851753</v>
+        <v>0.1616820369873288</v>
       </c>
       <c r="F36" t="n">
-        <v>0.06252745410272974</v>
+        <v>0.06716218382730199</v>
       </c>
       <c r="G36" t="n">
-        <v>0.06914883945179363</v>
+        <v>0.03668237835053874</v>
       </c>
       <c r="H36" t="n">
-        <v>0.01082030437514323</v>
+        <v>0.04442397413650882</v>
       </c>
       <c r="I36" t="n">
-        <v>0.04895271966039422</v>
+        <v>0.02226424081902399</v>
       </c>
       <c r="J36" t="n">
-        <v>0.02884081790471061</v>
+        <v>0.07615426716126242</v>
       </c>
       <c r="K36" t="n">
-        <v>0.01927998095110197</v>
+        <v>0.01019313585357505</v>
       </c>
       <c r="L36" t="n">
-        <v>0.07329256556477026</v>
+        <v>0.0707020489704286</v>
       </c>
       <c r="M36" t="n">
-        <v>0.01399835613140723</v>
+        <v>0.0122471543176045</v>
       </c>
       <c r="N36" t="n">
-        <v>0.05977727858351559</v>
+        <v>0.08081250624689085</v>
       </c>
       <c r="O36" t="n">
-        <v>0.04459160814352145</v>
+        <v>0.07822997214045015</v>
       </c>
       <c r="P36" t="n">
-        <v>0.04460032025468342</v>
+        <v>0.0257264476984267</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.002971939498116536</v>
+        <v>0.03965850255908802</v>
       </c>
       <c r="R36" t="n">
-        <v>0.04910037971558805</v>
+        <v>0.05856404661110024</v>
       </c>
       <c r="S36" t="n">
-        <v>0.05566896482745905</v>
+        <v>0.05604851835045527</v>
       </c>
       <c r="T36" t="n">
-        <v>0.02593899744647693</v>
+        <v>0.03585064951443077</v>
       </c>
       <c r="U36" t="n">
-        <v>0.08336067334824601</v>
+        <v>0.05702815347770968</v>
       </c>
       <c r="V36" t="n">
-        <v>0.01138883311799772</v>
+        <v>0.004680727571188269</v>
       </c>
       <c r="W36" t="n">
-        <v>0.03080024998531136</v>
+        <v>0.01139933040663495</v>
       </c>
       <c r="X36" t="n">
-        <v>0.06367491931045771</v>
+        <v>0.07142251746419225</v>
       </c>
       <c r="Y36" t="n">
-        <v>0.05619200695309506</v>
+        <v>0.02037241912995956</v>
       </c>
       <c r="Z36" t="n">
-        <v>0.07221985439818972</v>
+        <v>0.03505736962060946</v>
       </c>
       <c r="AA36" t="n">
-        <v>0.07107022930708856</v>
+        <v>0.0718934650640513</v>
       </c>
       <c r="AB36" t="n">
-        <v>0.001782706968201971</v>
+        <v>0.01342599070856861</v>
       </c>
       <c r="AC36" t="n">
-        <v>0.0002739013031162169</v>
+        <v>-0.01544068208486425</v>
       </c>
     </row>
     <row r="37">
@@ -3920,79 +3920,79 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>0.2330670970578924</v>
+        <v>0.2469722115101254</v>
       </c>
       <c r="F37" t="n">
-        <v>0.01943659327691541</v>
+        <v>0.007028156139230171</v>
       </c>
       <c r="G37" t="n">
-        <v>0.05482792143016994</v>
+        <v>0.07702354704672885</v>
       </c>
       <c r="H37" t="n">
-        <v>0.03592915457025621</v>
+        <v>0.1485043741628995</v>
       </c>
       <c r="I37" t="n">
-        <v>0.05260217019024438</v>
+        <v>0.001347645741369742</v>
       </c>
       <c r="J37" t="n">
-        <v>0.00329165223903814</v>
+        <v>0.1154275087699627</v>
       </c>
       <c r="K37" t="n">
-        <v>0.03184389542487245</v>
+        <v>0.001048066574554288</v>
       </c>
       <c r="L37" t="n">
-        <v>0.07239169144415189</v>
+        <v>0.04934886159415743</v>
       </c>
       <c r="M37" t="n">
-        <v>0.03182932708749825</v>
+        <v>0.0203036693741714</v>
       </c>
       <c r="N37" t="n">
-        <v>0.04672490764958379</v>
+        <v>0.02936107404712838</v>
       </c>
       <c r="O37" t="n">
-        <v>0.06816018187554757</v>
+        <v>0.0293615025304789</v>
       </c>
       <c r="P37" t="n">
-        <v>0.009852088533250224</v>
+        <v>0.02110406655941311</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.01012069684729966</v>
+        <v>0.000209177271339263</v>
       </c>
       <c r="R37" t="n">
-        <v>0.09160188283232848</v>
+        <v>0.007411081748589415</v>
       </c>
       <c r="S37" t="n">
-        <v>0.09366352175451938</v>
+        <v>0.09866151350523382</v>
       </c>
       <c r="T37" t="n">
-        <v>0.08436011541186442</v>
+        <v>0.02333088278642919</v>
       </c>
       <c r="U37" t="n">
-        <v>0.04988433307304149</v>
+        <v>0.03134457610909259</v>
       </c>
       <c r="V37" t="n">
-        <v>0.09897975192669113</v>
+        <v>0.1267672250182544</v>
       </c>
       <c r="W37" t="n">
-        <v>0.04258102910898634</v>
+        <v>0.02611319290402173</v>
       </c>
       <c r="X37" t="n">
-        <v>0.00616521035058323</v>
+        <v>0.04221334043058758</v>
       </c>
       <c r="Y37" t="n">
-        <v>0.01489217140392851</v>
+        <v>0.05022512229486972</v>
       </c>
       <c r="Z37" t="n">
-        <v>0.01672751818613234</v>
+        <v>0.00402082661712957</v>
       </c>
       <c r="AA37" t="n">
-        <v>0.04919726270615529</v>
+        <v>0.07437736852818394</v>
       </c>
       <c r="AB37" t="n">
-        <v>0.01493692267694176</v>
+        <v>0.01546722024617405</v>
       </c>
       <c r="AC37" t="n">
-        <v>0.006562463883036614</v>
+        <v>-0.01321741388607327</v>
       </c>
     </row>
     <row r="38">
@@ -4015,79 +4015,79 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>0.1941255380177636</v>
+        <v>0.1946422083611271</v>
       </c>
       <c r="F38" t="n">
-        <v>0.07387498732228111</v>
+        <v>0.07375307858132989</v>
       </c>
       <c r="G38" t="n">
-        <v>0.09234699871634093</v>
+        <v>0.04142322199205144</v>
       </c>
       <c r="H38" t="n">
-        <v>0.06132119920530656</v>
+        <v>0.0739331295787502</v>
       </c>
       <c r="I38" t="n">
-        <v>0.1021857692044161</v>
+        <v>0.007912246421626934</v>
       </c>
       <c r="J38" t="n">
-        <v>0.003215092762556337</v>
+        <v>0.01337061332062561</v>
       </c>
       <c r="K38" t="n">
-        <v>0.07527120142504999</v>
+        <v>0.06926781655496725</v>
       </c>
       <c r="L38" t="n">
-        <v>0.05806594483678315</v>
+        <v>0.02297805764725017</v>
       </c>
       <c r="M38" t="n">
-        <v>0.06859563614615366</v>
+        <v>0.02811359434702298</v>
       </c>
       <c r="N38" t="n">
-        <v>0.002835884107123229</v>
+        <v>0.007137359910143048</v>
       </c>
       <c r="O38" t="n">
-        <v>0.03195738386860251</v>
+        <v>0.03419541929570129</v>
       </c>
       <c r="P38" t="n">
-        <v>0.06397685166162624</v>
+        <v>0.05115456058670973</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.03824588909281627</v>
+        <v>0.05252792988871245</v>
       </c>
       <c r="R38" t="n">
-        <v>0.04820873874621805</v>
+        <v>0.05567692856056932</v>
       </c>
       <c r="S38" t="n">
-        <v>0.02822675687941098</v>
+        <v>0.02436264942550677</v>
       </c>
       <c r="T38" t="n">
-        <v>0.0001926514259175799</v>
+        <v>0.08127037537250491</v>
       </c>
       <c r="U38" t="n">
-        <v>0.0513432188532435</v>
+        <v>0.07234030492710677</v>
       </c>
       <c r="V38" t="n">
-        <v>0.001691533569361342</v>
+        <v>0.004385612504535719</v>
       </c>
       <c r="W38" t="n">
-        <v>0.01911670761012698</v>
+        <v>0.03265574391804719</v>
       </c>
       <c r="X38" t="n">
-        <v>0.0310735915821706</v>
+        <v>0.07601892617392562</v>
       </c>
       <c r="Y38" t="n">
-        <v>0.03473431591118132</v>
+        <v>0.05709003733189692</v>
       </c>
       <c r="Z38" t="n">
-        <v>0.01013034576776275</v>
+        <v>0.07325399028949608</v>
       </c>
       <c r="AA38" t="n">
-        <v>0.07994564080639759</v>
+        <v>0.0302201707970371</v>
       </c>
       <c r="AB38" t="n">
-        <v>0.02344366049915303</v>
+        <v>0.01695823257448265</v>
       </c>
       <c r="AC38" t="n">
-        <v>-0.0305936879273196</v>
+        <v>-0.0002570172406311324</v>
       </c>
     </row>
     <row r="39">
@@ -4110,79 +4110,79 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>0.2312540588640879</v>
+        <v>0.3243528686068793</v>
       </c>
       <c r="F39" t="n">
-        <v>0.06859456779596698</v>
+        <v>0.09695729261559879</v>
       </c>
       <c r="G39" t="n">
-        <v>0.05304001458377523</v>
+        <v>0.06024161433184964</v>
       </c>
       <c r="H39" t="n">
-        <v>0.04750541434523849</v>
+        <v>0.09228325571297628</v>
       </c>
       <c r="I39" t="n">
-        <v>0.004034182588104408</v>
+        <v>0.02627781202750909</v>
       </c>
       <c r="J39" t="n">
-        <v>0.07383230963216358</v>
+        <v>0.06663997092253439</v>
       </c>
       <c r="K39" t="n">
-        <v>0.004102982258467685</v>
+        <v>0.06838780166806326</v>
       </c>
       <c r="L39" t="n">
-        <v>0.001466468584177093</v>
+        <v>0.008328180668278437</v>
       </c>
       <c r="M39" t="n">
-        <v>0.06301721357540005</v>
+        <v>0.09365806900801375</v>
       </c>
       <c r="N39" t="n">
-        <v>0.003239031829417784</v>
+        <v>0.001488946881832313</v>
       </c>
       <c r="O39" t="n">
-        <v>0.005683791423377529</v>
+        <v>0.05320933156644206</v>
       </c>
       <c r="P39" t="n">
-        <v>0.07891515131299759</v>
+        <v>0.009523365936954468</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.01875096134336438</v>
+        <v>0.01719417938037048</v>
       </c>
       <c r="R39" t="n">
-        <v>0.05868415272205739</v>
+        <v>0.07706806331891673</v>
       </c>
       <c r="S39" t="n">
-        <v>0.08558019555421342</v>
+        <v>0.09937625535318584</v>
       </c>
       <c r="T39" t="n">
-        <v>0.07991317926247446</v>
+        <v>0.03581013124360963</v>
       </c>
       <c r="U39" t="n">
-        <v>0.03680943448890799</v>
+        <v>0.02801022590839405</v>
       </c>
       <c r="V39" t="n">
-        <v>0.002404926272118751</v>
+        <v>0.02638544406197605</v>
       </c>
       <c r="W39" t="n">
-        <v>0.07900615670556708</v>
+        <v>0.04438739275030087</v>
       </c>
       <c r="X39" t="n">
-        <v>0.04997411819192371</v>
+        <v>0.006243432248854674</v>
       </c>
       <c r="Y39" t="n">
-        <v>0.01794605680488798</v>
+        <v>0.005711110628343755</v>
       </c>
       <c r="Z39" t="n">
-        <v>0.07178802030229046</v>
+        <v>0.03192717385690159</v>
       </c>
       <c r="AA39" t="n">
-        <v>0.07066362165934222</v>
+        <v>0.03737256546196301</v>
       </c>
       <c r="AB39" t="n">
-        <v>0.02504804876376602</v>
+        <v>0.01351838444713092</v>
       </c>
       <c r="AC39" t="n">
-        <v>-0.01035076926553695</v>
+        <v>-0.008343232672271031</v>
       </c>
     </row>
     <row r="40">
@@ -4205,79 +4205,79 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>0.1945781992077441</v>
+        <v>0.19283372669035</v>
       </c>
       <c r="F40" t="n">
-        <v>0.07599738364503414</v>
+        <v>0.07462660009358173</v>
       </c>
       <c r="G40" t="n">
-        <v>0.005263434346903302</v>
+        <v>0.06792611610032971</v>
       </c>
       <c r="H40" t="n">
-        <v>0.0223679919434848</v>
+        <v>0.005804589238508888</v>
       </c>
       <c r="I40" t="n">
-        <v>0.03733036210990457</v>
+        <v>0.01150555453986209</v>
       </c>
       <c r="J40" t="n">
-        <v>0.05282093331281938</v>
+        <v>0.002578799809749447</v>
       </c>
       <c r="K40" t="n">
-        <v>0.02578799907524434</v>
+        <v>0.04496308275444098</v>
       </c>
       <c r="L40" t="n">
-        <v>0.0397818063108103</v>
+        <v>0.06277806592743258</v>
       </c>
       <c r="M40" t="n">
-        <v>0.09530828880823811</v>
+        <v>0.07798764000691477</v>
       </c>
       <c r="N40" t="n">
-        <v>0.002987677854960563</v>
+        <v>0.03053688050424243</v>
       </c>
       <c r="O40" t="n">
-        <v>0.01081996232650217</v>
+        <v>0.07929841709816318</v>
       </c>
       <c r="P40" t="n">
-        <v>0.01931796529985799</v>
+        <v>0.04991995637497079</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.02015231742608934</v>
+        <v>0.005560672717300705</v>
       </c>
       <c r="R40" t="n">
-        <v>0.08536805785274862</v>
+        <v>0.06003545633342908</v>
       </c>
       <c r="S40" t="n">
-        <v>0.1024633296645516</v>
+        <v>0.06075539692076756</v>
       </c>
       <c r="T40" t="n">
-        <v>0.08317040300444424</v>
+        <v>0.00204772197285065</v>
       </c>
       <c r="U40" t="n">
-        <v>0.03634150472036513</v>
+        <v>0.07895673623782083</v>
       </c>
       <c r="V40" t="n">
-        <v>0.004581296567903862</v>
+        <v>0.03366369665929422</v>
       </c>
       <c r="W40" t="n">
-        <v>0.04399137797672868</v>
+        <v>0.04138088700413315</v>
       </c>
       <c r="X40" t="n">
-        <v>0.06032389391125852</v>
+        <v>0.07162418337036269</v>
       </c>
       <c r="Y40" t="n">
-        <v>0.02051508358262681</v>
+        <v>0.01256617708699238</v>
       </c>
       <c r="Z40" t="n">
-        <v>0.07400383268416028</v>
+        <v>0.08036764513856577</v>
       </c>
       <c r="AA40" t="n">
-        <v>0.08018666816861798</v>
+        <v>0.03108140243994886</v>
       </c>
       <c r="AB40" t="n">
-        <v>0.001118429406745521</v>
+        <v>0.01403432167033736</v>
       </c>
       <c r="AC40" t="n">
-        <v>0.1337061453075509</v>
+        <v>0.1370862529706723</v>
       </c>
     </row>
     <row r="41">
@@ -4300,79 +4300,79 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>0.1992659166551524</v>
+        <v>0.2081530389481671</v>
       </c>
       <c r="F41" t="n">
-        <v>0.08787096248885994</v>
+        <v>0.07521959946395478</v>
       </c>
       <c r="G41" t="n">
-        <v>0.01397602117552412</v>
+        <v>0.04170042045236717</v>
       </c>
       <c r="H41" t="n">
-        <v>0.02545313094888239</v>
+        <v>0.005055186824451798</v>
       </c>
       <c r="I41" t="n">
-        <v>0.04271706236947456</v>
+        <v>0.0123011359105742</v>
       </c>
       <c r="J41" t="n">
-        <v>0.06767885362673731</v>
+        <v>0.07969179699998039</v>
       </c>
       <c r="K41" t="n">
-        <v>0.03735234830714831</v>
+        <v>0.08109678849120358</v>
       </c>
       <c r="L41" t="n">
-        <v>0.01513567886226485</v>
+        <v>0.04518955300687496</v>
       </c>
       <c r="M41" t="n">
-        <v>0.06671446007285813</v>
+        <v>0.09921295764134835</v>
       </c>
       <c r="N41" t="n">
-        <v>0.01118465644822133</v>
+        <v>0.007431183071168646</v>
       </c>
       <c r="O41" t="n">
-        <v>0.0248106731981067</v>
+        <v>0.04022127003587826</v>
       </c>
       <c r="P41" t="n">
-        <v>0.01691970008961011</v>
+        <v>0.07241137907803735</v>
       </c>
       <c r="Q41" t="n">
-        <v>0.01525954370548489</v>
+        <v>0.01035081112158987</v>
       </c>
       <c r="R41" t="n">
-        <v>0.08589919596527537</v>
+        <v>0.0426842503760913</v>
       </c>
       <c r="S41" t="n">
-        <v>0.09029199233488081</v>
+        <v>0.07483658465332935</v>
       </c>
       <c r="T41" t="n">
-        <v>0.004787516195332131</v>
+        <v>0.08190030388026465</v>
       </c>
       <c r="U41" t="n">
-        <v>0.04536138816338151</v>
+        <v>0.03151852697706126</v>
       </c>
       <c r="V41" t="n">
-        <v>0.08754466663668702</v>
+        <v>0.09303171552192023</v>
       </c>
       <c r="W41" t="n">
-        <v>0.07079371680045148</v>
+        <v>0.04576708605073319</v>
       </c>
       <c r="X41" t="n">
-        <v>0.01584915255753768</v>
+        <v>0.01520790474399275</v>
       </c>
       <c r="Y41" t="n">
-        <v>0.003919331977457575</v>
+        <v>0.001762003223956372</v>
       </c>
       <c r="Z41" t="n">
-        <v>0.07025194160956431</v>
+        <v>0.02570972264387428</v>
       </c>
       <c r="AA41" t="n">
-        <v>0.06213205121227477</v>
+        <v>0.0002915339830894235</v>
       </c>
       <c r="AB41" t="n">
-        <v>0.0380959552539846</v>
+        <v>0.01740828584825786</v>
       </c>
       <c r="AC41" t="n">
-        <v>0.1388585874645118</v>
+        <v>0.1454647524234101</v>
       </c>
     </row>
     <row r="42">
@@ -4395,79 +4395,79 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>0.2144692048116541</v>
+        <v>0.2076946301466724</v>
       </c>
       <c r="F42" t="n">
-        <v>0.009377860344564211</v>
+        <v>0.02464878898404692</v>
       </c>
       <c r="G42" t="n">
-        <v>0.02233375540863999</v>
+        <v>0.0210434615296093</v>
       </c>
       <c r="H42" t="n">
-        <v>0.0782215955755582</v>
+        <v>0.1032176323491147</v>
       </c>
       <c r="I42" t="n">
-        <v>0.05362420875842135</v>
+        <v>0.06802436207535796</v>
       </c>
       <c r="J42" t="n">
-        <v>0.06163347070960204</v>
+        <v>0.002827473723588711</v>
       </c>
       <c r="K42" t="n">
-        <v>0.07690602661832131</v>
+        <v>0.02764398105024226</v>
       </c>
       <c r="L42" t="n">
-        <v>0.02507772218310444</v>
+        <v>0.04990077483394246</v>
       </c>
       <c r="M42" t="n">
-        <v>0.05507551498414044</v>
+        <v>0.09361880957259662</v>
       </c>
       <c r="N42" t="n">
-        <v>0.005360449193345041</v>
+        <v>0.02387184385506587</v>
       </c>
       <c r="O42" t="n">
-        <v>0.03795890214516449</v>
+        <v>0.002436521415606312</v>
       </c>
       <c r="P42" t="n">
-        <v>0.02805358731255103</v>
+        <v>0.04482844003993999</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.07557402745979268</v>
+        <v>0.0219368814573891</v>
       </c>
       <c r="R42" t="n">
-        <v>0.04737241999886472</v>
+        <v>0.08768269490804136</v>
       </c>
       <c r="S42" t="n">
-        <v>0.07505377854491239</v>
+        <v>0.07384639119495159</v>
       </c>
       <c r="T42" t="n">
-        <v>0.01890895177484623</v>
+        <v>0.04084477099909011</v>
       </c>
       <c r="U42" t="n">
-        <v>0.06390779739292717</v>
+        <v>0.09351590847633121</v>
       </c>
       <c r="V42" t="n">
-        <v>0.01042428588682876</v>
+        <v>0.01532723883176602</v>
       </c>
       <c r="W42" t="n">
-        <v>0.07154884207040497</v>
+        <v>0.03376704753390202</v>
       </c>
       <c r="X42" t="n">
-        <v>0.07800115009318279</v>
+        <v>0.09664059737896749</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.001275854542844489</v>
+        <v>0.02897090641055864</v>
       </c>
       <c r="Z42" t="n">
-        <v>0.05308538590345433</v>
+        <v>0.01836791385981198</v>
       </c>
       <c r="AA42" t="n">
-        <v>0.002448382531949175</v>
+        <v>0.006064296637777877</v>
       </c>
       <c r="AB42" t="n">
-        <v>0.0487760305665798</v>
+        <v>0.02097326288230131</v>
       </c>
       <c r="AC42" t="n">
-        <v>0.02876516143500923</v>
+        <v>0.03435261780493961</v>
       </c>
     </row>
     <row r="43">
@@ -4490,79 +4490,79 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>0.2612893224585845</v>
+        <v>0.3243096241025079</v>
       </c>
       <c r="F43" t="n">
-        <v>0.03488987467803896</v>
+        <v>0.08492050485896217</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01578479543955099</v>
+        <v>0.04780630525381416</v>
       </c>
       <c r="H43" t="n">
-        <v>0.09082390710445762</v>
+        <v>0.002592523135207439</v>
       </c>
       <c r="I43" t="n">
-        <v>0.03731049476144511</v>
+        <v>0.001108040789026208</v>
       </c>
       <c r="J43" t="n">
-        <v>0.01631708031203868</v>
+        <v>0.03386357517938221</v>
       </c>
       <c r="K43" t="n">
-        <v>0.01295054828027061</v>
+        <v>0.0485672704835684</v>
       </c>
       <c r="L43" t="n">
-        <v>0.05599047135471967</v>
+        <v>0.002964326302683315</v>
       </c>
       <c r="M43" t="n">
-        <v>0.05095749775770634</v>
+        <v>0.04927759892140105</v>
       </c>
       <c r="N43" t="n">
-        <v>0.02115024208746279</v>
+        <v>0.0286279869875793</v>
       </c>
       <c r="O43" t="n">
-        <v>0.0003208594623235947</v>
+        <v>0.02923450193324674</v>
       </c>
       <c r="P43" t="n">
-        <v>0.02880465761978437</v>
+        <v>0.03614114738797647</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.05807244332255575</v>
+        <v>0.07139917614154538</v>
       </c>
       <c r="R43" t="n">
-        <v>0.08818791296384713</v>
+        <v>0.01523817976823552</v>
       </c>
       <c r="S43" t="n">
-        <v>0.07533827141711454</v>
+        <v>0.04608580261335219</v>
       </c>
       <c r="T43" t="n">
-        <v>0.09869990287652322</v>
+        <v>0.1104255919751925</v>
       </c>
       <c r="U43" t="n">
-        <v>0.06746972957806621</v>
+        <v>0.02913851569075243</v>
       </c>
       <c r="V43" t="n">
-        <v>0.08479591072659355</v>
+        <v>0.128253144783215</v>
       </c>
       <c r="W43" t="n">
-        <v>0.05197299155300319</v>
+        <v>0.01468296303528948</v>
       </c>
       <c r="X43" t="n">
-        <v>0.0305784184484048</v>
+        <v>0.004302713453854885</v>
       </c>
       <c r="Y43" t="n">
-        <v>0.06474174106530059</v>
+        <v>0.1022457836305887</v>
       </c>
       <c r="Z43" t="n">
-        <v>0.0009186649149992973</v>
+        <v>0.03649798316622681</v>
       </c>
       <c r="AA43" t="n">
-        <v>0.001072183468718282</v>
+        <v>0.007899090779737883</v>
       </c>
       <c r="AB43" t="n">
-        <v>0.01285140080707474</v>
+        <v>0.06872727372916188</v>
       </c>
       <c r="AC43" t="n">
-        <v>0.046974494587988</v>
+        <v>0.08121713682090591</v>
       </c>
     </row>
     <row r="44">
@@ -4585,79 +4585,79 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>0.2040274411802393</v>
+        <v>0.2057777074126992</v>
       </c>
       <c r="F44" t="n">
-        <v>0.04931436479483031</v>
+        <v>0.03124715288512123</v>
       </c>
       <c r="G44" t="n">
-        <v>0.009399818716802507</v>
+        <v>0.005004283976012414</v>
       </c>
       <c r="H44" t="n">
-        <v>0.02173052916446751</v>
+        <v>0.01562974049856419</v>
       </c>
       <c r="I44" t="n">
-        <v>0.06626227707152992</v>
+        <v>0.01663582641096899</v>
       </c>
       <c r="J44" t="n">
-        <v>0.04296379203531644</v>
+        <v>0.07562492888686836</v>
       </c>
       <c r="K44" t="n">
-        <v>0.03127424842519632</v>
+        <v>0.05557147156478161</v>
       </c>
       <c r="L44" t="n">
-        <v>0.05149117727568119</v>
+        <v>0.06510993755972934</v>
       </c>
       <c r="M44" t="n">
-        <v>0.04845710819885622</v>
+        <v>0.04888482841146718</v>
       </c>
       <c r="N44" t="n">
-        <v>0.06712746477227789</v>
+        <v>0.01927878138890066</v>
       </c>
       <c r="O44" t="n">
-        <v>0.03561305294933292</v>
+        <v>0.06660289968830661</v>
       </c>
       <c r="P44" t="n">
-        <v>0.08016974620508034</v>
+        <v>0.07192395128058036</v>
       </c>
       <c r="Q44" t="n">
-        <v>0.04240938983340643</v>
+        <v>0.02478561708854046</v>
       </c>
       <c r="R44" t="n">
-        <v>0.05874255035139609</v>
+        <v>0.05433334540630345</v>
       </c>
       <c r="S44" t="n">
-        <v>0.06017898847999788</v>
+        <v>0.08023379665429478</v>
       </c>
       <c r="T44" t="n">
-        <v>0.07794170494041154</v>
+        <v>0.06481833798753039</v>
       </c>
       <c r="U44" t="n">
-        <v>0.02912970895752275</v>
+        <v>0.01916388050281339</v>
       </c>
       <c r="V44" t="n">
-        <v>0.003777745419639959</v>
+        <v>0.01558533485104648</v>
       </c>
       <c r="W44" t="n">
-        <v>0.001248580884554756</v>
+        <v>0.003600452401842202</v>
       </c>
       <c r="X44" t="n">
-        <v>0.07946270143294241</v>
+        <v>0.04061198777694774</v>
       </c>
       <c r="Y44" t="n">
-        <v>0.009984456390546622</v>
+        <v>0.01390183160937243</v>
       </c>
       <c r="Z44" t="n">
-        <v>0.0764451241205764</v>
+        <v>0.06303999350270086</v>
       </c>
       <c r="AA44" t="n">
-        <v>0.03783981969910852</v>
+        <v>0.06923312853068465</v>
       </c>
       <c r="AB44" t="n">
-        <v>0.01903564988052493</v>
+        <v>0.0791784911366222</v>
       </c>
       <c r="AC44" t="n">
-        <v>0.01268852536792095</v>
+        <v>0.03715818435271305</v>
       </c>
     </row>
     <row r="45">
@@ -4680,79 +4680,79 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>0.3574079357889917</v>
+        <v>0.5314256993415971</v>
       </c>
       <c r="F45" t="n">
-        <v>0.09275329255058894</v>
+        <v>0.05691095874696052</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0005854954684988336</v>
+        <v>0.001161148254579154</v>
       </c>
       <c r="H45" t="n">
-        <v>0.0245608396305215</v>
+        <v>0.0762363078587935</v>
       </c>
       <c r="I45" t="n">
-        <v>0.02218458146521766</v>
+        <v>0.02266726279788145</v>
       </c>
       <c r="J45" t="n">
-        <v>0.06562480764576294</v>
+        <v>0.005358113816284913</v>
       </c>
       <c r="K45" t="n">
-        <v>0.09757382077330191</v>
+        <v>0.03917635940218261</v>
       </c>
       <c r="L45" t="n">
-        <v>0.05840818199798173</v>
+        <v>0.0170960077258287</v>
       </c>
       <c r="M45" t="n">
-        <v>0.01529174987098403</v>
+        <v>0.04024810849498488</v>
       </c>
       <c r="N45" t="n">
-        <v>0.05993213087294084</v>
+        <v>0.01848950169664746</v>
       </c>
       <c r="O45" t="n">
-        <v>0.02387793747656123</v>
+        <v>0.08834832714303371</v>
       </c>
       <c r="P45" t="n">
-        <v>0.03455146551441875</v>
+        <v>0.05880137796702185</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.02193317284288133</v>
+        <v>0.05545470067327025</v>
       </c>
       <c r="R45" t="n">
-        <v>0.01425069230245936</v>
+        <v>0.04702191979555556</v>
       </c>
       <c r="S45" t="n">
-        <v>0.00441037462577023</v>
+        <v>0.002643256120920663</v>
       </c>
       <c r="T45" t="n">
-        <v>0.03623077547692415</v>
+        <v>0.01371524239994</v>
       </c>
       <c r="U45" t="n">
-        <v>0.0231658319508563</v>
+        <v>0.05325839759671593</v>
       </c>
       <c r="V45" t="n">
-        <v>0.0994993264376105</v>
+        <v>0.03586788313204384</v>
       </c>
       <c r="W45" t="n">
-        <v>0.03552571941938468</v>
+        <v>0.08024919816371173</v>
       </c>
       <c r="X45" t="n">
-        <v>0.02694802414238405</v>
+        <v>0.0437510275726742</v>
       </c>
       <c r="Y45" t="n">
-        <v>0.07051637393743986</v>
+        <v>0.07241020202089224</v>
       </c>
       <c r="Z45" t="n">
-        <v>0.08326211094318435</v>
+        <v>0.06303341483115296</v>
       </c>
       <c r="AA45" t="n">
-        <v>0.08799471213591069</v>
+        <v>0.08575499020180394</v>
       </c>
       <c r="AB45" t="n">
-        <v>0.0009185825184160803</v>
+        <v>0.02234629358711979</v>
       </c>
       <c r="AC45" t="n">
-        <v>0.03742938477708761</v>
+        <v>0.02236503426017778</v>
       </c>
     </row>
     <row r="46">
@@ -4775,79 +4775,79 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>0.2044538869698214</v>
+        <v>0.178314292436078</v>
       </c>
       <c r="F46" t="n">
-        <v>0.07122830012974338</v>
+        <v>0.09634186315893303</v>
       </c>
       <c r="G46" t="n">
-        <v>0.02752747684887972</v>
+        <v>0.01090538218072559</v>
       </c>
       <c r="H46" t="n">
-        <v>0.0814371957040179</v>
+        <v>0.05390603690839899</v>
       </c>
       <c r="I46" t="n">
-        <v>0.01855333867594099</v>
+        <v>0.0784609750853552</v>
       </c>
       <c r="J46" t="n">
-        <v>0.07337758375857632</v>
+        <v>0.1111201458983436</v>
       </c>
       <c r="K46" t="n">
-        <v>0.006393394000039298</v>
+        <v>0.003683875144374793</v>
       </c>
       <c r="L46" t="n">
-        <v>0.03104689435494244</v>
+        <v>0.009334803260031639</v>
       </c>
       <c r="M46" t="n">
-        <v>0.01513686843708524</v>
+        <v>0.0009303027722281517</v>
       </c>
       <c r="N46" t="n">
-        <v>0.05380797273658283</v>
+        <v>0.02116220237096423</v>
       </c>
       <c r="O46" t="n">
-        <v>0.07296998338152434</v>
+        <v>0.0484155903464678</v>
       </c>
       <c r="P46" t="n">
-        <v>0.02036320775100606</v>
+        <v>0.1113526769660612</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.0240649058673174</v>
+        <v>0.03074159032065178</v>
       </c>
       <c r="R46" t="n">
-        <v>0.05103273067991017</v>
+        <v>0.03590534538803152</v>
       </c>
       <c r="S46" t="n">
-        <v>0.02566190896565042</v>
+        <v>0.006502575650550092</v>
       </c>
       <c r="T46" t="n">
-        <v>0.08059663707625073</v>
+        <v>0.02794012535447906</v>
       </c>
       <c r="U46" t="n">
-        <v>0.03756524731150599</v>
+        <v>0.02561674025023951</v>
       </c>
       <c r="V46" t="n">
-        <v>0.002933475244575079</v>
+        <v>0.0004895989194197174</v>
       </c>
       <c r="W46" t="n">
-        <v>0.02868310650970135</v>
+        <v>0.09427700912761026</v>
       </c>
       <c r="X46" t="n">
-        <v>0.07032335507533567</v>
+        <v>0.0584470837232112</v>
       </c>
       <c r="Y46" t="n">
-        <v>0.08167533204115586</v>
+        <v>0.01073084479482814</v>
       </c>
       <c r="Z46" t="n">
-        <v>0.06682482002435398</v>
+        <v>0.08109725027457088</v>
       </c>
       <c r="AA46" t="n">
-        <v>0.05341485779858602</v>
+        <v>0.06790559621599604</v>
       </c>
       <c r="AB46" t="n">
-        <v>0.005381407627318942</v>
+        <v>0.01473238588852762</v>
       </c>
       <c r="AC46" t="n">
-        <v>-0.0807943347693518</v>
+        <v>-0.06583910550071984</v>
       </c>
     </row>
     <row r="47">
@@ -4870,79 +4870,79 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>0.6223023452983305</v>
+        <v>0.5461056765023505</v>
       </c>
       <c r="F47" t="n">
-        <v>0.02617386727570269</v>
+        <v>0.04386382794496366</v>
       </c>
       <c r="G47" t="n">
-        <v>0.02400582819610141</v>
+        <v>0.03516021113845041</v>
       </c>
       <c r="H47" t="n">
-        <v>0.05992234993771076</v>
+        <v>0.02202415390100944</v>
       </c>
       <c r="I47" t="n">
-        <v>0.08467088750410277</v>
+        <v>0.01163068152689385</v>
       </c>
       <c r="J47" t="n">
-        <v>0.07762149115493731</v>
+        <v>0.08044754114341562</v>
       </c>
       <c r="K47" t="n">
-        <v>0.005762021430512342</v>
+        <v>0.0005826911386634921</v>
       </c>
       <c r="L47" t="n">
-        <v>0.02269146616724709</v>
+        <v>0.005249532062431352</v>
       </c>
       <c r="M47" t="n">
-        <v>0.01602711962278513</v>
+        <v>0.01906543700134106</v>
       </c>
       <c r="N47" t="n">
-        <v>0.05091088319085001</v>
+        <v>0.07834865301765749</v>
       </c>
       <c r="O47" t="n">
-        <v>0.08828536004932584</v>
+        <v>0.08524825013931848</v>
       </c>
       <c r="P47" t="n">
-        <v>0.06744979490498584</v>
+        <v>0.04563798633254972</v>
       </c>
       <c r="Q47" t="n">
-        <v>0.04272691513050396</v>
+        <v>0.05392090404565125</v>
       </c>
       <c r="R47" t="n">
-        <v>0.03614176298134635</v>
+        <v>0.07398926379225934</v>
       </c>
       <c r="S47" t="n">
-        <v>0.01345804393523132</v>
+        <v>0.04047984193113884</v>
       </c>
       <c r="T47" t="n">
-        <v>0.01683013916703975</v>
+        <v>0.01669154213772083</v>
       </c>
       <c r="U47" t="n">
-        <v>0.06241891996654048</v>
+        <v>0.07747272709753357</v>
       </c>
       <c r="V47" t="n">
-        <v>0.08728171137479462</v>
+        <v>0.0775749499798189</v>
       </c>
       <c r="W47" t="n">
-        <v>0.007691593755200737</v>
+        <v>0.03817082883397951</v>
       </c>
       <c r="X47" t="n">
-        <v>0.009529467558574822</v>
+        <v>0.002701317998114495</v>
       </c>
       <c r="Y47" t="n">
-        <v>0.08474628024852826</v>
+        <v>0.07184681210869455</v>
       </c>
       <c r="Z47" t="n">
-        <v>0.08637347800072169</v>
+        <v>0.0235602977019342</v>
       </c>
       <c r="AA47" t="n">
-        <v>0.02710787266623619</v>
+        <v>0.08502813474784972</v>
       </c>
       <c r="AB47" t="n">
-        <v>0.002172745781020758</v>
+        <v>0.01130441427861002</v>
       </c>
       <c r="AC47" t="n">
-        <v>-0.08202424802105586</v>
+        <v>-0.08606578252273069</v>
       </c>
     </row>
     <row r="48">
@@ -4965,79 +4965,79 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>0.1178231775772249</v>
+        <v>0.1168712268782486</v>
       </c>
       <c r="F48" t="n">
-        <v>0.00855021597466296</v>
+        <v>0.01250599949335427</v>
       </c>
       <c r="G48" t="n">
-        <v>0.06060486046429825</v>
+        <v>0.09322666552853172</v>
       </c>
       <c r="H48" t="n">
-        <v>0.07003658375363171</v>
+        <v>0.02993104948168866</v>
       </c>
       <c r="I48" t="n">
-        <v>0.02179036539644038</v>
+        <v>0.01101332135176068</v>
       </c>
       <c r="J48" t="n">
-        <v>0.003032743855059094</v>
+        <v>0.004662080198660489</v>
       </c>
       <c r="K48" t="n">
-        <v>0.06903748316776863</v>
+        <v>0.02515965139077602</v>
       </c>
       <c r="L48" t="n">
-        <v>0.03690337624567218</v>
+        <v>0.05882161391516705</v>
       </c>
       <c r="M48" t="n">
-        <v>0.03353481006169099</v>
+        <v>0.03848787934984148</v>
       </c>
       <c r="N48" t="n">
-        <v>0.0325436415528209</v>
+        <v>0.03746103308338485</v>
       </c>
       <c r="O48" t="n">
-        <v>0.0400361400258489</v>
+        <v>0.03908265207162084</v>
       </c>
       <c r="P48" t="n">
-        <v>0.07019214596460673</v>
+        <v>0.08832396733122089</v>
       </c>
       <c r="Q48" t="n">
-        <v>0.06615446270820059</v>
+        <v>0.06956038342174811</v>
       </c>
       <c r="R48" t="n">
-        <v>0.008660636334336076</v>
+        <v>0.01501564709444372</v>
       </c>
       <c r="S48" t="n">
-        <v>0.06064939798293784</v>
+        <v>0.06082449213255472</v>
       </c>
       <c r="T48" t="n">
-        <v>0.05767268321871039</v>
+        <v>0.04662246605855935</v>
       </c>
       <c r="U48" t="n">
-        <v>0.08029723105138081</v>
+        <v>0.05064304741453413</v>
       </c>
       <c r="V48" t="n">
-        <v>0.01158767416443276</v>
+        <v>0.00266134019924173</v>
       </c>
       <c r="W48" t="n">
-        <v>0.05833188545532365</v>
+        <v>0.08371280271348029</v>
       </c>
       <c r="X48" t="n">
-        <v>0.06918413663022777</v>
+        <v>0.07981599011192964</v>
       </c>
       <c r="Y48" t="n">
-        <v>0.02126700930261254</v>
+        <v>0.03800633608995997</v>
       </c>
       <c r="Z48" t="n">
-        <v>0.04514971756977768</v>
+        <v>0.002215078929853176</v>
       </c>
       <c r="AA48" t="n">
-        <v>0.003338854159206724</v>
+        <v>0.03215997193064774</v>
       </c>
       <c r="AB48" t="n">
-        <v>0.07144394496035252</v>
+        <v>0.08008653070704055</v>
       </c>
       <c r="AC48" t="n">
-        <v>-0.1453312243753192</v>
+        <v>-0.1033774318657585</v>
       </c>
     </row>
     <row r="49">
@@ -5060,79 +5060,79 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>0.1574504951201771</v>
+        <v>0.1650126120342213</v>
       </c>
       <c r="F49" t="n">
-        <v>0.02772452964925826</v>
+        <v>0.02927247691799767</v>
       </c>
       <c r="G49" t="n">
-        <v>0.06097176137541379</v>
+        <v>0.04867267638633317</v>
       </c>
       <c r="H49" t="n">
-        <v>0.04049772793202895</v>
+        <v>0.01440707546519925</v>
       </c>
       <c r="I49" t="n">
-        <v>0.01614748072062708</v>
+        <v>0.008233926331088073</v>
       </c>
       <c r="J49" t="n">
-        <v>0.009383975292495308</v>
+        <v>0.01271256538469344</v>
       </c>
       <c r="K49" t="n">
-        <v>0.004495274896528912</v>
+        <v>0.02644130506443302</v>
       </c>
       <c r="L49" t="n">
-        <v>0.04213363742189612</v>
+        <v>0.0162117333284703</v>
       </c>
       <c r="M49" t="n">
-        <v>0.08015006790034825</v>
+        <v>0.05623410552157261</v>
       </c>
       <c r="N49" t="n">
-        <v>0.03548961612179503</v>
+        <v>0.005846124831901778</v>
       </c>
       <c r="O49" t="n">
-        <v>0.01121294030578977</v>
+        <v>0.02345382180631132</v>
       </c>
       <c r="P49" t="n">
-        <v>0.04775765708508821</v>
+        <v>0.01331949405046371</v>
       </c>
       <c r="Q49" t="n">
-        <v>0.05828629637616082</v>
+        <v>0.1164547639428139</v>
       </c>
       <c r="R49" t="n">
-        <v>0.0080383239783837</v>
+        <v>0.06054414500187607</v>
       </c>
       <c r="S49" t="n">
-        <v>0.001732492609679265</v>
+        <v>0.07567136157838487</v>
       </c>
       <c r="T49" t="n">
-        <v>0.01334702594381558</v>
+        <v>0.006740389505369408</v>
       </c>
       <c r="U49" t="n">
-        <v>0.06781975918941582</v>
+        <v>0.0522973352530765</v>
       </c>
       <c r="V49" t="n">
-        <v>0.07440916799105571</v>
+        <v>0.07672263353876264</v>
       </c>
       <c r="W49" t="n">
-        <v>0.05917918835692369</v>
+        <v>0.02425604773681871</v>
       </c>
       <c r="X49" t="n">
-        <v>0.05128370470809549</v>
+        <v>0.03306970342940486</v>
       </c>
       <c r="Y49" t="n">
-        <v>0.09076210899730336</v>
+        <v>0.0987377262422322</v>
       </c>
       <c r="Z49" t="n">
-        <v>0.09068545417632069</v>
+        <v>0.08824235986487176</v>
       </c>
       <c r="AA49" t="n">
-        <v>0.009676993787975631</v>
+        <v>0.04891780609426396</v>
       </c>
       <c r="AB49" t="n">
-        <v>0.09881481518360059</v>
+        <v>0.06354042272366087</v>
       </c>
       <c r="AC49" t="n">
-        <v>-0.08938535719425079</v>
+        <v>-0.1447366959655899</v>
       </c>
     </row>
     <row r="50">
@@ -5155,79 +5155,79 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>0.1197112949504967</v>
+        <v>0.1165297033440204</v>
       </c>
       <c r="F50" t="n">
-        <v>0.004509413767820498</v>
+        <v>0.003658112053152944</v>
       </c>
       <c r="G50" t="n">
-        <v>0.07651993695464321</v>
+        <v>0.027958515970633</v>
       </c>
       <c r="H50" t="n">
-        <v>0.03316745360754337</v>
+        <v>0.01531167177937754</v>
       </c>
       <c r="I50" t="n">
-        <v>0.03425720922259743</v>
+        <v>0.00458486604536415</v>
       </c>
       <c r="J50" t="n">
-        <v>0.08957829838812884</v>
+        <v>0.1153085506194847</v>
       </c>
       <c r="K50" t="n">
-        <v>0.002872252389058906</v>
+        <v>0.01276943980782609</v>
       </c>
       <c r="L50" t="n">
-        <v>0.02909021525517822</v>
+        <v>0.06466430350615981</v>
       </c>
       <c r="M50" t="n">
-        <v>0.09240062345949004</v>
+        <v>0.1102110898855913</v>
       </c>
       <c r="N50" t="n">
-        <v>0.002581698174814147</v>
+        <v>0.003632323362924859</v>
       </c>
       <c r="O50" t="n">
-        <v>0.0212678762656005</v>
+        <v>0.02837600718789372</v>
       </c>
       <c r="P50" t="n">
-        <v>0.07345877685966488</v>
+        <v>0.05046835492659509</v>
       </c>
       <c r="Q50" t="n">
-        <v>0.05484648015670174</v>
+        <v>0.0131546712565475</v>
       </c>
       <c r="R50" t="n">
-        <v>0.0661991821562795</v>
+        <v>0.020538290718701</v>
       </c>
       <c r="S50" t="n">
-        <v>0.01991695208508963</v>
+        <v>0.07968406555633856</v>
       </c>
       <c r="T50" t="n">
-        <v>0.002025189609371774</v>
+        <v>0.02325903768892819</v>
       </c>
       <c r="U50" t="n">
-        <v>0.09325718515473584</v>
+        <v>0.1206232822390784</v>
       </c>
       <c r="V50" t="n">
-        <v>0.07872777311720137</v>
+        <v>0.001302204029941965</v>
       </c>
       <c r="W50" t="n">
-        <v>0.04663441117376192</v>
+        <v>0.04915799168859321</v>
       </c>
       <c r="X50" t="n">
-        <v>0.02539313165540433</v>
+        <v>0.08402731128927667</v>
       </c>
       <c r="Y50" t="n">
-        <v>0.08632062272666989</v>
+        <v>0.0202354860427159</v>
       </c>
       <c r="Z50" t="n">
-        <v>0.008661815300332781</v>
+        <v>0.09165985784477784</v>
       </c>
       <c r="AA50" t="n">
-        <v>0.03943815627808891</v>
+        <v>0.02070789899949113</v>
       </c>
       <c r="AB50" t="n">
-        <v>0.01887534624182212</v>
+        <v>0.03870666750060628</v>
       </c>
       <c r="AC50" t="n">
-        <v>0.06907347852733617</v>
+        <v>0.09686235988120949</v>
       </c>
     </row>
     <row r="51">
@@ -5250,79 +5250,79 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>0.1420888886280827</v>
+        <v>0.1408896298606015</v>
       </c>
       <c r="F51" t="n">
-        <v>0.102208035048858</v>
+        <v>0.09788120529969842</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04847687098778272</v>
+        <v>0.02539185622538858</v>
       </c>
       <c r="H51" t="n">
-        <v>4.061316437215625e-05</v>
+        <v>0.009604644763495618</v>
       </c>
       <c r="I51" t="n">
-        <v>0.08473564437894328</v>
+        <v>0.008243548662118632</v>
       </c>
       <c r="J51" t="n">
-        <v>0.01570178598713094</v>
+        <v>0.07398161450182397</v>
       </c>
       <c r="K51" t="n">
-        <v>0.003488968001387899</v>
+        <v>0.03811516644395644</v>
       </c>
       <c r="L51" t="n">
-        <v>0.02125311698294698</v>
+        <v>0.01859667720557448</v>
       </c>
       <c r="M51" t="n">
-        <v>0.06747156203406758</v>
+        <v>0.1211082343651522</v>
       </c>
       <c r="N51" t="n">
-        <v>0.04272892759400209</v>
+        <v>0.004460102149905738</v>
       </c>
       <c r="O51" t="n">
-        <v>0.06024912213607599</v>
+        <v>0.02853258316837789</v>
       </c>
       <c r="P51" t="n">
-        <v>0.01215882723890078</v>
+        <v>0.02808877601801524</v>
       </c>
       <c r="Q51" t="n">
-        <v>0.07558292333942944</v>
+        <v>0.1017996686205476</v>
       </c>
       <c r="R51" t="n">
-        <v>0.01520496540435861</v>
+        <v>0.01218545036157109</v>
       </c>
       <c r="S51" t="n">
-        <v>0.02253085586620945</v>
+        <v>0.00623769872267194</v>
       </c>
       <c r="T51" t="n">
-        <v>0.04424020564082131</v>
+        <v>0.09141115784397719</v>
       </c>
       <c r="U51" t="n">
-        <v>0.02660894225911119</v>
+        <v>0.05661509279479789</v>
       </c>
       <c r="V51" t="n">
-        <v>0.005248569243454052</v>
+        <v>0.01564669473452957</v>
       </c>
       <c r="W51" t="n">
-        <v>0.1107724673862594</v>
+        <v>0.04271976049393833</v>
       </c>
       <c r="X51" t="n">
-        <v>0.07047534056796095</v>
+        <v>0.02212006369794069</v>
       </c>
       <c r="Y51" t="n">
-        <v>0.09500209926424222</v>
+        <v>0.01924991355170737</v>
       </c>
       <c r="Z51" t="n">
-        <v>0.04222600120056896</v>
+        <v>0.1111896944219015</v>
       </c>
       <c r="AA51" t="n">
-        <v>0.008077035497061954</v>
+        <v>0.0317817129198799</v>
       </c>
       <c r="AB51" t="n">
-        <v>0.02551712077605404</v>
+        <v>0.03503868303302982</v>
       </c>
       <c r="AC51" t="n">
-        <v>0.1412689809300333</v>
+        <v>0.1545542984444849</v>
       </c>
     </row>
     <row r="52">
@@ -5345,79 +5345,79 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>0.1370339422580355</v>
+        <v>0.1401739679379849</v>
       </c>
       <c r="F52" t="n">
-        <v>0.001356743879943644</v>
+        <v>0.004513868961192366</v>
       </c>
       <c r="G52" t="n">
-        <v>0.07335741550650587</v>
+        <v>0.05661596832460887</v>
       </c>
       <c r="H52" t="n">
-        <v>0.06231342021181514</v>
+        <v>0.008930572702839638</v>
       </c>
       <c r="I52" t="n">
-        <v>0.03513813164651591</v>
+        <v>0.02455222650808535</v>
       </c>
       <c r="J52" t="n">
-        <v>0.06115437055898207</v>
+        <v>0.05686715473661313</v>
       </c>
       <c r="K52" t="n">
-        <v>0.05044281230027722</v>
+        <v>0.02377238030634111</v>
       </c>
       <c r="L52" t="n">
-        <v>0.07673467043283581</v>
+        <v>0.09135099115108072</v>
       </c>
       <c r="M52" t="n">
-        <v>0.01297358070690947</v>
+        <v>0.009879239523053768</v>
       </c>
       <c r="N52" t="n">
-        <v>0.06336766298670801</v>
+        <v>0.004354602094485602</v>
       </c>
       <c r="O52" t="n">
-        <v>0.06394706901990176</v>
+        <v>0.08982772268140651</v>
       </c>
       <c r="P52" t="n">
-        <v>0.0771819195919972</v>
+        <v>0.05166391764184464</v>
       </c>
       <c r="Q52" t="n">
-        <v>0.04846290288278435</v>
+        <v>0.05530373663096132</v>
       </c>
       <c r="R52" t="n">
-        <v>0.006156740994197648</v>
+        <v>0.0817840809499663</v>
       </c>
       <c r="S52" t="n">
-        <v>0.05095358073537709</v>
+        <v>0.06021014425162265</v>
       </c>
       <c r="T52" t="n">
-        <v>0.04632864002912009</v>
+        <v>0.01758769045892522</v>
       </c>
       <c r="U52" t="n">
-        <v>0.04779764511750991</v>
+        <v>0.05556472305427448</v>
       </c>
       <c r="V52" t="n">
-        <v>0.006283494133481583</v>
+        <v>0.08508469311021959</v>
       </c>
       <c r="W52" t="n">
-        <v>0.05248423194347094</v>
+        <v>0.05618259414015548</v>
       </c>
       <c r="X52" t="n">
-        <v>0.02306086991889565</v>
+        <v>0.0245305588402346</v>
       </c>
       <c r="Y52" t="n">
-        <v>0.005309976396169235</v>
+        <v>0.005447504028423739</v>
       </c>
       <c r="Z52" t="n">
-        <v>0.001509159406983113</v>
+        <v>0.001795490317596887</v>
       </c>
       <c r="AA52" t="n">
-        <v>0.07447345259243221</v>
+        <v>0.0886236478208732</v>
       </c>
       <c r="AB52" t="n">
-        <v>0.05921150900718618</v>
+        <v>0.04555649176519473</v>
       </c>
       <c r="AC52" t="n">
-        <v>0.05119750404671808</v>
+        <v>0.06859152454239748</v>
       </c>
     </row>
     <row r="53">
@@ -5440,79 +5440,79 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>0.684224118666162</v>
+        <v>0.8966023062704839</v>
       </c>
       <c r="F53" t="n">
-        <v>0.016841357284051</v>
+        <v>0.01681994359956327</v>
       </c>
       <c r="G53" t="n">
-        <v>0.07859550760501584</v>
+        <v>0.08397347558411267</v>
       </c>
       <c r="H53" t="n">
-        <v>0.04736334630743846</v>
+        <v>0.04026789100545802</v>
       </c>
       <c r="I53" t="n">
-        <v>0.001802398455307803</v>
+        <v>0.03006186139362582</v>
       </c>
       <c r="J53" t="n">
-        <v>0.02403889322624303</v>
+        <v>0.05572190125389562</v>
       </c>
       <c r="K53" t="n">
-        <v>0.06627841080867626</v>
+        <v>0.03770605878409485</v>
       </c>
       <c r="L53" t="n">
-        <v>0.0540996972033039</v>
+        <v>0.01639771724676458</v>
       </c>
       <c r="M53" t="n">
-        <v>0.005106437564195232</v>
+        <v>0.0007590075841096265</v>
       </c>
       <c r="N53" t="n">
-        <v>0.06079054219480146</v>
+        <v>0.03570183589127594</v>
       </c>
       <c r="O53" t="n">
-        <v>0.0188082681395484</v>
+        <v>0.000772186035773642</v>
       </c>
       <c r="P53" t="n">
-        <v>0.06917944906651563</v>
+        <v>0.08060542000728585</v>
       </c>
       <c r="Q53" t="n">
-        <v>0.0144193016811477</v>
+        <v>0.02346326579975714</v>
       </c>
       <c r="R53" t="n">
-        <v>0.05377158109150034</v>
+        <v>0.02769772161024402</v>
       </c>
       <c r="S53" t="n">
-        <v>0.02657351660248932</v>
+        <v>0.08317305507446243</v>
       </c>
       <c r="T53" t="n">
-        <v>0.08412245653905724</v>
+        <v>0.02109297999894606</v>
       </c>
       <c r="U53" t="n">
-        <v>0.06416133794324894</v>
+        <v>0.06438174595156619</v>
       </c>
       <c r="V53" t="n">
-        <v>0.03782234475098629</v>
+        <v>0.004435710308461126</v>
       </c>
       <c r="W53" t="n">
-        <v>0.08518885248786325</v>
+        <v>0.01261290279950207</v>
       </c>
       <c r="X53" t="n">
-        <v>0.04866643264712745</v>
+        <v>0.1034412242780693</v>
       </c>
       <c r="Y53" t="n">
-        <v>0.008189798810887642</v>
+        <v>0.01285625311117513</v>
       </c>
       <c r="Z53" t="n">
-        <v>0.08299745079153653</v>
+        <v>0.1092153288754633</v>
       </c>
       <c r="AA53" t="n">
-        <v>0.01453884261284697</v>
+        <v>0.04905338071918837</v>
       </c>
       <c r="AB53" t="n">
-        <v>0.03664377618621146</v>
+        <v>0.08978913308720485</v>
       </c>
       <c r="AC53" t="n">
-        <v>0.03117116570257339</v>
+        <v>0.05293799105957257</v>
       </c>
     </row>
     <row r="54">
@@ -5535,79 +5535,79 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>0.1685211517989294</v>
+        <v>0.1664691379696255</v>
       </c>
       <c r="F54" t="n">
-        <v>0.0002610370755524115</v>
+        <v>0.001376214152988164</v>
       </c>
       <c r="G54" t="n">
-        <v>0.01775797405253784</v>
+        <v>0.004251510355917081</v>
       </c>
       <c r="H54" t="n">
-        <v>0.09700026313649587</v>
+        <v>0.07519931545523932</v>
       </c>
       <c r="I54" t="n">
-        <v>0.06577513923808248</v>
+        <v>0.04901534665742</v>
       </c>
       <c r="J54" t="n">
-        <v>0.001529481789396788</v>
+        <v>0.05129929354533736</v>
       </c>
       <c r="K54" t="n">
-        <v>0.04680558951677989</v>
+        <v>0.06811668738518888</v>
       </c>
       <c r="L54" t="n">
-        <v>0.05841270258609726</v>
+        <v>0.03147843799296572</v>
       </c>
       <c r="M54" t="n">
-        <v>0.09266865909000824</v>
+        <v>0.04693677603273266</v>
       </c>
       <c r="N54" t="n">
-        <v>0.007350777782064527</v>
+        <v>0.06471528903511187</v>
       </c>
       <c r="O54" t="n">
-        <v>0.04103855950540179</v>
+        <v>0.03528622323230182</v>
       </c>
       <c r="P54" t="n">
-        <v>0.04512979680621983</v>
+        <v>0.06961596302475122</v>
       </c>
       <c r="Q54" t="n">
-        <v>0.05988654750839497</v>
+        <v>0.0748614065008249</v>
       </c>
       <c r="R54" t="n">
-        <v>0.02509121389796417</v>
+        <v>0.07146098849809582</v>
       </c>
       <c r="S54" t="n">
-        <v>0.08947129115462611</v>
+        <v>0.03593330529026548</v>
       </c>
       <c r="T54" t="n">
-        <v>0.08332076581576034</v>
+        <v>0.07916182720333451</v>
       </c>
       <c r="U54" t="n">
-        <v>0.06473972310656988</v>
+        <v>0.06719275524970657</v>
       </c>
       <c r="V54" t="n">
-        <v>0.01020373177535868</v>
+        <v>0.04405961729999087</v>
       </c>
       <c r="W54" t="n">
-        <v>0.001428556715349952</v>
+        <v>0.002652120989459581</v>
       </c>
       <c r="X54" t="n">
-        <v>0.06179341160047183</v>
+        <v>0.05276455917498947</v>
       </c>
       <c r="Y54" t="n">
-        <v>0.06205618285256542</v>
+        <v>0.04365036194579271</v>
       </c>
       <c r="Z54" t="n">
-        <v>0.0161034507346754</v>
+        <v>0.01562464012486036</v>
       </c>
       <c r="AA54" t="n">
-        <v>0.004488316504798745</v>
+        <v>0.004508506173107688</v>
       </c>
       <c r="AB54" t="n">
-        <v>0.04768682775482763</v>
+        <v>0.01083885467961791</v>
       </c>
       <c r="AC54" t="n">
-        <v>-0.1196137313377459</v>
+        <v>-0.0922424933611274</v>
       </c>
     </row>
     <row r="55">
@@ -5630,79 +5630,79 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>0.193591056110525</v>
+        <v>0.193324606806486</v>
       </c>
       <c r="F55" t="n">
-        <v>0.002147808058714914</v>
+        <v>0.01096172027738937</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03749481758235116</v>
+        <v>0.02598002282296073</v>
       </c>
       <c r="H55" t="n">
-        <v>0.01162915664566657</v>
+        <v>0.06312456850879108</v>
       </c>
       <c r="I55" t="n">
-        <v>0.02945488567674635</v>
+        <v>0.02502585998919429</v>
       </c>
       <c r="J55" t="n">
-        <v>0.01124218138755741</v>
+        <v>0.0524636516863716</v>
       </c>
       <c r="K55" t="n">
-        <v>0.01426287037847786</v>
+        <v>0.003600252287733048</v>
       </c>
       <c r="L55" t="n">
-        <v>0.04986364091959902</v>
+        <v>0.004824260156209281</v>
       </c>
       <c r="M55" t="n">
-        <v>0.09794251267418023</v>
+        <v>0.09510649986932219</v>
       </c>
       <c r="N55" t="n">
-        <v>0.07966357529505873</v>
+        <v>0.04959331738408887</v>
       </c>
       <c r="O55" t="n">
-        <v>0.06063261209689348</v>
+        <v>0.05010448542076557</v>
       </c>
       <c r="P55" t="n">
-        <v>0.01944761667195625</v>
+        <v>0.09143989671949691</v>
       </c>
       <c r="Q55" t="n">
-        <v>0.02410661540715445</v>
+        <v>0.007708254167993733</v>
       </c>
       <c r="R55" t="n">
-        <v>0.08830345494667666</v>
+        <v>0.0887112126140247</v>
       </c>
       <c r="S55" t="n">
-        <v>0.01894686509515512</v>
+        <v>0.06127278096630358</v>
       </c>
       <c r="T55" t="n">
-        <v>0.03343635832136688</v>
+        <v>0.01599313237906502</v>
       </c>
       <c r="U55" t="n">
-        <v>0.06825730259789538</v>
+        <v>0.04029343368333277</v>
       </c>
       <c r="V55" t="n">
-        <v>0.07364055556119758</v>
+        <v>0.0005266742951224131</v>
       </c>
       <c r="W55" t="n">
-        <v>0.007566527623875465</v>
+        <v>0.009515949541357547</v>
       </c>
       <c r="X55" t="n">
-        <v>0.06596552139016122</v>
+        <v>0.08051898454453511</v>
       </c>
       <c r="Y55" t="n">
-        <v>0.08802264609964065</v>
+        <v>0.06986897923373865</v>
       </c>
       <c r="Z55" t="n">
-        <v>0.1018108341266508</v>
+        <v>0.09242248694048096</v>
       </c>
       <c r="AA55" t="n">
-        <v>0.01607585272293205</v>
+        <v>0.01972668421845874</v>
       </c>
       <c r="AB55" t="n">
-        <v>8.578872009169263e-05</v>
+        <v>0.04121689229326377</v>
       </c>
       <c r="AC55" t="n">
-        <v>-0.02287433755969806</v>
+        <v>-0.0487036717490799</v>
       </c>
     </row>
     <row r="56">
@@ -5725,79 +5725,79 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>0.214045549725333</v>
+        <v>0.2147101484318301</v>
       </c>
       <c r="F56" t="n">
-        <v>0.0879777411232749</v>
+        <v>0.05212330660659677</v>
       </c>
       <c r="G56" t="n">
-        <v>0.003816277208342573</v>
+        <v>0.01654610521785338</v>
       </c>
       <c r="H56" t="n">
-        <v>0.04317947863142926</v>
+        <v>0.039419046651971</v>
       </c>
       <c r="I56" t="n">
-        <v>0.01378776291857438</v>
+        <v>0.01484379284561797</v>
       </c>
       <c r="J56" t="n">
-        <v>0.03640107460992507</v>
+        <v>0.04381134706531675</v>
       </c>
       <c r="K56" t="n">
-        <v>0.005085557335480695</v>
+        <v>0.02848296165261667</v>
       </c>
       <c r="L56" t="n">
-        <v>0.01569876650809308</v>
+        <v>0.02200543246475047</v>
       </c>
       <c r="M56" t="n">
-        <v>0.1011519493638212</v>
+        <v>0.06347334221546343</v>
       </c>
       <c r="N56" t="n">
-        <v>0.01009661414801309</v>
+        <v>0.01174619750862359</v>
       </c>
       <c r="O56" t="n">
-        <v>0.09251526081732354</v>
+        <v>0.06387944192135939</v>
       </c>
       <c r="P56" t="n">
-        <v>0.04468470086561773</v>
+        <v>0.03394291122804203</v>
       </c>
       <c r="Q56" t="n">
-        <v>0.08221211206265104</v>
+        <v>0.07599932543003642</v>
       </c>
       <c r="R56" t="n">
-        <v>0.08002054613974707</v>
+        <v>0.06539651264321238</v>
       </c>
       <c r="S56" t="n">
-        <v>0.06747327076718743</v>
+        <v>0.006728598201589101</v>
       </c>
       <c r="T56" t="n">
-        <v>0.00771023748298111</v>
+        <v>0.0298786073764137</v>
       </c>
       <c r="U56" t="n">
-        <v>0.06991976877226667</v>
+        <v>0.07348833242619197</v>
       </c>
       <c r="V56" t="n">
-        <v>0.04925649883980383</v>
+        <v>0.01268135119900163</v>
       </c>
       <c r="W56" t="n">
-        <v>0.03308337957174667</v>
+        <v>0.07194182443189913</v>
       </c>
       <c r="X56" t="n">
-        <v>0.01778198603516825</v>
+        <v>0.05144666897411263</v>
       </c>
       <c r="Y56" t="n">
-        <v>0.03394161960113998</v>
+        <v>0.0512339986482911</v>
       </c>
       <c r="Z56" t="n">
-        <v>0.05374179417184753</v>
+        <v>0.07991261176575803</v>
       </c>
       <c r="AA56" t="n">
-        <v>0.01360771307548716</v>
+        <v>0.05078653174697595</v>
       </c>
       <c r="AB56" t="n">
-        <v>0.03685588995007775</v>
+        <v>0.04023175177830645</v>
       </c>
       <c r="AC56" t="n">
-        <v>0.06764400456179613</v>
+        <v>0.09211789837797493</v>
       </c>
     </row>
     <row r="57">
@@ -5820,79 +5820,79 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>0.2258748899892756</v>
+        <v>0.2482342344688493</v>
       </c>
       <c r="F57" t="n">
-        <v>0.05254573870530706</v>
+        <v>0.1008687714058701</v>
       </c>
       <c r="G57" t="n">
-        <v>0.001061624792629254</v>
+        <v>0.0519609723862029</v>
       </c>
       <c r="H57" t="n">
-        <v>0.05796450628364191</v>
+        <v>0.004321846443812383</v>
       </c>
       <c r="I57" t="n">
-        <v>0.001326183554019097</v>
+        <v>0.01333252191928405</v>
       </c>
       <c r="J57" t="n">
-        <v>0.02408578872247176</v>
+        <v>0.003941619996545855</v>
       </c>
       <c r="K57" t="n">
-        <v>0.01571257255299241</v>
+        <v>0.03764175144347318</v>
       </c>
       <c r="L57" t="n">
-        <v>0.001452785516590642</v>
+        <v>0.06422277664309732</v>
       </c>
       <c r="M57" t="n">
-        <v>0.07745528528094808</v>
+        <v>0.06927813846647116</v>
       </c>
       <c r="N57" t="n">
-        <v>0.0345720337889261</v>
+        <v>0.03134961109754419</v>
       </c>
       <c r="O57" t="n">
-        <v>0.01159326893515522</v>
+        <v>0.08648059218675624</v>
       </c>
       <c r="P57" t="n">
-        <v>0.01118535714495256</v>
+        <v>0.02777336242127844</v>
       </c>
       <c r="Q57" t="n">
-        <v>0.08773065122962437</v>
+        <v>0.07288316188401643</v>
       </c>
       <c r="R57" t="n">
-        <v>0.1120028605178054</v>
+        <v>0.04963860960436425</v>
       </c>
       <c r="S57" t="n">
-        <v>0.05818831001771387</v>
+        <v>0.0187776207256917</v>
       </c>
       <c r="T57" t="n">
-        <v>0.01554668785310544</v>
+        <v>0.0625789615623929</v>
       </c>
       <c r="U57" t="n">
-        <v>0.05040156291572604</v>
+        <v>0.03192511720880765</v>
       </c>
       <c r="V57" t="n">
-        <v>0.106357752731782</v>
+        <v>0.01086853865616857</v>
       </c>
       <c r="W57" t="n">
-        <v>0.02094621499162616</v>
+        <v>0.08190554626811467</v>
       </c>
       <c r="X57" t="n">
-        <v>0.05020275802098325</v>
+        <v>0.03051659574809789</v>
       </c>
       <c r="Y57" t="n">
-        <v>0.1049303093775793</v>
+        <v>0.08061794928136998</v>
       </c>
       <c r="Z57" t="n">
-        <v>0.08759796833683976</v>
+        <v>0.06343449313145202</v>
       </c>
       <c r="AA57" t="n">
-        <v>0.009603147507416587</v>
+        <v>0.002997899339781255</v>
       </c>
       <c r="AB57" t="n">
-        <v>0.007536631222163933</v>
+        <v>0.00268354217940691</v>
       </c>
       <c r="AC57" t="n">
-        <v>0.06810860857636265</v>
+        <v>0.1183627517465083</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Data/DAX30/Efficient Portfolios with Prediction/Manual Recurrence/input 125/DAX30_efficient_portfolios_and_returns_with_prediction_semester.xlsx
+++ b/Code/Data/DAX30/Efficient Portfolios with Prediction/Manual Recurrence/input 125/DAX30_efficient_portfolios_and_returns_with_prediction_semester.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -595,79 +595,79 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.1855711045889872</v>
+        <v>0.1974677920675582</v>
       </c>
       <c r="F2" t="n">
-        <v>0.04672145031409718</v>
+        <v>0.03036285882259862</v>
       </c>
       <c r="G2" t="n">
-        <v>0.00462842665778036</v>
+        <v>0.05924608038118019</v>
       </c>
       <c r="H2" t="n">
-        <v>0.01167312694553221</v>
+        <v>0.00673238996695313</v>
       </c>
       <c r="I2" t="n">
-        <v>0.01593893344321674</v>
+        <v>0.0002465836099657134</v>
       </c>
       <c r="J2" t="n">
-        <v>0.06873444755696946</v>
+        <v>0.06709592037386716</v>
       </c>
       <c r="K2" t="n">
-        <v>0.07623131573812021</v>
+        <v>0.08822547864190755</v>
       </c>
       <c r="L2" t="n">
-        <v>0.05531109967962611</v>
+        <v>0.00508955266129576</v>
       </c>
       <c r="M2" t="n">
-        <v>0.06172206689765526</v>
+        <v>0.0437826729909436</v>
       </c>
       <c r="N2" t="n">
-        <v>0.08241191681970067</v>
+        <v>0.04829795088471159</v>
       </c>
       <c r="O2" t="n">
-        <v>0.05790425115219085</v>
+        <v>0.0770271921001412</v>
       </c>
       <c r="P2" t="n">
-        <v>0.04970131097056878</v>
+        <v>0.05665938443527276</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.08224424645980997</v>
+        <v>0.07232683416358432</v>
       </c>
       <c r="R2" t="n">
-        <v>0.02815296855831027</v>
+        <v>0.0194068524723752</v>
       </c>
       <c r="S2" t="n">
-        <v>0.005938710724697091</v>
+        <v>0.08204440650454309</v>
       </c>
       <c r="T2" t="n">
-        <v>0.006328970470961677</v>
+        <v>0.003665012889457646</v>
       </c>
       <c r="U2" t="n">
-        <v>0.06196530642410172</v>
+        <v>0.06147541520070737</v>
       </c>
       <c r="V2" t="n">
-        <v>0.01858669750896165</v>
+        <v>0.01047881491091728</v>
       </c>
       <c r="W2" t="n">
-        <v>0.01492069431522823</v>
+        <v>0.02535683692695264</v>
       </c>
       <c r="X2" t="n">
-        <v>0.003974918562776479</v>
+        <v>0.02097883839819685</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.0750127182156516</v>
+        <v>0.0004760214481451017</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.08832877484562829</v>
+        <v>0.0762731512006035</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.01144502248198629</v>
+        <v>0.05081574040249444</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.07212262525642882</v>
+        <v>0.09393601061318523</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.06945541931069417</v>
+        <v>0.09355383683086951</v>
       </c>
     </row>
     <row r="3">
@@ -690,79 +690,79 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.5058421255186153</v>
+        <v>0.4992822015092656</v>
       </c>
       <c r="F3" t="n">
-        <v>0.02481319750727461</v>
+        <v>0.08293090266956031</v>
       </c>
       <c r="G3" t="n">
-        <v>0.08248382254406661</v>
+        <v>0.04874813501175009</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0167256208282396</v>
+        <v>0.03668177119092365</v>
       </c>
       <c r="I3" t="n">
-        <v>0.002663876862687053</v>
+        <v>0.02239071618495196</v>
       </c>
       <c r="J3" t="n">
-        <v>0.09397043397885399</v>
+        <v>0.04352586663309772</v>
       </c>
       <c r="K3" t="n">
-        <v>0.007234329312052933</v>
+        <v>0.05071469630050447</v>
       </c>
       <c r="L3" t="n">
-        <v>0.05468712547447048</v>
+        <v>0.05048889808031312</v>
       </c>
       <c r="M3" t="n">
-        <v>0.03262000411384842</v>
+        <v>0.05613472883304561</v>
       </c>
       <c r="N3" t="n">
-        <v>0.05319772151742033</v>
+        <v>0.09006805154839904</v>
       </c>
       <c r="O3" t="n">
-        <v>0.04987548178688851</v>
+        <v>0.04321991933346262</v>
       </c>
       <c r="P3" t="n">
-        <v>0.006481174372273832</v>
+        <v>0.09137927311972804</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.02040668838036107</v>
+        <v>0.07414534467417298</v>
       </c>
       <c r="R3" t="n">
-        <v>0.08932417482575009</v>
+        <v>0.001565886675043661</v>
       </c>
       <c r="S3" t="n">
-        <v>0.04548387821368571</v>
+        <v>0.04492417536411394</v>
       </c>
       <c r="T3" t="n">
-        <v>0.01234938285991455</v>
+        <v>0.01242752653249925</v>
       </c>
       <c r="U3" t="n">
-        <v>0.03113991917736032</v>
+        <v>0.06242325036794896</v>
       </c>
       <c r="V3" t="n">
-        <v>0.05267853748592915</v>
+        <v>0.1046144387181546</v>
       </c>
       <c r="W3" t="n">
-        <v>0.004389656654128005</v>
+        <v>0.02369934858725085</v>
       </c>
       <c r="X3" t="n">
-        <v>0.08439243783008893</v>
+        <v>0.0009213446848268019</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.04988141012725353</v>
+        <v>0.02843721428683262</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.05727170483491702</v>
+        <v>0.0006623048154323313</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.07028330156565041</v>
+        <v>0.01569407877483764</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.05764611974688484</v>
+        <v>0.01420212761314964</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.09349869261810012</v>
+        <v>0.09315875159826537</v>
       </c>
     </row>
     <row r="4">
@@ -785,79 +785,79 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.1887400461287352</v>
+        <v>0.1677578139478788</v>
       </c>
       <c r="F4" t="n">
-        <v>0.07703410905660973</v>
+        <v>0.004113484358013136</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0557898347670686</v>
+        <v>0.02716255528202972</v>
       </c>
       <c r="H4" t="n">
-        <v>0.002456954337201421</v>
+        <v>0.01290585070654395</v>
       </c>
       <c r="I4" t="n">
-        <v>0.001111347392829206</v>
+        <v>0.00311174089493559</v>
       </c>
       <c r="J4" t="n">
-        <v>0.06657100078845592</v>
+        <v>0.08030609734743137</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0151128966038692</v>
+        <v>0.01980841414204992</v>
       </c>
       <c r="L4" t="n">
-        <v>0.03080509686907862</v>
+        <v>0.009602021575516441</v>
       </c>
       <c r="M4" t="n">
-        <v>0.07503374343829075</v>
+        <v>0.04085314248711788</v>
       </c>
       <c r="N4" t="n">
-        <v>0.07202632430870964</v>
+        <v>0.08537043324086398</v>
       </c>
       <c r="O4" t="n">
-        <v>0.08928907814797037</v>
+        <v>0.08958328644841307</v>
       </c>
       <c r="P4" t="n">
-        <v>0.08046426997503121</v>
+        <v>0.05651539104594009</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.0144222630797222</v>
+        <v>0.0210476686519918</v>
       </c>
       <c r="R4" t="n">
-        <v>0.04356502801793489</v>
+        <v>0.06686157277255614</v>
       </c>
       <c r="S4" t="n">
-        <v>0.01827891584631785</v>
+        <v>0.06007766274878818</v>
       </c>
       <c r="T4" t="n">
-        <v>0.0259032276986623</v>
+        <v>0.01001437622652089</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06589479138360393</v>
+        <v>0.03804785510693613</v>
       </c>
       <c r="V4" t="n">
-        <v>0.02983091201025126</v>
+        <v>0.08632443907209958</v>
       </c>
       <c r="W4" t="n">
-        <v>0.01790011372238164</v>
+        <v>0.07588189668079398</v>
       </c>
       <c r="X4" t="n">
-        <v>0.04098574891770996</v>
+        <v>0.02498017486104849</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.08936759156869337</v>
+        <v>0.02509377065020519</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.03611819869764396</v>
+        <v>0.08903174549535652</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.00486644654109854</v>
+        <v>0.005200719890099251</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.04717210683086549</v>
+        <v>0.0681057003147487</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.0319872546868956</v>
+        <v>-0.03485944612852575</v>
       </c>
     </row>
     <row r="5">
@@ -880,79 +880,79 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.4580046247288</v>
+        <v>0.4128783052974698</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07370594838826831</v>
+        <v>0.03109853646168202</v>
       </c>
       <c r="G5" t="n">
-        <v>0.07208172307969644</v>
+        <v>0.07173766047712091</v>
       </c>
       <c r="H5" t="n">
-        <v>9.775387568765085e-05</v>
+        <v>0.009478461354421638</v>
       </c>
       <c r="I5" t="n">
-        <v>0.04715557213392557</v>
+        <v>0.03116537916867794</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0497816380175308</v>
+        <v>0.004493745027085406</v>
       </c>
       <c r="K5" t="n">
-        <v>0.006815478438883984</v>
+        <v>0.01099480964855211</v>
       </c>
       <c r="L5" t="n">
-        <v>0.08082947821811262</v>
+        <v>0.03283967061841077</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0715161939992425</v>
+        <v>0.02672913874057656</v>
       </c>
       <c r="N5" t="n">
-        <v>0.0197949920429859</v>
+        <v>0.0487409496396416</v>
       </c>
       <c r="O5" t="n">
-        <v>0.06453181992146399</v>
+        <v>0.03370395117565744</v>
       </c>
       <c r="P5" t="n">
-        <v>0.07806570247348907</v>
+        <v>0.05847673840396826</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.04773078946342008</v>
+        <v>0.06274970473657523</v>
       </c>
       <c r="R5" t="n">
-        <v>0.02614446054680565</v>
+        <v>0.006678892453418053</v>
       </c>
       <c r="S5" t="n">
-        <v>0.0246883017421008</v>
+        <v>0.08778329052530666</v>
       </c>
       <c r="T5" t="n">
-        <v>0.05967336953835282</v>
+        <v>0.07106204098098234</v>
       </c>
       <c r="U5" t="n">
-        <v>0.0474725125698203</v>
+        <v>0.05311705562115169</v>
       </c>
       <c r="V5" t="n">
-        <v>0.06990491748384838</v>
+        <v>0.09009783062184942</v>
       </c>
       <c r="W5" t="n">
-        <v>0.06582495522277815</v>
+        <v>0.08330787574041756</v>
       </c>
       <c r="X5" t="n">
-        <v>0.004481350668451034</v>
+        <v>0.001895252833736342</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.01388471030172288</v>
+        <v>0.06734142836214474</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.05601381013095862</v>
+        <v>0.03592585147114979</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.0009946903122850612</v>
+        <v>0.009960087296716744</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.01880983143016938</v>
+        <v>0.07062164864075675</v>
       </c>
       <c r="AC5" t="n">
-        <v>-0.002380750856928651</v>
+        <v>-0.01639358031618353</v>
       </c>
     </row>
     <row r="6">
@@ -975,79 +975,79 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.1974499712828985</v>
+        <v>0.192686324877142</v>
       </c>
       <c r="F6" t="n">
-        <v>0.04473978336427809</v>
+        <v>0.074955923440712</v>
       </c>
       <c r="G6" t="n">
-        <v>0.02840014616183613</v>
+        <v>0.0598411858273133</v>
       </c>
       <c r="H6" t="n">
-        <v>0.003177960889432876</v>
+        <v>0.005946276658042752</v>
       </c>
       <c r="I6" t="n">
-        <v>0.07568445073737394</v>
+        <v>0.06750935042410861</v>
       </c>
       <c r="J6" t="n">
-        <v>0.06640684442169702</v>
+        <v>0.03249499721572899</v>
       </c>
       <c r="K6" t="n">
-        <v>0.03227553183625199</v>
+        <v>0.02032574859385547</v>
       </c>
       <c r="L6" t="n">
-        <v>0.001687062132182375</v>
+        <v>0.002334435003116025</v>
       </c>
       <c r="M6" t="n">
-        <v>0.0156001732973352</v>
+        <v>0.01450586865940895</v>
       </c>
       <c r="N6" t="n">
-        <v>0.03869142074934098</v>
+        <v>0.09023701271599156</v>
       </c>
       <c r="O6" t="n">
-        <v>0.05053583494134339</v>
+        <v>0.09205098234639519</v>
       </c>
       <c r="P6" t="n">
-        <v>0.03806109062694804</v>
+        <v>0.01729124336088682</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.006371293931466394</v>
+        <v>0.0227060585355376</v>
       </c>
       <c r="R6" t="n">
-        <v>0.08686786036862121</v>
+        <v>0.04047218304216733</v>
       </c>
       <c r="S6" t="n">
-        <v>0.08432717792501195</v>
+        <v>0.1138364316157276</v>
       </c>
       <c r="T6" t="n">
-        <v>0.0708359841785078</v>
+        <v>0.06442287622934251</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08638006956247703</v>
+        <v>0.04529769685777613</v>
       </c>
       <c r="V6" t="n">
-        <v>0.04776831187288923</v>
+        <v>0.0196788342869624</v>
       </c>
       <c r="W6" t="n">
-        <v>0.05807579700865774</v>
+        <v>0.0002142793676374449</v>
       </c>
       <c r="X6" t="n">
-        <v>0.0533888382410356</v>
+        <v>0.1118163115453409</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.002653641306766362</v>
+        <v>0.0003826003240473898</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.05079346857257499</v>
+        <v>0.04334039802871441</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.01098856616345087</v>
+        <v>0.001977215753019576</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.04628869171052078</v>
+        <v>0.05836209016816699</v>
       </c>
       <c r="AC6" t="n">
-        <v>-0.2224733353303241</v>
+        <v>-0.2341564340652409</v>
       </c>
     </row>
     <row r="7">
@@ -1070,79 +1070,79 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.968956427328394</v>
+        <v>0.6159501089695156</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08188498536619312</v>
+        <v>0.0187980664197685</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1005530115027089</v>
+        <v>0.06154366924724777</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0653461209199388</v>
+        <v>0.04635177338018063</v>
       </c>
       <c r="I7" t="n">
-        <v>0.08694573438283269</v>
+        <v>0.03140991029095968</v>
       </c>
       <c r="J7" t="n">
-        <v>0.003041601513928877</v>
+        <v>0.01778121484081998</v>
       </c>
       <c r="K7" t="n">
-        <v>0.00202414688383669</v>
+        <v>0.002739086104383687</v>
       </c>
       <c r="L7" t="n">
-        <v>0.002379439576161151</v>
+        <v>0.07673995923870958</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0108507743204074</v>
+        <v>0.03306904766646074</v>
       </c>
       <c r="N7" t="n">
-        <v>0.007707002773579187</v>
+        <v>0.007028334980825914</v>
       </c>
       <c r="O7" t="n">
-        <v>0.003666939118876201</v>
+        <v>0.008491786393563808</v>
       </c>
       <c r="P7" t="n">
-        <v>0.001950876418365432</v>
+        <v>0.04225285694802377</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.0567549707119296</v>
+        <v>0.07496610614108243</v>
       </c>
       <c r="R7" t="n">
-        <v>0.005673516313720871</v>
+        <v>0.03525296616587791</v>
       </c>
       <c r="S7" t="n">
-        <v>0.07705033978270275</v>
+        <v>0.07158102865269232</v>
       </c>
       <c r="T7" t="n">
-        <v>0.000248129452141053</v>
+        <v>0.09059559397082985</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06486115688125119</v>
+        <v>0.04468575049533676</v>
       </c>
       <c r="V7" t="n">
-        <v>0.0005397424058277441</v>
+        <v>0.01583115449784628</v>
       </c>
       <c r="W7" t="n">
-        <v>0.1046742614034396</v>
+        <v>0.08979740236241922</v>
       </c>
       <c r="X7" t="n">
-        <v>0.01576510217827015</v>
+        <v>0.01411412355427455</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.1064825460360086</v>
+        <v>0.08735487077427148</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.08039255750755471</v>
+        <v>0.01461632515464966</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.01375878452943746</v>
+        <v>0.0252661835865852</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.1074482600208878</v>
+        <v>0.08973278913319037</v>
       </c>
       <c r="AC7" t="n">
-        <v>-0.1632254436820946</v>
+        <v>-0.2104800223316823</v>
       </c>
     </row>
     <row r="8">
@@ -1165,79 +1165,79 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.1637983326078617</v>
+        <v>0.1659543473286464</v>
       </c>
       <c r="F8" t="n">
-        <v>0.05484989310281827</v>
+        <v>0.04062836585565942</v>
       </c>
       <c r="G8" t="n">
-        <v>0.08226203038704975</v>
+        <v>0.09317890225156758</v>
       </c>
       <c r="H8" t="n">
-        <v>0.005850822646852641</v>
+        <v>0.003225188596972207</v>
       </c>
       <c r="I8" t="n">
-        <v>0.02119487339751383</v>
+        <v>0.0008929955954972523</v>
       </c>
       <c r="J8" t="n">
-        <v>0.03592052004438916</v>
+        <v>0.004009428978158681</v>
       </c>
       <c r="K8" t="n">
-        <v>0.006728563845186138</v>
+        <v>0.03088885437028116</v>
       </c>
       <c r="L8" t="n">
-        <v>0.07867214164483702</v>
+        <v>0.009741264266503418</v>
       </c>
       <c r="M8" t="n">
-        <v>0.01900810855604822</v>
+        <v>0.03799882485864475</v>
       </c>
       <c r="N8" t="n">
-        <v>0.002848382976642882</v>
+        <v>0.01387001523555133</v>
       </c>
       <c r="O8" t="n">
-        <v>0.07145306077881246</v>
+        <v>0.0370189344862448</v>
       </c>
       <c r="P8" t="n">
-        <v>0.05502339706149934</v>
+        <v>0.09430706102089886</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.04100660477379193</v>
+        <v>0.01954401358723191</v>
       </c>
       <c r="R8" t="n">
-        <v>0.005569620476049544</v>
+        <v>0.1007661578272542</v>
       </c>
       <c r="S8" t="n">
-        <v>0.03232941470862836</v>
+        <v>0.06994236340307676</v>
       </c>
       <c r="T8" t="n">
-        <v>0.08521774297954544</v>
+        <v>0.0533156415416083</v>
       </c>
       <c r="U8" t="n">
-        <v>0.09685348388888791</v>
+        <v>0.02612205171313052</v>
       </c>
       <c r="V8" t="n">
-        <v>0.02068331759427157</v>
+        <v>0.01339351842018936</v>
       </c>
       <c r="W8" t="n">
-        <v>0.0992533798554425</v>
+        <v>0.1090283093484698</v>
       </c>
       <c r="X8" t="n">
-        <v>0.03662938522870898</v>
+        <v>0.05963190053606929</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.01673586291599074</v>
+        <v>0.01916858825733643</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.03137291536973422</v>
+        <v>0.06673378967837484</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.0006505820082242348</v>
+        <v>0.01698165054400992</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.09988589575907485</v>
+        <v>0.07961217962726934</v>
       </c>
       <c r="AC8" t="n">
-        <v>-0.4272931295765198</v>
+        <v>-0.3637366742125455</v>
       </c>
     </row>
     <row r="9">
@@ -1260,79 +1260,79 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.1786543749830397</v>
+        <v>0.2367612441390596</v>
       </c>
       <c r="F9" t="n">
-        <v>0.01539099739944843</v>
+        <v>0.02319491881235879</v>
       </c>
       <c r="G9" t="n">
-        <v>0.08034322289112525</v>
+        <v>0.03750619179250384</v>
       </c>
       <c r="H9" t="n">
-        <v>0.01321829237200771</v>
+        <v>0.08782971881420992</v>
       </c>
       <c r="I9" t="n">
-        <v>0.08783700253693519</v>
+        <v>0.09444300518202967</v>
       </c>
       <c r="J9" t="n">
-        <v>0.01091317668327066</v>
+        <v>0.002979542599920715</v>
       </c>
       <c r="K9" t="n">
-        <v>0.01960358819845516</v>
+        <v>0.03414768756175906</v>
       </c>
       <c r="L9" t="n">
-        <v>0.04917058826459008</v>
+        <v>0.07642903127642299</v>
       </c>
       <c r="M9" t="n">
-        <v>0.01287635410504115</v>
+        <v>0.01858415973517482</v>
       </c>
       <c r="N9" t="n">
-        <v>0.02553060260284363</v>
+        <v>0.01524468975257727</v>
       </c>
       <c r="O9" t="n">
-        <v>0.04250211671719061</v>
+        <v>0.03491131130707102</v>
       </c>
       <c r="P9" t="n">
-        <v>0.03544872451851114</v>
+        <v>0.02972765429432533</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.06500298915580303</v>
+        <v>0.07223080309503482</v>
       </c>
       <c r="R9" t="n">
-        <v>0.008746935604946637</v>
+        <v>0.0378898901592023</v>
       </c>
       <c r="S9" t="n">
-        <v>0.006498786579370345</v>
+        <v>0.0006132739513944109</v>
       </c>
       <c r="T9" t="n">
-        <v>0.1099547719713061</v>
+        <v>0.03819836902976286</v>
       </c>
       <c r="U9" t="n">
-        <v>0.02447415867554531</v>
+        <v>0.005797966740235185</v>
       </c>
       <c r="V9" t="n">
-        <v>0.02422695121103728</v>
+        <v>0.01154996318578275</v>
       </c>
       <c r="W9" t="n">
-        <v>0.04767010555185069</v>
+        <v>0.06085375400452171</v>
       </c>
       <c r="X9" t="n">
-        <v>0.05593307419710463</v>
+        <v>0.01472014573787836</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.04626909670476067</v>
+        <v>0.09201431731903091</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.00224864351193015</v>
+        <v>0.04759496714713281</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.1094918466702735</v>
+        <v>0.07891111543997714</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.1066479738766528</v>
+        <v>0.08462752306169355</v>
       </c>
       <c r="AC9" t="n">
-        <v>-0.4677568661113735</v>
+        <v>-0.4057254922218577</v>
       </c>
     </row>
     <row r="10">
@@ -1355,79 +1355,79 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.2736419841633043</v>
+        <v>0.2720137352202248</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0670290368762209</v>
+        <v>0.06272334457753639</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0866473056553219</v>
+        <v>0.02264403675401385</v>
       </c>
       <c r="H10" t="n">
-        <v>0.02754472082019264</v>
+        <v>0.03124508550170761</v>
       </c>
       <c r="I10" t="n">
-        <v>0.08320465262716095</v>
+        <v>0.02842592052602031</v>
       </c>
       <c r="J10" t="n">
-        <v>0.02189354725993842</v>
+        <v>0.02785434735144437</v>
       </c>
       <c r="K10" t="n">
-        <v>0.01604343052800726</v>
+        <v>0.001907036543209932</v>
       </c>
       <c r="L10" t="n">
-        <v>0.01359414003318557</v>
+        <v>0.002328927282247621</v>
       </c>
       <c r="M10" t="n">
-        <v>0.02508156906468458</v>
+        <v>0.06692457179077217</v>
       </c>
       <c r="N10" t="n">
-        <v>0.01572120632918943</v>
+        <v>0.03053485471642853</v>
       </c>
       <c r="O10" t="n">
-        <v>0.002623239791878619</v>
+        <v>0.001301209816352151</v>
       </c>
       <c r="P10" t="n">
-        <v>0.08736620816253449</v>
+        <v>0.06261861834649717</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.04217279284322641</v>
+        <v>0.03311180588601885</v>
       </c>
       <c r="R10" t="n">
-        <v>0.08319784480143373</v>
+        <v>0.05440446481814836</v>
       </c>
       <c r="S10" t="n">
-        <v>0.0131688819770564</v>
+        <v>0.03708852512165268</v>
       </c>
       <c r="T10" t="n">
-        <v>0.07593638480511475</v>
+        <v>0.06073327987262388</v>
       </c>
       <c r="U10" t="n">
-        <v>0.06409930463278375</v>
+        <v>0.1063619569146629</v>
       </c>
       <c r="V10" t="n">
-        <v>0.0146000566654639</v>
+        <v>0.004280765892918828</v>
       </c>
       <c r="W10" t="n">
-        <v>0.09011876074641208</v>
+        <v>0.1306860501239984</v>
       </c>
       <c r="X10" t="n">
-        <v>0.06057215700004646</v>
+        <v>0.1160178668309801</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.06392675878707055</v>
+        <v>0.008221375378005536</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.0184964848850026</v>
+        <v>0.009004451199801524</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.01080980135869559</v>
+        <v>0.02609658288009658</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.01615171434937892</v>
+        <v>0.07548492187486187</v>
       </c>
       <c r="AC10" t="n">
-        <v>-0.04780475720886686</v>
+        <v>-0.007219825182621979</v>
       </c>
     </row>
     <row r="11">
@@ -1450,79 +1450,79 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.5658142527943023</v>
+        <v>0.5932813207135307</v>
       </c>
       <c r="F11" t="n">
-        <v>0.003930693814607013</v>
+        <v>0.00230864491150238</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03332356287043466</v>
+        <v>0.03905454263147722</v>
       </c>
       <c r="H11" t="n">
-        <v>0.04780387408477105</v>
+        <v>0.08044418699176958</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0148877503466523</v>
+        <v>0.1023540872472348</v>
       </c>
       <c r="J11" t="n">
-        <v>0.01384421768965114</v>
+        <v>0.08554676561231261</v>
       </c>
       <c r="K11" t="n">
-        <v>0.02382593346885156</v>
+        <v>0.04988364756732196</v>
       </c>
       <c r="L11" t="n">
-        <v>0.01660994472472911</v>
+        <v>0.02142660139206085</v>
       </c>
       <c r="M11" t="n">
-        <v>0.05267738643060125</v>
+        <v>0.004890600518871725</v>
       </c>
       <c r="N11" t="n">
-        <v>0.07638461223229094</v>
+        <v>0.002940858457839842</v>
       </c>
       <c r="O11" t="n">
-        <v>0.02121311285734429</v>
+        <v>0.01350464985602423</v>
       </c>
       <c r="P11" t="n">
-        <v>0.00476281145266303</v>
+        <v>0.005065701404095183</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.06783991599000271</v>
+        <v>0.02984125146509219</v>
       </c>
       <c r="R11" t="n">
-        <v>0.07548272139533545</v>
+        <v>0.003738994818910006</v>
       </c>
       <c r="S11" t="n">
-        <v>0.0148957241850721</v>
+        <v>0.1031613103130255</v>
       </c>
       <c r="T11" t="n">
-        <v>0.03010741020768961</v>
+        <v>0.01636523400849131</v>
       </c>
       <c r="U11" t="n">
-        <v>0.08080864006497615</v>
+        <v>0.002340005331459511</v>
       </c>
       <c r="V11" t="n">
-        <v>0.108475780066124</v>
+        <v>0.1228530125190899</v>
       </c>
       <c r="W11" t="n">
-        <v>0.1070244953309212</v>
+        <v>0.08798501783638124</v>
       </c>
       <c r="X11" t="n">
-        <v>0.1051817571280938</v>
+        <v>0.08554969465979122</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.02080372195765357</v>
+        <v>3.630449749919424e-05</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.06464180938162201</v>
+        <v>0.1032824086799838</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.008901587556455181</v>
+        <v>0.02022639273769769</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.006572536763457795</v>
+        <v>0.01720008654206812</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.1006826925446078</v>
+        <v>0.1005468291799932</v>
       </c>
     </row>
     <row r="12">
@@ -1545,79 +1545,79 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.2771330165094931</v>
+        <v>0.277499773348451</v>
       </c>
       <c r="F12" t="n">
-        <v>0.008721737215991203</v>
+        <v>0.07139871156201279</v>
       </c>
       <c r="G12" t="n">
-        <v>0.02802072050083994</v>
+        <v>0.01472660226591937</v>
       </c>
       <c r="H12" t="n">
-        <v>0.03236032580790255</v>
+        <v>0.0123559586128232</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0526169417852678</v>
+        <v>0.06429827979467349</v>
       </c>
       <c r="J12" t="n">
-        <v>0.03695573224843494</v>
+        <v>0.0231769046007644</v>
       </c>
       <c r="K12" t="n">
-        <v>0.02810499995480931</v>
+        <v>0.002221332827393986</v>
       </c>
       <c r="L12" t="n">
-        <v>0.008617522310631823</v>
+        <v>0.01148457762503485</v>
       </c>
       <c r="M12" t="n">
-        <v>0.00271199947666117</v>
+        <v>0.03635274575062095</v>
       </c>
       <c r="N12" t="n">
-        <v>0.003773463330546822</v>
+        <v>0.01116473345158323</v>
       </c>
       <c r="O12" t="n">
-        <v>0.01478196745842933</v>
+        <v>0.08715664325618055</v>
       </c>
       <c r="P12" t="n">
-        <v>0.06400268905363242</v>
+        <v>0.0692372497489729</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.03863049681573383</v>
+        <v>0.04738262393800166</v>
       </c>
       <c r="R12" t="n">
-        <v>0.07863188932911504</v>
+        <v>0.08640684905106853</v>
       </c>
       <c r="S12" t="n">
-        <v>0.08400355504106959</v>
+        <v>0.01881210100213903</v>
       </c>
       <c r="T12" t="n">
-        <v>0.002624194288849137</v>
+        <v>0.01899770128727228</v>
       </c>
       <c r="U12" t="n">
-        <v>0.0524589092311436</v>
+        <v>0.07303030784316442</v>
       </c>
       <c r="V12" t="n">
-        <v>0.02823693429091914</v>
+        <v>0.001387287122563189</v>
       </c>
       <c r="W12" t="n">
-        <v>0.08654044484578899</v>
+        <v>0.07713766309737533</v>
       </c>
       <c r="X12" t="n">
-        <v>0.06483965397002225</v>
+        <v>0.0306890294240431</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.08895257950886523</v>
+        <v>0.05405619411277102</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.08058729753508831</v>
+        <v>0.0488023903111067</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.02742400661330533</v>
+        <v>0.07605797738449123</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.08640193938695213</v>
+        <v>0.06366613593002378</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.2142891697627738</v>
+        <v>0.2228508434658396</v>
       </c>
     </row>
     <row r="13">
@@ -1640,79 +1640,79 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.5901858658252002</v>
+        <v>0.5727289260064842</v>
       </c>
       <c r="F13" t="n">
-        <v>0.002117209202399379</v>
+        <v>0.03235630217632076</v>
       </c>
       <c r="G13" t="n">
-        <v>0.01031979506730337</v>
+        <v>0.08651283574900402</v>
       </c>
       <c r="H13" t="n">
-        <v>0.03315732857809158</v>
+        <v>0.01060778172019166</v>
       </c>
       <c r="I13" t="n">
-        <v>0.05263590231647772</v>
+        <v>0.03388073224740232</v>
       </c>
       <c r="J13" t="n">
-        <v>0.005529244289520263</v>
+        <v>0.1024035217639245</v>
       </c>
       <c r="K13" t="n">
-        <v>0.00249771817840987</v>
+        <v>0.01217127965842266</v>
       </c>
       <c r="L13" t="n">
-        <v>0.06237669374135045</v>
+        <v>0.01561323851182377</v>
       </c>
       <c r="M13" t="n">
-        <v>0.004074708528873103</v>
+        <v>0.009805509133714294</v>
       </c>
       <c r="N13" t="n">
-        <v>0.07853840953972847</v>
+        <v>0.005725943679740145</v>
       </c>
       <c r="O13" t="n">
-        <v>0.01154670992984902</v>
+        <v>0.004645045967826666</v>
       </c>
       <c r="P13" t="n">
-        <v>0.03481238292082652</v>
+        <v>0.0367669280739228</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.02459538349107541</v>
+        <v>0.04000679552482301</v>
       </c>
       <c r="R13" t="n">
-        <v>0.01958899619822999</v>
+        <v>0.02508654929216805</v>
       </c>
       <c r="S13" t="n">
-        <v>0.01472875211041178</v>
+        <v>0.08342668055074109</v>
       </c>
       <c r="T13" t="n">
-        <v>0.103928233441769</v>
+        <v>0.1024761845043904</v>
       </c>
       <c r="U13" t="n">
-        <v>0.02572479991601773</v>
+        <v>0.003836817694824343</v>
       </c>
       <c r="V13" t="n">
-        <v>0.1017609861422976</v>
+        <v>0.08482727026325826</v>
       </c>
       <c r="W13" t="n">
-        <v>0.08764613862492342</v>
+        <v>0.03494225164862307</v>
       </c>
       <c r="X13" t="n">
-        <v>0.09480783136737331</v>
+        <v>0.09108655310169622</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.06176656973774575</v>
+        <v>0.02743008989807394</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.07351914170338383</v>
+        <v>0.06091120747755938</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.03203584229661632</v>
+        <v>0.01206399434044861</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.0622912226773261</v>
+        <v>0.08341648702109999</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.2575270914992639</v>
+        <v>0.2632002203600229</v>
       </c>
     </row>
     <row r="14">
@@ -1735,79 +1735,79 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.2891504703799126</v>
+        <v>0.2845814875511609</v>
       </c>
       <c r="F14" t="n">
-        <v>0.03518203793467416</v>
+        <v>0.02600302863370544</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0445346108204424</v>
+        <v>0.02704582143439265</v>
       </c>
       <c r="H14" t="n">
-        <v>0.06026820237262664</v>
+        <v>0.01801983055607363</v>
       </c>
       <c r="I14" t="n">
-        <v>0.09333932478511135</v>
+        <v>0.06428494661784598</v>
       </c>
       <c r="J14" t="n">
-        <v>0.03607091270191272</v>
+        <v>0.0297393281183133</v>
       </c>
       <c r="K14" t="n">
-        <v>0.04758859694169557</v>
+        <v>0.04609527725861488</v>
       </c>
       <c r="L14" t="n">
-        <v>0.002308861040979695</v>
+        <v>0.01027862311318487</v>
       </c>
       <c r="M14" t="n">
-        <v>0.01959809685872435</v>
+        <v>0.001321825660268279</v>
       </c>
       <c r="N14" t="n">
-        <v>0.004197969944051231</v>
+        <v>0.01704867998025588</v>
       </c>
       <c r="O14" t="n">
-        <v>0.004574976245829691</v>
+        <v>0.0375511935778071</v>
       </c>
       <c r="P14" t="n">
-        <v>0.01830921352280862</v>
+        <v>0.1099766599356772</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.09269750287963484</v>
+        <v>0.1233505191667515</v>
       </c>
       <c r="R14" t="n">
-        <v>0.08525034494023662</v>
+        <v>0.02186664451337687</v>
       </c>
       <c r="S14" t="n">
-        <v>0.05563044989799002</v>
+        <v>0.09827771114898437</v>
       </c>
       <c r="T14" t="n">
-        <v>0.04638201139368121</v>
+        <v>0.07011988180844332</v>
       </c>
       <c r="U14" t="n">
-        <v>0.004907263970190811</v>
+        <v>0.003782708349028701</v>
       </c>
       <c r="V14" t="n">
-        <v>0.009703095489579034</v>
+        <v>0.0008957207380189729</v>
       </c>
       <c r="W14" t="n">
-        <v>0.06060346936990826</v>
+        <v>0.1179395299678989</v>
       </c>
       <c r="X14" t="n">
-        <v>0.008466066786536785</v>
+        <v>0.02172814602506177</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.07842821354825109</v>
+        <v>0.03716474171467175</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.08541270586958817</v>
+        <v>0.01289175970594131</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.0277995680379159</v>
+        <v>0.01130821382316804</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.07874650464763105</v>
+        <v>0.09330920815251516</v>
       </c>
       <c r="AC14" t="n">
-        <v>-0.04253632807769994</v>
+        <v>-0.06773546902957142</v>
       </c>
     </row>
     <row r="15">
@@ -1830,79 +1830,79 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.3581015522747725</v>
+        <v>0.3648604882218684</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09587556444151088</v>
+        <v>0.03607326740977733</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0535270043499231</v>
+        <v>0.0655622052024806</v>
       </c>
       <c r="H15" t="n">
-        <v>0.01522972003972674</v>
+        <v>0.02170638999907885</v>
       </c>
       <c r="I15" t="n">
-        <v>0.02085996362431508</v>
+        <v>0.06150806103662837</v>
       </c>
       <c r="J15" t="n">
-        <v>0.06405132355469696</v>
+        <v>0.09106212526575984</v>
       </c>
       <c r="K15" t="n">
-        <v>0.002156663661743705</v>
+        <v>0.09865156616341388</v>
       </c>
       <c r="L15" t="n">
-        <v>0.09015529751546709</v>
+        <v>0.01113090831894061</v>
       </c>
       <c r="M15" t="n">
-        <v>0.05189157101897663</v>
+        <v>0.001720686803751743</v>
       </c>
       <c r="N15" t="n">
-        <v>0.05485876746975572</v>
+        <v>0.1085349429761869</v>
       </c>
       <c r="O15" t="n">
-        <v>0.01127301467619289</v>
+        <v>0.02348153873134534</v>
       </c>
       <c r="P15" t="n">
-        <v>0.04537141568076601</v>
+        <v>0.0274024523983741</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.02409347089304333</v>
+        <v>0.050009309259922</v>
       </c>
       <c r="R15" t="n">
-        <v>0.03993325511175946</v>
+        <v>0.0234127026801443</v>
       </c>
       <c r="S15" t="n">
-        <v>0.08756614264915152</v>
+        <v>0.05329448807284864</v>
       </c>
       <c r="T15" t="n">
-        <v>0.06914845906023406</v>
+        <v>0.00399842800595285</v>
       </c>
       <c r="U15" t="n">
-        <v>0.001596437946327407</v>
+        <v>0.003440996151533357</v>
       </c>
       <c r="V15" t="n">
-        <v>0.09315204733055733</v>
+        <v>0.1096535599278725</v>
       </c>
       <c r="W15" t="n">
-        <v>0.0002471329083174187</v>
+        <v>0.08079244961550136</v>
       </c>
       <c r="X15" t="n">
-        <v>0.003215922539249045</v>
+        <v>7.729409742408827e-05</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.002953363493482335</v>
+        <v>0.03654942508774808</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.1034008192049863</v>
+        <v>0.01301989041652191</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.02080230151384363</v>
+        <v>0.003500747853108035</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.04864034131597343</v>
+        <v>0.07541656452568535</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.01217757038339743</v>
+        <v>-0.005463744584387026</v>
       </c>
     </row>
     <row r="16">
@@ -1925,79 +1925,79 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.3365913059386517</v>
+        <v>0.326447958696088</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08894664501504726</v>
+        <v>0.0464346721858003</v>
       </c>
       <c r="G16" t="n">
-        <v>0.05895012117374193</v>
+        <v>0.05137751286511646</v>
       </c>
       <c r="H16" t="n">
-        <v>0.03510509440622447</v>
+        <v>0.02557157072592475</v>
       </c>
       <c r="I16" t="n">
-        <v>0.02702461576341098</v>
+        <v>0.04331627384270628</v>
       </c>
       <c r="J16" t="n">
-        <v>0.04028219744485891</v>
+        <v>0.04698429760336934</v>
       </c>
       <c r="K16" t="n">
-        <v>0.03653880447362703</v>
+        <v>0.00381005892262864</v>
       </c>
       <c r="L16" t="n">
-        <v>0.002987836913003795</v>
+        <v>0.003331183095745786</v>
       </c>
       <c r="M16" t="n">
-        <v>0.01209030275506343</v>
+        <v>0.008358395168656146</v>
       </c>
       <c r="N16" t="n">
-        <v>0.04919004584061685</v>
+        <v>0.04793350750389058</v>
       </c>
       <c r="O16" t="n">
-        <v>0.08500140967725105</v>
+        <v>0.04312810777200538</v>
       </c>
       <c r="P16" t="n">
-        <v>0.08282458685321466</v>
+        <v>0.06486280054700547</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.06573303211606812</v>
+        <v>0.08229725344450139</v>
       </c>
       <c r="R16" t="n">
-        <v>0.02232420176344256</v>
+        <v>0.04006082444895123</v>
       </c>
       <c r="S16" t="n">
-        <v>0.003985952861509359</v>
+        <v>0.001887578241166254</v>
       </c>
       <c r="T16" t="n">
-        <v>0.02523006746925078</v>
+        <v>0.07482717315393703</v>
       </c>
       <c r="U16" t="n">
-        <v>0.09206657590294241</v>
+        <v>0.05348128950822989</v>
       </c>
       <c r="V16" t="n">
-        <v>0.0291248737662551</v>
+        <v>0.02161240063051943</v>
       </c>
       <c r="W16" t="n">
-        <v>0.06824899311417124</v>
+        <v>0.09052707765126494</v>
       </c>
       <c r="X16" t="n">
-        <v>0.01004820672308062</v>
+        <v>0.03152066748640755</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.0600228438370229</v>
+        <v>0.08881204409347553</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.006553623564492888</v>
+        <v>0.0001857410628591338</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.05991673767807028</v>
+        <v>0.07039655277190479</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.03780323088763338</v>
+        <v>0.05928301727393358</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.1464452094648861</v>
+        <v>0.1418167598673289</v>
       </c>
     </row>
     <row r="17">
@@ -2020,79 +2020,79 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.7277001185468471</v>
+        <v>0.7069919919959017</v>
       </c>
       <c r="F17" t="n">
-        <v>0.07865948944191473</v>
+        <v>0.008179450731414769</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04577775429687688</v>
+        <v>0.0772494817738215</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0380845854936589</v>
+        <v>0.01974896864240491</v>
       </c>
       <c r="I17" t="n">
-        <v>0.08181592520735748</v>
+        <v>0.0537010644986078</v>
       </c>
       <c r="J17" t="n">
-        <v>0.06537818227547508</v>
+        <v>0.09404456343047021</v>
       </c>
       <c r="K17" t="n">
-        <v>0.03189048052466677</v>
+        <v>0.06680337244978929</v>
       </c>
       <c r="L17" t="n">
-        <v>0.01094974937124504</v>
+        <v>0.005227576316558131</v>
       </c>
       <c r="M17" t="n">
-        <v>0.007977218659791249</v>
+        <v>0.0868714781608305</v>
       </c>
       <c r="N17" t="n">
-        <v>0.06149965504315235</v>
+        <v>0.07612139432310017</v>
       </c>
       <c r="O17" t="n">
-        <v>0.0278479952987851</v>
+        <v>0.01318412414140637</v>
       </c>
       <c r="P17" t="n">
-        <v>0.0001321000031332186</v>
+        <v>0.02702421104984573</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.005375615847762594</v>
+        <v>0.05870465486476093</v>
       </c>
       <c r="R17" t="n">
-        <v>0.0002069628666333857</v>
+        <v>0.004280447618847534</v>
       </c>
       <c r="S17" t="n">
-        <v>0.06377528416854897</v>
+        <v>0.03989390502880052</v>
       </c>
       <c r="T17" t="n">
-        <v>0.01553709391488876</v>
+        <v>0.1003442757687077</v>
       </c>
       <c r="U17" t="n">
-        <v>0.08917773661102878</v>
+        <v>0.01690850696438595</v>
       </c>
       <c r="V17" t="n">
-        <v>0.08229176514929741</v>
+        <v>0.09462885875355688</v>
       </c>
       <c r="W17" t="n">
-        <v>0.03051141881863468</v>
+        <v>0.02201266968743547</v>
       </c>
       <c r="X17" t="n">
-        <v>0.0496574929360771</v>
+        <v>0.009470100224258971</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.0130079556582441</v>
+        <v>0.01478586907190634</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.09086059187875098</v>
+        <v>0.09414118219447212</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.04769476877400381</v>
+        <v>0.01397855103522717</v>
       </c>
       <c r="AB17" t="n">
-        <v>0.06189017776007247</v>
+        <v>0.002695293269390808</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.2072174633608206</v>
+        <v>0.1737968055846164</v>
       </c>
     </row>
     <row r="18">
@@ -2115,79 +2115,79 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.2767039169438849</v>
+        <v>0.3041182460162117</v>
       </c>
       <c r="F18" t="n">
-        <v>0.01833423341964751</v>
+        <v>0.03840934875060049</v>
       </c>
       <c r="G18" t="n">
-        <v>0.01334591713946497</v>
+        <v>0.03754055679972704</v>
       </c>
       <c r="H18" t="n">
-        <v>0.01142482271942413</v>
+        <v>0.02981513559641986</v>
       </c>
       <c r="I18" t="n">
-        <v>0.1059086770996489</v>
+        <v>0.08959953388753417</v>
       </c>
       <c r="J18" t="n">
-        <v>0.01168308517718227</v>
+        <v>3.576226719052184e-05</v>
       </c>
       <c r="K18" t="n">
-        <v>0.05692475413750701</v>
+        <v>0.08447954954427506</v>
       </c>
       <c r="L18" t="n">
-        <v>0.01322077385792366</v>
+        <v>0.007026757632996428</v>
       </c>
       <c r="M18" t="n">
-        <v>0.02032434907323286</v>
+        <v>0.07910558344776997</v>
       </c>
       <c r="N18" t="n">
-        <v>0.03149525890417157</v>
+        <v>0.04619732924980419</v>
       </c>
       <c r="O18" t="n">
-        <v>0.04469886265087388</v>
+        <v>0.07311318809346956</v>
       </c>
       <c r="P18" t="n">
-        <v>0.03051633151623072</v>
+        <v>0.07600819520427791</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.04957289095440845</v>
+        <v>0.03887545599076734</v>
       </c>
       <c r="R18" t="n">
-        <v>0.08740057098689163</v>
+        <v>0.05379102742176219</v>
       </c>
       <c r="S18" t="n">
-        <v>0.03934404788311502</v>
+        <v>0.004126962318108207</v>
       </c>
       <c r="T18" t="n">
-        <v>0.1107031634267283</v>
+        <v>0.02080114834599937</v>
       </c>
       <c r="U18" t="n">
-        <v>0.002632393722543934</v>
+        <v>0.003074317477642692</v>
       </c>
       <c r="V18" t="n">
-        <v>0.06625599040252027</v>
+        <v>0.08933066014835118</v>
       </c>
       <c r="W18" t="n">
-        <v>0.1368253022427158</v>
+        <v>0.02125772091036178</v>
       </c>
       <c r="X18" t="n">
-        <v>0.01372801675700626</v>
+        <v>0.0136653081659787</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.1234451424350468</v>
+        <v>0.08524243582475183</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.004330716676331768</v>
+        <v>0.08178160967411079</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.00651126607668446</v>
+        <v>0.00362663597636213</v>
       </c>
       <c r="AB18" t="n">
-        <v>0.001373432740699847</v>
+        <v>0.02309577727173873</v>
       </c>
       <c r="AC18" t="n">
-        <v>0.03540522168747869</v>
+        <v>0.04277160040352979</v>
       </c>
     </row>
     <row r="19">
@@ -2210,79 +2210,79 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.4245626215871716</v>
+        <v>0.5056596500813513</v>
       </c>
       <c r="F19" t="n">
-        <v>0.009277869412746611</v>
+        <v>0.1019160217289075</v>
       </c>
       <c r="G19" t="n">
-        <v>0.04722284012900466</v>
+        <v>0.03971964140518797</v>
       </c>
       <c r="H19" t="n">
-        <v>0.09247436360302611</v>
+        <v>0.02163421400997188</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1213928890151331</v>
+        <v>0.05699829286341333</v>
       </c>
       <c r="J19" t="n">
-        <v>0.08230693625716527</v>
+        <v>0.02854852909650307</v>
       </c>
       <c r="K19" t="n">
-        <v>0.1325380143910279</v>
+        <v>0.1157881360954698</v>
       </c>
       <c r="L19" t="n">
-        <v>0.005350440607022211</v>
+        <v>0.008644699779285897</v>
       </c>
       <c r="M19" t="n">
-        <v>0.007001529475405796</v>
+        <v>0.004951681822155931</v>
       </c>
       <c r="N19" t="n">
-        <v>0.01159858796673527</v>
+        <v>0.02155477519167893</v>
       </c>
       <c r="O19" t="n">
-        <v>0.001711660003334939</v>
+        <v>0.1125497192104574</v>
       </c>
       <c r="P19" t="n">
-        <v>0.003724181054219988</v>
+        <v>0.01812003085771582</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.02143614614246015</v>
+        <v>0.01415567280600694</v>
       </c>
       <c r="R19" t="n">
-        <v>0.05905052534754153</v>
+        <v>0.01095533441171319</v>
       </c>
       <c r="S19" t="n">
-        <v>0.05059831012214525</v>
+        <v>0.1159244819322924</v>
       </c>
       <c r="T19" t="n">
-        <v>0.04827476294161859</v>
+        <v>0.002315962836936889</v>
       </c>
       <c r="U19" t="n">
-        <v>0.0255844539200913</v>
+        <v>0.003000204247998929</v>
       </c>
       <c r="V19" t="n">
-        <v>0.02584096787602162</v>
+        <v>0.1034658456805465</v>
       </c>
       <c r="W19" t="n">
-        <v>0.1334557840444051</v>
+        <v>0.06417383842559651</v>
       </c>
       <c r="X19" t="n">
-        <v>0.05101787313451844</v>
+        <v>0.009475510302976189</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.02356174175020348</v>
+        <v>0.003434851160899725</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.0160420117860427</v>
+        <v>0.05079022959757538</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.01619297624648849</v>
+        <v>0.03313964826000893</v>
       </c>
       <c r="AB19" t="n">
-        <v>0.01434513477364147</v>
+        <v>0.05874267827670076</v>
       </c>
       <c r="AC19" t="n">
-        <v>0.08896806781927279</v>
+        <v>0.09722995818674758</v>
       </c>
     </row>
     <row r="20">
@@ -2305,79 +2305,79 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0.2139212350948786</v>
+        <v>0.2171127337220123</v>
       </c>
       <c r="F20" t="n">
-        <v>0.01439776787914359</v>
+        <v>0.01747760542224557</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0884911901528099</v>
+        <v>0.02740452846657313</v>
       </c>
       <c r="H20" t="n">
-        <v>0.04813098186293713</v>
+        <v>0.02870007018431037</v>
       </c>
       <c r="I20" t="n">
-        <v>0.01332917480182339</v>
+        <v>0.07870878477169678</v>
       </c>
       <c r="J20" t="n">
-        <v>0.03470552821663841</v>
+        <v>0.004876545904062605</v>
       </c>
       <c r="K20" t="n">
-        <v>0.002115580104686634</v>
+        <v>0.0001321608054456139</v>
       </c>
       <c r="L20" t="n">
-        <v>0.02030632771974481</v>
+        <v>0.06546051509850485</v>
       </c>
       <c r="M20" t="n">
-        <v>0.04970526147411986</v>
+        <v>0.009554481359930762</v>
       </c>
       <c r="N20" t="n">
-        <v>0.07313207615862195</v>
+        <v>0.04874225803949794</v>
       </c>
       <c r="O20" t="n">
-        <v>0.004125684773644645</v>
+        <v>0.09263886793567867</v>
       </c>
       <c r="P20" t="n">
-        <v>0.09471517644667056</v>
+        <v>0.00479168814003747</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.09510870681774794</v>
+        <v>0.02897919744474394</v>
       </c>
       <c r="R20" t="n">
-        <v>0.05418053898122584</v>
+        <v>0.09360704999756442</v>
       </c>
       <c r="S20" t="n">
-        <v>0.005879457512235837</v>
+        <v>0.07044380066851262</v>
       </c>
       <c r="T20" t="n">
-        <v>0.006736404154290367</v>
+        <v>0.09322467591243777</v>
       </c>
       <c r="U20" t="n">
-        <v>0.03938506082119134</v>
+        <v>0.01271439083053541</v>
       </c>
       <c r="V20" t="n">
-        <v>0.0111495008441844</v>
+        <v>0.001931166364121932</v>
       </c>
       <c r="W20" t="n">
-        <v>0.08342205214536536</v>
+        <v>0.0725484425350149</v>
       </c>
       <c r="X20" t="n">
-        <v>0.09156932105854231</v>
+        <v>0.06306340046196844</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.04555666166814421</v>
+        <v>0.06868122343586545</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.06973951985408418</v>
+        <v>0.04177806847185164</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.05402945520642624</v>
+        <v>0.008842819133948911</v>
       </c>
       <c r="AB20" t="n">
-        <v>8.85713457211029e-05</v>
+        <v>0.06569825861545117</v>
       </c>
       <c r="AC20" t="n">
-        <v>-0.1757920433900003</v>
+        <v>-0.1660079485391075</v>
       </c>
     </row>
     <row r="21">
@@ -2400,79 +2400,79 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>0.3483107914636128</v>
+        <v>0.4132786856676418</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1069275889133448</v>
+        <v>0.1252752746205517</v>
       </c>
       <c r="G21" t="n">
-        <v>0.01126528307558878</v>
+        <v>0.0471738994934787</v>
       </c>
       <c r="H21" t="n">
-        <v>0.01009103154361248</v>
+        <v>0.01254546209506393</v>
       </c>
       <c r="I21" t="n">
-        <v>0.02312193328717317</v>
+        <v>0.05969690970763158</v>
       </c>
       <c r="J21" t="n">
-        <v>0.04850849297464272</v>
+        <v>0.03359645224006785</v>
       </c>
       <c r="K21" t="n">
-        <v>0.003099026178025054</v>
+        <v>0.017582137672045</v>
       </c>
       <c r="L21" t="n">
-        <v>0.08223445296155202</v>
+        <v>0.03493344865640122</v>
       </c>
       <c r="M21" t="n">
-        <v>0.06964240554108285</v>
+        <v>0.004327784332465184</v>
       </c>
       <c r="N21" t="n">
-        <v>0.001183549876026871</v>
+        <v>0.03192082600538283</v>
       </c>
       <c r="O21" t="n">
-        <v>0.08748049514738515</v>
+        <v>0.08878743841989394</v>
       </c>
       <c r="P21" t="n">
-        <v>0.006177345679974381</v>
+        <v>0.09874987086065176</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.05313808563906273</v>
+        <v>0.04100966281708207</v>
       </c>
       <c r="R21" t="n">
-        <v>0.06348565772589276</v>
+        <v>0.05754776839067368</v>
       </c>
       <c r="S21" t="n">
-        <v>0.03139977122501827</v>
+        <v>0.009591387389482588</v>
       </c>
       <c r="T21" t="n">
-        <v>0.0197760289347961</v>
+        <v>0.118007991341676</v>
       </c>
       <c r="U21" t="n">
-        <v>0.0476993229786741</v>
+        <v>0.01524731005470522</v>
       </c>
       <c r="V21" t="n">
-        <v>0.01450484442403274</v>
+        <v>0.0122442506295343</v>
       </c>
       <c r="W21" t="n">
-        <v>0.07325839393101605</v>
+        <v>0.0245778898959877</v>
       </c>
       <c r="X21" t="n">
-        <v>0.05615391141760741</v>
+        <v>0.03841915913905837</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.0005146228494165579</v>
+        <v>0.03363741400446642</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.06297847725880816</v>
+        <v>0.04031455361728445</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.04555390065265205</v>
+        <v>0.005291383841946129</v>
       </c>
       <c r="AB21" t="n">
-        <v>0.08180537778461465</v>
+        <v>0.04952172477446949</v>
       </c>
       <c r="AC21" t="n">
-        <v>-0.1495722484360507</v>
+        <v>-0.1820990095074113</v>
       </c>
     </row>
     <row r="22">
@@ -2495,79 +2495,79 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0.1802002460992129</v>
+        <v>0.1826349231612152</v>
       </c>
       <c r="F22" t="n">
-        <v>0.007705967360276888</v>
+        <v>0.03689904599718853</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0250140059302585</v>
+        <v>0.04833055229316988</v>
       </c>
       <c r="H22" t="n">
-        <v>0.04730736404969635</v>
+        <v>0.007970489480334669</v>
       </c>
       <c r="I22" t="n">
-        <v>0.02745405176250753</v>
+        <v>0.02875296466864534</v>
       </c>
       <c r="J22" t="n">
-        <v>0.001507165470977405</v>
+        <v>0.003959203130208633</v>
       </c>
       <c r="K22" t="n">
-        <v>0.02296158490701548</v>
+        <v>0.02414586010781708</v>
       </c>
       <c r="L22" t="n">
-        <v>0.009183737282639685</v>
+        <v>0.008263352674079122</v>
       </c>
       <c r="M22" t="n">
-        <v>0.03043652087756022</v>
+        <v>0.01847669894811803</v>
       </c>
       <c r="N22" t="n">
-        <v>0.01191532051737411</v>
+        <v>0.02406473400691186</v>
       </c>
       <c r="O22" t="n">
-        <v>0.004526640519698368</v>
+        <v>0.08739016022671758</v>
       </c>
       <c r="P22" t="n">
-        <v>0.0816256528195608</v>
+        <v>0.09042833547726543</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.07983216466705215</v>
+        <v>0.08391817426549326</v>
       </c>
       <c r="R22" t="n">
-        <v>0.05853310175051454</v>
+        <v>0.09429578843922998</v>
       </c>
       <c r="S22" t="n">
-        <v>0.08000027338292379</v>
+        <v>0.06948953287983314</v>
       </c>
       <c r="T22" t="n">
-        <v>0.0003727946236527751</v>
+        <v>0.004221176221037666</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08977481141584739</v>
+        <v>0.05445576058902698</v>
       </c>
       <c r="V22" t="n">
-        <v>0.03351493344390705</v>
+        <v>0.01683262687717179</v>
       </c>
       <c r="W22" t="n">
-        <v>0.1011450184621971</v>
+        <v>0.07787946680461071</v>
       </c>
       <c r="X22" t="n">
-        <v>0.08232831765753795</v>
+        <v>0.04461238097833208</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.0185946912139928</v>
+        <v>0.01558844491443523</v>
       </c>
       <c r="Z22" t="n">
-        <v>0.1067849329689168</v>
+        <v>0.08961024091829257</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.06482737896694256</v>
+        <v>0.03565826965781357</v>
       </c>
       <c r="AB22" t="n">
-        <v>0.0146535699489497</v>
+        <v>0.03475674044426692</v>
       </c>
       <c r="AC22" t="n">
-        <v>0.03888876448762387</v>
+        <v>0.04966537345960819</v>
       </c>
     </row>
     <row r="23">
@@ -2590,79 +2590,79 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0.2584024624873476</v>
+        <v>0.1989358974026429</v>
       </c>
       <c r="F23" t="n">
-        <v>0.03623695218258441</v>
+        <v>0.01687556554853767</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05657914292356881</v>
+        <v>0.01154244707880107</v>
       </c>
       <c r="H23" t="n">
-        <v>0.004047214460505332</v>
+        <v>0.0001515142658795314</v>
       </c>
       <c r="I23" t="n">
-        <v>0.002098805337419586</v>
+        <v>0.03760607606739811</v>
       </c>
       <c r="J23" t="n">
-        <v>0.09177775957354303</v>
+        <v>0.06723934081643866</v>
       </c>
       <c r="K23" t="n">
-        <v>0.09282059115870404</v>
+        <v>0.0624422420149697</v>
       </c>
       <c r="L23" t="n">
-        <v>0.08426518324625502</v>
+        <v>0.05835839942887229</v>
       </c>
       <c r="M23" t="n">
-        <v>0.0661496532384897</v>
+        <v>0.02424734455176692</v>
       </c>
       <c r="N23" t="n">
-        <v>0.08291318276378182</v>
+        <v>0.04584287865241232</v>
       </c>
       <c r="O23" t="n">
-        <v>0.003578415438704846</v>
+        <v>0.01105799233866231</v>
       </c>
       <c r="P23" t="n">
-        <v>0.09400320617916291</v>
+        <v>0.09602959540951235</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.0005731565735630058</v>
+        <v>0.01697762625394858</v>
       </c>
       <c r="R23" t="n">
-        <v>0.05962383742466208</v>
+        <v>0.08079982828404983</v>
       </c>
       <c r="S23" t="n">
-        <v>0.01440439981497304</v>
+        <v>0.1039875318244423</v>
       </c>
       <c r="T23" t="n">
-        <v>0.07493400492131765</v>
+        <v>0.04060607694513095</v>
       </c>
       <c r="U23" t="n">
-        <v>0.009492755901210475</v>
+        <v>0.05845190827776873</v>
       </c>
       <c r="V23" t="n">
-        <v>0.01211796353078683</v>
+        <v>0.01578539820601469</v>
       </c>
       <c r="W23" t="n">
-        <v>0.02843866182636099</v>
+        <v>0.09368921348217454</v>
       </c>
       <c r="X23" t="n">
-        <v>0.01361648560055053</v>
+        <v>0.02004138306829611</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.02332793653485039</v>
+        <v>0.01294419084433711</v>
       </c>
       <c r="Z23" t="n">
-        <v>0.04752727088237552</v>
+        <v>0.08528685280673003</v>
       </c>
       <c r="AA23" t="n">
-        <v>0.01262055841053054</v>
+        <v>0.006480672394916508</v>
       </c>
       <c r="AB23" t="n">
-        <v>0.08885286207609958</v>
+        <v>0.03355592143893982</v>
       </c>
       <c r="AC23" t="n">
-        <v>0.04882927976274308</v>
+        <v>0.05907778408778319</v>
       </c>
     </row>
     <row r="24">
@@ -2685,79 +2685,79 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0.1967820581343643</v>
+        <v>0.1951618015336764</v>
       </c>
       <c r="F24" t="n">
-        <v>0.007989594438313874</v>
+        <v>0.06336302478418129</v>
       </c>
       <c r="G24" t="n">
-        <v>0.00132187402768097</v>
+        <v>0.0306193105461392</v>
       </c>
       <c r="H24" t="n">
-        <v>0.007876845126340215</v>
+        <v>0.01413334901460041</v>
       </c>
       <c r="I24" t="n">
-        <v>0.06404913040596126</v>
+        <v>0.07096699347526621</v>
       </c>
       <c r="J24" t="n">
-        <v>0.006654490218069719</v>
+        <v>0.01251132125970483</v>
       </c>
       <c r="K24" t="n">
-        <v>0.01448309788524983</v>
+        <v>0.0267658627866603</v>
       </c>
       <c r="L24" t="n">
-        <v>0.0314425262133825</v>
+        <v>0.02712214115528067</v>
       </c>
       <c r="M24" t="n">
-        <v>0.04586174381296634</v>
+        <v>0.009588294977882748</v>
       </c>
       <c r="N24" t="n">
-        <v>0.04067197416188385</v>
+        <v>0.003382683222420727</v>
       </c>
       <c r="O24" t="n">
-        <v>0.02648376984977018</v>
+        <v>0.09563593805570034</v>
       </c>
       <c r="P24" t="n">
-        <v>0.03391278054102402</v>
+        <v>0.08447592117612925</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.05218072279026807</v>
+        <v>0.0112625646322303</v>
       </c>
       <c r="R24" t="n">
-        <v>0.0839175417273864</v>
+        <v>0.08313584339108374</v>
       </c>
       <c r="S24" t="n">
-        <v>0.08640251589055749</v>
+        <v>0.06730942648034249</v>
       </c>
       <c r="T24" t="n">
-        <v>0.0844458526586519</v>
+        <v>0.07814630096597328</v>
       </c>
       <c r="U24" t="n">
-        <v>0.09381807581109158</v>
+        <v>0.05674274217832342</v>
       </c>
       <c r="V24" t="n">
-        <v>0.02760420624957206</v>
+        <v>0.0167195755641449</v>
       </c>
       <c r="W24" t="n">
-        <v>0.04935864650995529</v>
+        <v>0.08474565383535745</v>
       </c>
       <c r="X24" t="n">
-        <v>0.04526313178423613</v>
+        <v>0.0110908070277564</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.05219281484311588</v>
+        <v>0.006074557593800751</v>
       </c>
       <c r="Z24" t="n">
-        <v>0.07840093879278368</v>
+        <v>0.104481810552359</v>
       </c>
       <c r="AA24" t="n">
-        <v>0.06275046194575662</v>
+        <v>0.01564981401232102</v>
       </c>
       <c r="AB24" t="n">
-        <v>0.002917264315982138</v>
+        <v>0.02607606331234119</v>
       </c>
       <c r="AC24" t="n">
-        <v>0.1102964164904302</v>
+        <v>0.1450338375382942</v>
       </c>
     </row>
     <row r="25">
@@ -2780,79 +2780,79 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>0.2359840456801926</v>
+        <v>0.2215745300580796</v>
       </c>
       <c r="F25" t="n">
-        <v>0.04959806369187651</v>
+        <v>0.00522767191399711</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02088441455943749</v>
+        <v>0.0004396495841693847</v>
       </c>
       <c r="H25" t="n">
-        <v>0.02971657892879789</v>
+        <v>0.05047548289449531</v>
       </c>
       <c r="I25" t="n">
-        <v>0.06449624083213233</v>
+        <v>0.007879135408523429</v>
       </c>
       <c r="J25" t="n">
-        <v>0.0304519071102286</v>
+        <v>0.06088403055424366</v>
       </c>
       <c r="K25" t="n">
-        <v>0.05788949366016041</v>
+        <v>0.1024630769724837</v>
       </c>
       <c r="L25" t="n">
-        <v>0.005042460515380478</v>
+        <v>0.033268537799184</v>
       </c>
       <c r="M25" t="n">
-        <v>0.007595726259833204</v>
+        <v>0.0006653754697363842</v>
       </c>
       <c r="N25" t="n">
-        <v>0.07099116376288013</v>
+        <v>0.1116239138871271</v>
       </c>
       <c r="O25" t="n">
-        <v>0.1046303990422955</v>
+        <v>0.05916160802427015</v>
       </c>
       <c r="P25" t="n">
-        <v>0.04656609675544739</v>
+        <v>0.02789517594749192</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.02647506948082152</v>
+        <v>0.009268001616229366</v>
       </c>
       <c r="R25" t="n">
-        <v>0.09805740850372241</v>
+        <v>0.1140018521514466</v>
       </c>
       <c r="S25" t="n">
-        <v>0.0515769248643908</v>
+        <v>0.1050838947580431</v>
       </c>
       <c r="T25" t="n">
-        <v>0.0003696697500145025</v>
+        <v>0.01565861971128479</v>
       </c>
       <c r="U25" t="n">
-        <v>0.03337838036211057</v>
+        <v>0.05334202816021544</v>
       </c>
       <c r="V25" t="n">
-        <v>0.02087867793403383</v>
+        <v>0.05066613428979574</v>
       </c>
       <c r="W25" t="n">
-        <v>0.1101566567200373</v>
+        <v>0.09743695608620552</v>
       </c>
       <c r="X25" t="n">
-        <v>0.01845110292864099</v>
+        <v>0.009483269750055244</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.002509373934946588</v>
+        <v>0.009013144716303986</v>
       </c>
       <c r="Z25" t="n">
-        <v>0.007033753518272878</v>
+        <v>0.02159216707829439</v>
       </c>
       <c r="AA25" t="n">
-        <v>0.03335950620218201</v>
+        <v>0.02191046534911677</v>
       </c>
       <c r="AB25" t="n">
-        <v>0.1098909306823567</v>
+        <v>0.03255980787728688</v>
       </c>
       <c r="AC25" t="n">
-        <v>0.1564294645494417</v>
+        <v>0.1424787478059539</v>
       </c>
     </row>
     <row r="26">
@@ -2875,79 +2875,79 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>0.2275145625104341</v>
+        <v>0.2305757989174044</v>
       </c>
       <c r="F26" t="n">
-        <v>0.05274099756191709</v>
+        <v>0.03432517668825201</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03290137391555267</v>
+        <v>0.01329664643856657</v>
       </c>
       <c r="H26" t="n">
-        <v>0.05538632823578699</v>
+        <v>0.08533938657091139</v>
       </c>
       <c r="I26" t="n">
-        <v>0.01819324110955638</v>
+        <v>0.0274604030869631</v>
       </c>
       <c r="J26" t="n">
-        <v>0.03860360884785138</v>
+        <v>0.008174067540082928</v>
       </c>
       <c r="K26" t="n">
-        <v>0.03717611157727635</v>
+        <v>0.01255509036768979</v>
       </c>
       <c r="L26" t="n">
-        <v>0.02504324392224021</v>
+        <v>0.01010558789039402</v>
       </c>
       <c r="M26" t="n">
-        <v>0.04226537210865699</v>
+        <v>0.06409096430333412</v>
       </c>
       <c r="N26" t="n">
-        <v>0.02902929013029678</v>
+        <v>0.05220439128992087</v>
       </c>
       <c r="O26" t="n">
-        <v>0.01542088911548068</v>
+        <v>0.01179633589471005</v>
       </c>
       <c r="P26" t="n">
-        <v>0.07660901277344639</v>
+        <v>0.05166564476637495</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.003105994872231495</v>
+        <v>0.08373720238248886</v>
       </c>
       <c r="R26" t="n">
-        <v>0.08176446251076132</v>
+        <v>0.08752563059577979</v>
       </c>
       <c r="S26" t="n">
-        <v>0.0918868060912942</v>
+        <v>0.06279513932067513</v>
       </c>
       <c r="T26" t="n">
-        <v>0.001873407225333282</v>
+        <v>0.02096993005258705</v>
       </c>
       <c r="U26" t="n">
-        <v>0.04921560104120223</v>
+        <v>0.04641442371230394</v>
       </c>
       <c r="V26" t="n">
-        <v>0.05318690172700185</v>
+        <v>0.09812087945541634</v>
       </c>
       <c r="W26" t="n">
-        <v>0.02724692140334137</v>
+        <v>0.06827950809643561</v>
       </c>
       <c r="X26" t="n">
-        <v>0.01501541664089332</v>
+        <v>0.01152951407498732</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.07931283805598888</v>
+        <v>0.05142853949203973</v>
       </c>
       <c r="Z26" t="n">
-        <v>0.07406485376132096</v>
+        <v>0.02080889075813715</v>
       </c>
       <c r="AA26" t="n">
-        <v>0.09576710918563298</v>
+        <v>0.07177573386810268</v>
       </c>
       <c r="AB26" t="n">
-        <v>0.004190218186936102</v>
+        <v>0.005600913353846792</v>
       </c>
       <c r="AC26" t="n">
-        <v>0.005121160308161785</v>
+        <v>0.00691776711528883</v>
       </c>
     </row>
     <row r="27">
@@ -2970,79 +2970,79 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>0.2686451067962343</v>
+        <v>0.3071294036251049</v>
       </c>
       <c r="F27" t="n">
-        <v>0.02734432887915992</v>
+        <v>0.03303249714284609</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02459764864735087</v>
+        <v>0.09263164417484039</v>
       </c>
       <c r="H27" t="n">
-        <v>0.06735751482596783</v>
+        <v>0.05148069806465406</v>
       </c>
       <c r="I27" t="n">
-        <v>0.0334943228487086</v>
+        <v>0.05507494909048687</v>
       </c>
       <c r="J27" t="n">
-        <v>0.08874657897498631</v>
+        <v>0.09550922440525972</v>
       </c>
       <c r="K27" t="n">
-        <v>0.08444981142257162</v>
+        <v>0.1094689739700397</v>
       </c>
       <c r="L27" t="n">
-        <v>0.028151060923711</v>
+        <v>0.001650612124001449</v>
       </c>
       <c r="M27" t="n">
-        <v>9.502008008405497e-05</v>
+        <v>0.003394892981312206</v>
       </c>
       <c r="N27" t="n">
-        <v>0.006070286302958167</v>
+        <v>0.002171755594954879</v>
       </c>
       <c r="O27" t="n">
-        <v>0.05291129320199688</v>
+        <v>0.001611660209421889</v>
       </c>
       <c r="P27" t="n">
-        <v>0.03737236661696754</v>
+        <v>0.01066476717101766</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.008848777684050261</v>
+        <v>0.0009015447405591009</v>
       </c>
       <c r="R27" t="n">
-        <v>0.07089231086421095</v>
+        <v>0.04078001561730992</v>
       </c>
       <c r="S27" t="n">
-        <v>0.06325717942414637</v>
+        <v>0.07781840372893299</v>
       </c>
       <c r="T27" t="n">
-        <v>0.07392171045475249</v>
+        <v>0.07812119883535262</v>
       </c>
       <c r="U27" t="n">
-        <v>0.06552617613734424</v>
+        <v>0.07220196399260469</v>
       </c>
       <c r="V27" t="n">
-        <v>0.0276993577570504</v>
+        <v>0.03387509501270584</v>
       </c>
       <c r="W27" t="n">
-        <v>0.06496605812694725</v>
+        <v>0.04444481460097416</v>
       </c>
       <c r="X27" t="n">
-        <v>0.01380346615847237</v>
+        <v>0.0163805982772536</v>
       </c>
       <c r="Y27" t="n">
-        <v>0.03880116043890166</v>
+        <v>0.03375182910778918</v>
       </c>
       <c r="Z27" t="n">
-        <v>0.09095183497200381</v>
+        <v>0.05150270170569599</v>
       </c>
       <c r="AA27" t="n">
-        <v>0.01030773406712642</v>
+        <v>0.02234478408112928</v>
       </c>
       <c r="AB27" t="n">
-        <v>0.02043400119053098</v>
+        <v>0.07118537537085756</v>
       </c>
       <c r="AC27" t="n">
-        <v>0.02571075827568861</v>
+        <v>0.02558299430154447</v>
       </c>
     </row>
     <row r="28">
@@ -3065,79 +3065,79 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>0.2252959624425869</v>
+        <v>0.2198381351059751</v>
       </c>
       <c r="F28" t="n">
-        <v>0.05260075481264778</v>
+        <v>0.07433141457032803</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0005638834400334602</v>
+        <v>0.008387520104941839</v>
       </c>
       <c r="H28" t="n">
-        <v>0.05854879502691279</v>
+        <v>0.09541182550793277</v>
       </c>
       <c r="I28" t="n">
-        <v>0.006279868350560843</v>
+        <v>0.05478598221563438</v>
       </c>
       <c r="J28" t="n">
-        <v>0.03316523635736436</v>
+        <v>0.03019775855810253</v>
       </c>
       <c r="K28" t="n">
-        <v>0.004175619105947507</v>
+        <v>0.005952061279567148</v>
       </c>
       <c r="L28" t="n">
-        <v>0.06803581367205395</v>
+        <v>0.01688874784417763</v>
       </c>
       <c r="M28" t="n">
-        <v>0.07237701949320278</v>
+        <v>0.02633168612189707</v>
       </c>
       <c r="N28" t="n">
-        <v>0.02198325967841935</v>
+        <v>0.01212354809392019</v>
       </c>
       <c r="O28" t="n">
-        <v>0.09557851866441455</v>
+        <v>0.08571026943243676</v>
       </c>
       <c r="P28" t="n">
-        <v>0.09337778355149311</v>
+        <v>0.02437381642678932</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.02964516819004317</v>
+        <v>0.01082719564004431</v>
       </c>
       <c r="R28" t="n">
-        <v>0.06261206166129817</v>
+        <v>0.08025623759309623</v>
       </c>
       <c r="S28" t="n">
-        <v>0.04915743053294125</v>
+        <v>0.08472243604704412</v>
       </c>
       <c r="T28" t="n">
-        <v>0.008017538444213743</v>
+        <v>0.002901412055188529</v>
       </c>
       <c r="U28" t="n">
-        <v>0.03731065643025847</v>
+        <v>0.03742649576638835</v>
       </c>
       <c r="V28" t="n">
-        <v>0.03267973143553092</v>
+        <v>0.0117690493472981</v>
       </c>
       <c r="W28" t="n">
-        <v>0.01959249993709681</v>
+        <v>0.02665247904874076</v>
       </c>
       <c r="X28" t="n">
-        <v>0.06915894864177997</v>
+        <v>0.07280211593732862</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.02243694730343619</v>
+        <v>0.07029611971261396</v>
       </c>
       <c r="Z28" t="n">
-        <v>0.0442570131219159</v>
+        <v>0.05957930612604311</v>
       </c>
       <c r="AA28" t="n">
-        <v>0.03514428875508599</v>
+        <v>0.07299839814770284</v>
       </c>
       <c r="AB28" t="n">
-        <v>0.08330116339334881</v>
+        <v>0.03527412442278356</v>
       </c>
       <c r="AC28" t="n">
-        <v>0.1852169158322425</v>
+        <v>0.1596815804839949</v>
       </c>
     </row>
     <row r="29">
@@ -3160,79 +3160,79 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>0.3001720231824537</v>
+        <v>0.2795100248490973</v>
       </c>
       <c r="F29" t="n">
-        <v>0.06404566276883053</v>
+        <v>0.08590549887574235</v>
       </c>
       <c r="G29" t="n">
-        <v>0.01914143437359547</v>
+        <v>0.02689893770293273</v>
       </c>
       <c r="H29" t="n">
-        <v>0.02359763755267345</v>
+        <v>0.01628185794257833</v>
       </c>
       <c r="I29" t="n">
-        <v>0.04030469193236867</v>
+        <v>0.04210635915805389</v>
       </c>
       <c r="J29" t="n">
-        <v>0.0744293034400076</v>
+        <v>0.04059922929295394</v>
       </c>
       <c r="K29" t="n">
-        <v>0.06703274443231608</v>
+        <v>0.03333390139912139</v>
       </c>
       <c r="L29" t="n">
-        <v>0.00259287875981392</v>
+        <v>0.004146915599331218</v>
       </c>
       <c r="M29" t="n">
-        <v>0.01998138092546465</v>
+        <v>0.02851883961617362</v>
       </c>
       <c r="N29" t="n">
-        <v>0.01972123207712675</v>
+        <v>0.02871024210814757</v>
       </c>
       <c r="O29" t="n">
-        <v>0.07120919354597209</v>
+        <v>0.08756041304280314</v>
       </c>
       <c r="P29" t="n">
-        <v>0.02320654147300198</v>
+        <v>0.05444710617672185</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.02644090496323407</v>
+        <v>0.009603965425483694</v>
       </c>
       <c r="R29" t="n">
-        <v>0.05356820416044755</v>
+        <v>0.04381266204419061</v>
       </c>
       <c r="S29" t="n">
-        <v>0.06083787918163392</v>
+        <v>0.05701424798971446</v>
       </c>
       <c r="T29" t="n">
-        <v>0.0051788356544716</v>
+        <v>0.006006546742731408</v>
       </c>
       <c r="U29" t="n">
-        <v>0.08767926122693119</v>
+        <v>0.07580239575586042</v>
       </c>
       <c r="V29" t="n">
-        <v>0.02781253552943738</v>
+        <v>0.0555836273872083</v>
       </c>
       <c r="W29" t="n">
-        <v>0.05623866132045111</v>
+        <v>0.0416275019385464</v>
       </c>
       <c r="X29" t="n">
-        <v>0.08105171084311584</v>
+        <v>0.06776202450999094</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.06938540287267325</v>
+        <v>0.01125733699874588</v>
       </c>
       <c r="Z29" t="n">
-        <v>0.08225979551934295</v>
+        <v>0.0472997802329273</v>
       </c>
       <c r="AA29" t="n">
-        <v>0.002311730876152131</v>
+        <v>0.05782533186070981</v>
       </c>
       <c r="AB29" t="n">
-        <v>0.02197237657093777</v>
+        <v>0.07789527819933073</v>
       </c>
       <c r="AC29" t="n">
-        <v>0.1712427901252587</v>
+        <v>0.184984367196109</v>
       </c>
     </row>
     <row r="30">
@@ -3255,79 +3255,79 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>0.1976302793666468</v>
+        <v>0.1998833872374127</v>
       </c>
       <c r="F30" t="n">
-        <v>0.07703116390501762</v>
+        <v>0.02851775420021931</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02687433214284567</v>
+        <v>0.04158396897163446</v>
       </c>
       <c r="H30" t="n">
-        <v>0.0878648896107217</v>
+        <v>0.02774928931259752</v>
       </c>
       <c r="I30" t="n">
-        <v>0.03421641114571295</v>
+        <v>0.06294590055861997</v>
       </c>
       <c r="J30" t="n">
-        <v>0.04793342619889365</v>
+        <v>0.03325895388721049</v>
       </c>
       <c r="K30" t="n">
-        <v>0.02369767554363813</v>
+        <v>0.03042619786859643</v>
       </c>
       <c r="L30" t="n">
-        <v>0.07281998295242502</v>
+        <v>0.08775301074261861</v>
       </c>
       <c r="M30" t="n">
-        <v>0.001583477262655314</v>
+        <v>0.05193853884138579</v>
       </c>
       <c r="N30" t="n">
-        <v>0.0888556438678786</v>
+        <v>0.06969486049619113</v>
       </c>
       <c r="O30" t="n">
-        <v>0.03557291856741303</v>
+        <v>0.01030039307199494</v>
       </c>
       <c r="P30" t="n">
-        <v>0.07246049928421108</v>
+        <v>0.03009093643653523</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.05304283806401826</v>
+        <v>0.04915379662521674</v>
       </c>
       <c r="R30" t="n">
-        <v>0.07144489977416084</v>
+        <v>0.06699337612299283</v>
       </c>
       <c r="S30" t="n">
-        <v>0.08737388354293481</v>
+        <v>0.09034346965599532</v>
       </c>
       <c r="T30" t="n">
-        <v>0.07657487811540102</v>
+        <v>0.08197908290399288</v>
       </c>
       <c r="U30" t="n">
-        <v>0.005268932016005045</v>
+        <v>0.008061851205294328</v>
       </c>
       <c r="V30" t="n">
-        <v>0.02116646911387883</v>
+        <v>0.007295375600339932</v>
       </c>
       <c r="W30" t="n">
-        <v>0.008362773064661162</v>
+        <v>0.04163504847284025</v>
       </c>
       <c r="X30" t="n">
-        <v>0.01559812856422636</v>
+        <v>0.09012333768413389</v>
       </c>
       <c r="Y30" t="n">
-        <v>0.04736619249166578</v>
+        <v>0.0269192482314608</v>
       </c>
       <c r="Z30" t="n">
-        <v>0.02866251997716061</v>
+        <v>0.04234344684666451</v>
       </c>
       <c r="AA30" t="n">
-        <v>0.00641011968689433</v>
+        <v>0.009328783631984121</v>
       </c>
       <c r="AB30" t="n">
-        <v>0.009817945107580293</v>
+        <v>0.01156337863148059</v>
       </c>
       <c r="AC30" t="n">
-        <v>0.02012504302092714</v>
+        <v>0.01876653806405204</v>
       </c>
     </row>
     <row r="31">
@@ -3350,79 +3350,79 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>0.2584304109883179</v>
+        <v>0.2616149818614515</v>
       </c>
       <c r="F31" t="n">
-        <v>0.06166162167332507</v>
+        <v>0.05806638128720035</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0133977325527282</v>
+        <v>0.01600466102933789</v>
       </c>
       <c r="H31" t="n">
-        <v>0.02989094775572819</v>
+        <v>0.06005202211783036</v>
       </c>
       <c r="I31" t="n">
-        <v>0.05865021194164335</v>
+        <v>0.07123521759462562</v>
       </c>
       <c r="J31" t="n">
-        <v>0.03773945791220726</v>
+        <v>0.06112033645145555</v>
       </c>
       <c r="K31" t="n">
-        <v>0.07715799584993424</v>
+        <v>0.0886641404637744</v>
       </c>
       <c r="L31" t="n">
-        <v>0.07733698895220875</v>
+        <v>0.08897297487639232</v>
       </c>
       <c r="M31" t="n">
-        <v>0.03984406552217015</v>
+        <v>0.01179600431850661</v>
       </c>
       <c r="N31" t="n">
-        <v>0.03512032292526879</v>
+        <v>0.07984733274785863</v>
       </c>
       <c r="O31" t="n">
-        <v>0.07232960871174852</v>
+        <v>0.08730469120424218</v>
       </c>
       <c r="P31" t="n">
-        <v>0.02793118254647511</v>
+        <v>0.03293431505423581</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.0744338090778216</v>
+        <v>0.01410555139704458</v>
       </c>
       <c r="R31" t="n">
-        <v>0.01054418296290044</v>
+        <v>0.0374194964661315</v>
       </c>
       <c r="S31" t="n">
-        <v>0.07255524467216024</v>
+        <v>0.01707130607299165</v>
       </c>
       <c r="T31" t="n">
-        <v>0.05765248854093991</v>
+        <v>0.04883177092676267</v>
       </c>
       <c r="U31" t="n">
-        <v>0.001650383476299022</v>
+        <v>0.00148952831984201</v>
       </c>
       <c r="V31" t="n">
-        <v>0.0709734888852465</v>
+        <v>0.08847749480747102</v>
       </c>
       <c r="W31" t="n">
-        <v>0.07078285936615127</v>
+        <v>0.03044267274823747</v>
       </c>
       <c r="X31" t="n">
-        <v>0.0580566904921717</v>
+        <v>0.01971598113298191</v>
       </c>
       <c r="Y31" t="n">
-        <v>0.0006680476303779222</v>
+        <v>0.009142841424010619</v>
       </c>
       <c r="Z31" t="n">
-        <v>0.009298075553053063</v>
+        <v>0.01136315636077786</v>
       </c>
       <c r="AA31" t="n">
-        <v>0.02062433222231086</v>
+        <v>0.00509521739063178</v>
       </c>
       <c r="AB31" t="n">
-        <v>0.02170026077712963</v>
+        <v>0.06084690580765724</v>
       </c>
       <c r="AC31" t="n">
-        <v>0.03576073969376106</v>
+        <v>0.02898067054104423</v>
       </c>
     </row>
     <row r="32">
@@ -3445,79 +3445,79 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>0.1334734657222681</v>
+        <v>0.1344945615441534</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0577842448788612</v>
+        <v>0.03603745923381121</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03999692668919835</v>
+        <v>0.000580663496701438</v>
       </c>
       <c r="H32" t="n">
-        <v>0.001484994663961947</v>
+        <v>0.001268194767987983</v>
       </c>
       <c r="I32" t="n">
-        <v>0.02057443786461245</v>
+        <v>0.03103372185916787</v>
       </c>
       <c r="J32" t="n">
-        <v>0.04018733046207567</v>
+        <v>0.0189748326453347</v>
       </c>
       <c r="K32" t="n">
-        <v>0.03469435143225939</v>
+        <v>0.05197353733593099</v>
       </c>
       <c r="L32" t="n">
-        <v>0.04575406469387174</v>
+        <v>0.00402535856913526</v>
       </c>
       <c r="M32" t="n">
-        <v>0.0654930405178846</v>
+        <v>0.0009981346269722514</v>
       </c>
       <c r="N32" t="n">
-        <v>0.01191924697368934</v>
+        <v>0.02627818521546398</v>
       </c>
       <c r="O32" t="n">
-        <v>0.008121453034332862</v>
+        <v>0.01795568447083971</v>
       </c>
       <c r="P32" t="n">
-        <v>0.1014686134779088</v>
+        <v>0.0936033219196087</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.1055626599838094</v>
+        <v>0.1073959810793977</v>
       </c>
       <c r="R32" t="n">
-        <v>0.05214894324695445</v>
+        <v>0.04161834179690324</v>
       </c>
       <c r="S32" t="n">
-        <v>0.05883662691966002</v>
+        <v>0.08460960471013267</v>
       </c>
       <c r="T32" t="n">
-        <v>0.06052583378543087</v>
+        <v>0.06227044690736246</v>
       </c>
       <c r="U32" t="n">
-        <v>0.04282596318313769</v>
+        <v>0.06923298992515495</v>
       </c>
       <c r="V32" t="n">
-        <v>0.004724310156958459</v>
+        <v>0.01595015307822079</v>
       </c>
       <c r="W32" t="n">
-        <v>0.07608661420969731</v>
+        <v>0.08816503697069976</v>
       </c>
       <c r="X32" t="n">
-        <v>0.04032592896400917</v>
+        <v>0.07948612222098211</v>
       </c>
       <c r="Y32" t="n">
-        <v>0.0003327944766821215</v>
+        <v>0.01452631232096258</v>
       </c>
       <c r="Z32" t="n">
-        <v>0.04763336003463856</v>
+        <v>0.01137981558206649</v>
       </c>
       <c r="AA32" t="n">
-        <v>0.03627706248924096</v>
+        <v>0.08467652066845727</v>
       </c>
       <c r="AB32" t="n">
-        <v>0.04724119786112486</v>
+        <v>0.05795958059870556</v>
       </c>
       <c r="AC32" t="n">
-        <v>0.02306417761190661</v>
+        <v>0.02271605651033349</v>
       </c>
     </row>
     <row r="33">
@@ -3540,79 +3540,79 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>0.1547971168136583</v>
+        <v>0.187292743365426</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1085258838836428</v>
+        <v>0.1020149012517232</v>
       </c>
       <c r="G33" t="n">
-        <v>0.02460200209390664</v>
+        <v>0.02284906354179896</v>
       </c>
       <c r="H33" t="n">
-        <v>0.004587171112273288</v>
+        <v>0.001527253469539995</v>
       </c>
       <c r="I33" t="n">
-        <v>0.05463778140348061</v>
+        <v>0.1003123538508603</v>
       </c>
       <c r="J33" t="n">
-        <v>0.0155499817888488</v>
+        <v>0.0288543821286283</v>
       </c>
       <c r="K33" t="n">
-        <v>0.08694281890551474</v>
+        <v>0.08616145838462073</v>
       </c>
       <c r="L33" t="n">
-        <v>0.02574080255317175</v>
+        <v>0.09067224756852713</v>
       </c>
       <c r="M33" t="n">
-        <v>0.1012996963282694</v>
+        <v>0.0184715721326371</v>
       </c>
       <c r="N33" t="n">
-        <v>0.00191159072873971</v>
+        <v>0.0004688529406887834</v>
       </c>
       <c r="O33" t="n">
-        <v>0.05648509549465894</v>
+        <v>0.03971411715085651</v>
       </c>
       <c r="P33" t="n">
-        <v>0.03078537134455961</v>
+        <v>0.002792493863929701</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.006553295411343557</v>
+        <v>0.03432904577144032</v>
       </c>
       <c r="R33" t="n">
-        <v>0.008114494362255347</v>
+        <v>0.01309305132441004</v>
       </c>
       <c r="S33" t="n">
-        <v>0.07057413409172203</v>
+        <v>0.04588262282177961</v>
       </c>
       <c r="T33" t="n">
-        <v>0.003943195384002269</v>
+        <v>0.1043423312734044</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1061472850359276</v>
+        <v>0.107614381774442</v>
       </c>
       <c r="V33" t="n">
-        <v>0.03779489771645756</v>
+        <v>0.002761750897794613</v>
       </c>
       <c r="W33" t="n">
-        <v>0.04949866821489757</v>
+        <v>0.0395845588305372</v>
       </c>
       <c r="X33" t="n">
-        <v>0.0790937806275948</v>
+        <v>0.008634030232870746</v>
       </c>
       <c r="Y33" t="n">
-        <v>0.02815787968851632</v>
+        <v>0.003939662908280239</v>
       </c>
       <c r="Z33" t="n">
-        <v>0.02718977460818542</v>
+        <v>0.01554166143365325</v>
       </c>
       <c r="AA33" t="n">
-        <v>0.05580888087189643</v>
+        <v>0.02954098362605515</v>
       </c>
       <c r="AB33" t="n">
-        <v>0.01605551835013478</v>
+        <v>0.1008972228215218</v>
       </c>
       <c r="AC33" t="n">
-        <v>0.007488741468394969</v>
+        <v>-0.004345234279451735</v>
       </c>
     </row>
     <row r="34">
@@ -3635,79 +3635,79 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>0.1810208248024618</v>
+        <v>0.1771790519365147</v>
       </c>
       <c r="F34" t="n">
-        <v>0.05937527819255941</v>
+        <v>0.08523431000138205</v>
       </c>
       <c r="G34" t="n">
-        <v>0.06113424568675972</v>
+        <v>0.02920948034538555</v>
       </c>
       <c r="H34" t="n">
-        <v>0.01939527695526826</v>
+        <v>0.08377906287096026</v>
       </c>
       <c r="I34" t="n">
-        <v>0.002046088623779944</v>
+        <v>0.01226730662161119</v>
       </c>
       <c r="J34" t="n">
-        <v>0.005032474349168562</v>
+        <v>0.03312911507193057</v>
       </c>
       <c r="K34" t="n">
-        <v>0.06145263343994789</v>
+        <v>0.0161609397382833</v>
       </c>
       <c r="L34" t="n">
-        <v>0.01557766210444938</v>
+        <v>0.0689770172939429</v>
       </c>
       <c r="M34" t="n">
-        <v>0.04575691895855336</v>
+        <v>0.004964097637544847</v>
       </c>
       <c r="N34" t="n">
-        <v>0.061193767105476</v>
+        <v>0.05374674622135025</v>
       </c>
       <c r="O34" t="n">
-        <v>0.02612853920714557</v>
+        <v>0.003160394694256476</v>
       </c>
       <c r="P34" t="n">
-        <v>0.08270241480233817</v>
+        <v>0.04141346935082017</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.07856806327809612</v>
+        <v>0.06499315767324179</v>
       </c>
       <c r="R34" t="n">
-        <v>0.0001733247901767095</v>
+        <v>0.001861143539494715</v>
       </c>
       <c r="S34" t="n">
-        <v>0.003132878742066344</v>
+        <v>0.001779490203866901</v>
       </c>
       <c r="T34" t="n">
-        <v>0.07921790614027766</v>
+        <v>0.03255773580049497</v>
       </c>
       <c r="U34" t="n">
-        <v>0.0526479173077529</v>
+        <v>0.09112450522559053</v>
       </c>
       <c r="V34" t="n">
-        <v>0.04253417057891612</v>
+        <v>0.09278349918753881</v>
       </c>
       <c r="W34" t="n">
-        <v>0.005076593237266905</v>
+        <v>0.003286662428935593</v>
       </c>
       <c r="X34" t="n">
-        <v>0.05034688222062824</v>
+        <v>0.02808146213754309</v>
       </c>
       <c r="Y34" t="n">
-        <v>0.07028704117990262</v>
+        <v>0.05439513395445734</v>
       </c>
       <c r="Z34" t="n">
-        <v>0.08623148940957702</v>
+        <v>0.02448311811177687</v>
       </c>
       <c r="AA34" t="n">
-        <v>0.08642966831632302</v>
+        <v>0.07930150202158176</v>
       </c>
       <c r="AB34" t="n">
-        <v>0.005558765373570349</v>
+        <v>0.09331064986801013</v>
       </c>
       <c r="AC34" t="n">
-        <v>0.08028610370952603</v>
+        <v>0.1055534554179075</v>
       </c>
     </row>
     <row r="35">
@@ -3730,79 +3730,79 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>0.2798988024585201</v>
+        <v>0.2978342948088832</v>
       </c>
       <c r="F35" t="n">
-        <v>0.02185962096634358</v>
+        <v>0.08344934814204846</v>
       </c>
       <c r="G35" t="n">
-        <v>0.06387553596322501</v>
+        <v>0.08135684812459301</v>
       </c>
       <c r="H35" t="n">
-        <v>0.0352766209499359</v>
+        <v>0.01723095363030404</v>
       </c>
       <c r="I35" t="n">
-        <v>0.02845603886447643</v>
+        <v>0.002401233772564578</v>
       </c>
       <c r="J35" t="n">
-        <v>0.03522177745516906</v>
+        <v>0.09101861286888428</v>
       </c>
       <c r="K35" t="n">
-        <v>0.1058824784516186</v>
+        <v>0.1134152540067637</v>
       </c>
       <c r="L35" t="n">
-        <v>0.06239325153394881</v>
+        <v>0.008236533824316281</v>
       </c>
       <c r="M35" t="n">
-        <v>0.08777054995796478</v>
+        <v>0.1136353948462087</v>
       </c>
       <c r="N35" t="n">
-        <v>0.01733100440429114</v>
+        <v>0.001007138359131589</v>
       </c>
       <c r="O35" t="n">
-        <v>0.05549045217668049</v>
+        <v>0.005465070957487619</v>
       </c>
       <c r="P35" t="n">
-        <v>0.009032798858794648</v>
+        <v>0.1019190851250118</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.1054307444788831</v>
+        <v>0.02675549361330926</v>
       </c>
       <c r="R35" t="n">
-        <v>0.00657368606888618</v>
+        <v>0.02736738654807221</v>
       </c>
       <c r="S35" t="n">
-        <v>0.00507930255813925</v>
+        <v>0.03439489797708112</v>
       </c>
       <c r="T35" t="n">
-        <v>0.02317567929572588</v>
+        <v>0.08086793841142247</v>
       </c>
       <c r="U35" t="n">
-        <v>0.02784599167918837</v>
+        <v>0.00255972040041949</v>
       </c>
       <c r="V35" t="n">
-        <v>0.09711386242907111</v>
+        <v>0.1109610802476587</v>
       </c>
       <c r="W35" t="n">
-        <v>0.0150820333763899</v>
+        <v>0.009086864297963773</v>
       </c>
       <c r="X35" t="n">
-        <v>0.08774142294908541</v>
+        <v>0.02554428934102439</v>
       </c>
       <c r="Y35" t="n">
-        <v>0.01024011014966056</v>
+        <v>0.01879794033344112</v>
       </c>
       <c r="Z35" t="n">
-        <v>0.009143087406211184</v>
+        <v>0.01862145431150368</v>
       </c>
       <c r="AA35" t="n">
-        <v>0.01244332308544189</v>
+        <v>0.002198447065360942</v>
       </c>
       <c r="AB35" t="n">
-        <v>0.07754062694086856</v>
+        <v>0.02370901379542887</v>
       </c>
       <c r="AC35" t="n">
-        <v>0.1152670058733629</v>
+        <v>0.1712226295672531</v>
       </c>
     </row>
     <row r="36">
@@ -3825,79 +3825,79 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>0.1616820369873288</v>
+        <v>0.1619697451594155</v>
       </c>
       <c r="F36" t="n">
-        <v>0.06716218382730199</v>
+        <v>0.08137345229877301</v>
       </c>
       <c r="G36" t="n">
-        <v>0.03668237835053874</v>
+        <v>0.0804450468981015</v>
       </c>
       <c r="H36" t="n">
-        <v>0.04442397413650882</v>
+        <v>0.0702104977670467</v>
       </c>
       <c r="I36" t="n">
-        <v>0.02226424081902399</v>
+        <v>0.08244736486581869</v>
       </c>
       <c r="J36" t="n">
-        <v>0.07615426716126242</v>
+        <v>0.07472133719461362</v>
       </c>
       <c r="K36" t="n">
-        <v>0.01019313585357505</v>
+        <v>0.01723520485881251</v>
       </c>
       <c r="L36" t="n">
-        <v>0.0707020489704286</v>
+        <v>0.01764095471835478</v>
       </c>
       <c r="M36" t="n">
-        <v>0.0122471543176045</v>
+        <v>0.03975740552093959</v>
       </c>
       <c r="N36" t="n">
-        <v>0.08081250624689085</v>
+        <v>0.06811418979362913</v>
       </c>
       <c r="O36" t="n">
-        <v>0.07822997214045015</v>
+        <v>0.05401399360811758</v>
       </c>
       <c r="P36" t="n">
-        <v>0.0257264476984267</v>
+        <v>0.05686737789763494</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.03965850255908802</v>
+        <v>0.02793689393424744</v>
       </c>
       <c r="R36" t="n">
-        <v>0.05856404661110024</v>
+        <v>0.04539448872902903</v>
       </c>
       <c r="S36" t="n">
-        <v>0.05604851835045527</v>
+        <v>0.0009493812616818082</v>
       </c>
       <c r="T36" t="n">
-        <v>0.03585064951443077</v>
+        <v>0.005901827396865344</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05702815347770968</v>
+        <v>0.06259516157021797</v>
       </c>
       <c r="V36" t="n">
-        <v>0.004680727571188269</v>
+        <v>0.02308538592104196</v>
       </c>
       <c r="W36" t="n">
-        <v>0.01139933040663495</v>
+        <v>0.03039274002118285</v>
       </c>
       <c r="X36" t="n">
-        <v>0.07142251746419225</v>
+        <v>0.01558663290284101</v>
       </c>
       <c r="Y36" t="n">
-        <v>0.02037241912995956</v>
+        <v>0.03197317071173544</v>
       </c>
       <c r="Z36" t="n">
-        <v>0.03505736962060946</v>
+        <v>0.08434328348709993</v>
       </c>
       <c r="AA36" t="n">
-        <v>0.0718934650640513</v>
+        <v>0.01512600238895001</v>
       </c>
       <c r="AB36" t="n">
-        <v>0.01342599070856861</v>
+        <v>0.01388820625326533</v>
       </c>
       <c r="AC36" t="n">
-        <v>-0.01544068208486425</v>
+        <v>-0.01190553006132855</v>
       </c>
     </row>
     <row r="37">
@@ -3920,79 +3920,79 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>0.2469722115101254</v>
+        <v>0.2357883517638052</v>
       </c>
       <c r="F37" t="n">
-        <v>0.007028156139230171</v>
+        <v>0.001752866151577418</v>
       </c>
       <c r="G37" t="n">
-        <v>0.07702354704672885</v>
+        <v>0.02802932572730537</v>
       </c>
       <c r="H37" t="n">
-        <v>0.1485043741628995</v>
+        <v>0.00616016447023232</v>
       </c>
       <c r="I37" t="n">
-        <v>0.001347645741369742</v>
+        <v>0.05900346259051059</v>
       </c>
       <c r="J37" t="n">
-        <v>0.1154275087699627</v>
+        <v>0.05140535186689658</v>
       </c>
       <c r="K37" t="n">
-        <v>0.001048066574554288</v>
+        <v>0.02574154303140402</v>
       </c>
       <c r="L37" t="n">
-        <v>0.04934886159415743</v>
+        <v>0.03089316821345032</v>
       </c>
       <c r="M37" t="n">
-        <v>0.0203036693741714</v>
+        <v>0.07024090955883622</v>
       </c>
       <c r="N37" t="n">
-        <v>0.02936107404712838</v>
+        <v>0.03700128162570061</v>
       </c>
       <c r="O37" t="n">
-        <v>0.0293615025304789</v>
+        <v>0.01945537691590885</v>
       </c>
       <c r="P37" t="n">
-        <v>0.02110406655941311</v>
+        <v>0.01466505366418184</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.000209177271339263</v>
+        <v>0.03397393170677167</v>
       </c>
       <c r="R37" t="n">
-        <v>0.007411081748589415</v>
+        <v>0.06412410562037392</v>
       </c>
       <c r="S37" t="n">
-        <v>0.09866151350523382</v>
+        <v>0.1026169885330385</v>
       </c>
       <c r="T37" t="n">
-        <v>0.02333088278642919</v>
+        <v>0.0008209684409669729</v>
       </c>
       <c r="U37" t="n">
-        <v>0.03134457610909259</v>
+        <v>0.05826237851719694</v>
       </c>
       <c r="V37" t="n">
-        <v>0.1267672250182544</v>
+        <v>0.1040926499058955</v>
       </c>
       <c r="W37" t="n">
-        <v>0.02611319290402173</v>
+        <v>0.08666335375096366</v>
       </c>
       <c r="X37" t="n">
-        <v>0.04221334043058758</v>
+        <v>0.06190330772192042</v>
       </c>
       <c r="Y37" t="n">
-        <v>0.05022512229486972</v>
+        <v>0.0584325788468636</v>
       </c>
       <c r="Z37" t="n">
-        <v>0.00402082661712957</v>
+        <v>0.07910127282830086</v>
       </c>
       <c r="AA37" t="n">
-        <v>0.07437736852818394</v>
+        <v>0.004316831616718701</v>
       </c>
       <c r="AB37" t="n">
-        <v>0.01546722024617405</v>
+        <v>0.001343128694985036</v>
       </c>
       <c r="AC37" t="n">
-        <v>-0.01321741388607327</v>
+        <v>0.0003132051888267698</v>
       </c>
     </row>
     <row r="38">
@@ -4015,79 +4015,79 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>0.1946422083611271</v>
+        <v>0.1976884779809218</v>
       </c>
       <c r="F38" t="n">
-        <v>0.07375307858132989</v>
+        <v>0.05847710833312221</v>
       </c>
       <c r="G38" t="n">
-        <v>0.04142322199205144</v>
+        <v>0.08492635220615968</v>
       </c>
       <c r="H38" t="n">
-        <v>0.0739331295787502</v>
+        <v>0.0792695924202244</v>
       </c>
       <c r="I38" t="n">
-        <v>0.007912246421626934</v>
+        <v>0.04592810413920911</v>
       </c>
       <c r="J38" t="n">
-        <v>0.01337061332062561</v>
+        <v>0.02632570774118316</v>
       </c>
       <c r="K38" t="n">
-        <v>0.06926781655496725</v>
+        <v>0.06017839939867695</v>
       </c>
       <c r="L38" t="n">
-        <v>0.02297805764725017</v>
+        <v>0.00925026171420926</v>
       </c>
       <c r="M38" t="n">
-        <v>0.02811359434702298</v>
+        <v>0.06593179030562758</v>
       </c>
       <c r="N38" t="n">
-        <v>0.007137359910143048</v>
+        <v>0.02380103553394518</v>
       </c>
       <c r="O38" t="n">
-        <v>0.03419541929570129</v>
+        <v>0.04983474521368422</v>
       </c>
       <c r="P38" t="n">
-        <v>0.05115456058670973</v>
+        <v>0.05962318325516095</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.05252792988871245</v>
+        <v>0.003206192221989155</v>
       </c>
       <c r="R38" t="n">
-        <v>0.05567692856056932</v>
+        <v>0.01656037087789319</v>
       </c>
       <c r="S38" t="n">
-        <v>0.02436264942550677</v>
+        <v>0.02441262022805019</v>
       </c>
       <c r="T38" t="n">
-        <v>0.08127037537250491</v>
+        <v>0.07319297078020792</v>
       </c>
       <c r="U38" t="n">
-        <v>0.07234030492710677</v>
+        <v>0.04754135204909885</v>
       </c>
       <c r="V38" t="n">
-        <v>0.004385612504535719</v>
+        <v>0.000759587484218276</v>
       </c>
       <c r="W38" t="n">
-        <v>0.03265574391804719</v>
+        <v>0.01436455318830805</v>
       </c>
       <c r="X38" t="n">
-        <v>0.07601892617392562</v>
+        <v>0.07904321387229529</v>
       </c>
       <c r="Y38" t="n">
-        <v>0.05709003733189692</v>
+        <v>0.02385706814274223</v>
       </c>
       <c r="Z38" t="n">
-        <v>0.07325399028949608</v>
+        <v>0.04745269686232204</v>
       </c>
       <c r="AA38" t="n">
-        <v>0.0302201707970371</v>
+        <v>0.03972657684606414</v>
       </c>
       <c r="AB38" t="n">
-        <v>0.01695823257448265</v>
+        <v>0.06633651718560789</v>
       </c>
       <c r="AC38" t="n">
-        <v>-0.0002570172406311324</v>
+        <v>-0.05457278894645743</v>
       </c>
     </row>
     <row r="39">
@@ -4110,79 +4110,79 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>0.3243528686068793</v>
+        <v>0.227269557350554</v>
       </c>
       <c r="F39" t="n">
-        <v>0.09695729261559879</v>
+        <v>0.07821416819273139</v>
       </c>
       <c r="G39" t="n">
-        <v>0.06024161433184964</v>
+        <v>0.07541054932152463</v>
       </c>
       <c r="H39" t="n">
-        <v>0.09228325571297628</v>
+        <v>0.05299411763748649</v>
       </c>
       <c r="I39" t="n">
-        <v>0.02627781202750909</v>
+        <v>0.00607867723433283</v>
       </c>
       <c r="J39" t="n">
-        <v>0.06663997092253439</v>
+        <v>0.04831744345820514</v>
       </c>
       <c r="K39" t="n">
-        <v>0.06838780166806326</v>
+        <v>0.05422214969817667</v>
       </c>
       <c r="L39" t="n">
-        <v>0.008328180668278437</v>
+        <v>0.04084789458547989</v>
       </c>
       <c r="M39" t="n">
-        <v>0.09365806900801375</v>
+        <v>0.05305000600155721</v>
       </c>
       <c r="N39" t="n">
-        <v>0.001488946881832313</v>
+        <v>0.008695638046438693</v>
       </c>
       <c r="O39" t="n">
-        <v>0.05320933156644206</v>
+        <v>0.03234087599410106</v>
       </c>
       <c r="P39" t="n">
-        <v>0.009523365936954468</v>
+        <v>0.06671016935434454</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.01719417938037048</v>
+        <v>0.01492548942818291</v>
       </c>
       <c r="R39" t="n">
-        <v>0.07706806331891673</v>
+        <v>0.07299381163861046</v>
       </c>
       <c r="S39" t="n">
-        <v>0.09937625535318584</v>
+        <v>0.06868591646323219</v>
       </c>
       <c r="T39" t="n">
-        <v>0.03581013124360963</v>
+        <v>0.08704206996790635</v>
       </c>
       <c r="U39" t="n">
-        <v>0.02801022590839405</v>
+        <v>0.01880179769223666</v>
       </c>
       <c r="V39" t="n">
-        <v>0.02638544406197605</v>
+        <v>0.003327430114127432</v>
       </c>
       <c r="W39" t="n">
-        <v>0.04438739275030087</v>
+        <v>0.04691695994132457</v>
       </c>
       <c r="X39" t="n">
-        <v>0.006243432248854674</v>
+        <v>0.005068599516610077</v>
       </c>
       <c r="Y39" t="n">
-        <v>0.005711110628343755</v>
+        <v>0.0149648711903621</v>
       </c>
       <c r="Z39" t="n">
-        <v>0.03192717385690159</v>
+        <v>0.04529028423634147</v>
       </c>
       <c r="AA39" t="n">
-        <v>0.03737256546196301</v>
+        <v>0.07854250017491533</v>
       </c>
       <c r="AB39" t="n">
-        <v>0.01351838444713092</v>
+        <v>0.02655858011177192</v>
       </c>
       <c r="AC39" t="n">
-        <v>-0.008343232672271031</v>
+        <v>-0.02434570647430555</v>
       </c>
     </row>
     <row r="40">
@@ -4205,79 +4205,79 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>0.19283372669035</v>
+        <v>0.195493876981957</v>
       </c>
       <c r="F40" t="n">
-        <v>0.07462660009358173</v>
+        <v>0.08405079245326394</v>
       </c>
       <c r="G40" t="n">
-        <v>0.06792611610032971</v>
+        <v>0.04781496041681837</v>
       </c>
       <c r="H40" t="n">
-        <v>0.005804589238508888</v>
+        <v>0.08143216203456131</v>
       </c>
       <c r="I40" t="n">
-        <v>0.01150555453986209</v>
+        <v>0.01476455297606426</v>
       </c>
       <c r="J40" t="n">
-        <v>0.002578799809749447</v>
+        <v>0.05123408604932892</v>
       </c>
       <c r="K40" t="n">
-        <v>0.04496308275444098</v>
+        <v>0.03985758611204522</v>
       </c>
       <c r="L40" t="n">
-        <v>0.06277806592743258</v>
+        <v>0.08055694679564586</v>
       </c>
       <c r="M40" t="n">
-        <v>0.07798764000691477</v>
+        <v>0.07262621856905462</v>
       </c>
       <c r="N40" t="n">
-        <v>0.03053688050424243</v>
+        <v>0.007139184945877238</v>
       </c>
       <c r="O40" t="n">
-        <v>0.07929841709816318</v>
+        <v>0.02516528903236472</v>
       </c>
       <c r="P40" t="n">
-        <v>0.04991995637497079</v>
+        <v>0.01642810171965749</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.005560672717300705</v>
+        <v>0.01604875058996049</v>
       </c>
       <c r="R40" t="n">
-        <v>0.06003545633342908</v>
+        <v>0.0002330339817071143</v>
       </c>
       <c r="S40" t="n">
-        <v>0.06075539692076756</v>
+        <v>0.05170676590395215</v>
       </c>
       <c r="T40" t="n">
-        <v>0.00204772197285065</v>
+        <v>0.04135909944630946</v>
       </c>
       <c r="U40" t="n">
-        <v>0.07895673623782083</v>
+        <v>0.06889255924583972</v>
       </c>
       <c r="V40" t="n">
-        <v>0.03366369665929422</v>
+        <v>0.06808267099490689</v>
       </c>
       <c r="W40" t="n">
-        <v>0.04138088700413315</v>
+        <v>0.04467303638488009</v>
       </c>
       <c r="X40" t="n">
-        <v>0.07162418337036269</v>
+        <v>0.0855871982438864</v>
       </c>
       <c r="Y40" t="n">
-        <v>0.01256617708699238</v>
+        <v>0.0117152810089758</v>
       </c>
       <c r="Z40" t="n">
-        <v>0.08036764513856577</v>
+        <v>0.07839484769086368</v>
       </c>
       <c r="AA40" t="n">
-        <v>0.03108140243994886</v>
+        <v>0.01057114301006475</v>
       </c>
       <c r="AB40" t="n">
-        <v>0.01403432167033736</v>
+        <v>0.0016657323939715</v>
       </c>
       <c r="AC40" t="n">
-        <v>0.1370862529706723</v>
+        <v>0.1575386575255652</v>
       </c>
     </row>
     <row r="41">
@@ -4300,79 +4300,79 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>0.2081530389481671</v>
+        <v>0.1993694691467834</v>
       </c>
       <c r="F41" t="n">
-        <v>0.07521959946395478</v>
+        <v>0.02448470673612039</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04170042045236717</v>
+        <v>0.04286187716553477</v>
       </c>
       <c r="H41" t="n">
-        <v>0.005055186824451798</v>
+        <v>0.01546711476621882</v>
       </c>
       <c r="I41" t="n">
-        <v>0.0123011359105742</v>
+        <v>0.01159692278226559</v>
       </c>
       <c r="J41" t="n">
-        <v>0.07969179699998039</v>
+        <v>0.04661969107205768</v>
       </c>
       <c r="K41" t="n">
-        <v>0.08109678849120358</v>
+        <v>0.03790943190708333</v>
       </c>
       <c r="L41" t="n">
-        <v>0.04518955300687496</v>
+        <v>0.06656157425229828</v>
       </c>
       <c r="M41" t="n">
-        <v>0.09921295764134835</v>
+        <v>0.07679977559108381</v>
       </c>
       <c r="N41" t="n">
-        <v>0.007431183071168646</v>
+        <v>0.004744996451565096</v>
       </c>
       <c r="O41" t="n">
-        <v>0.04022127003587826</v>
+        <v>0.0417936085217513</v>
       </c>
       <c r="P41" t="n">
-        <v>0.07241137907803735</v>
+        <v>0.01450205259295461</v>
       </c>
       <c r="Q41" t="n">
-        <v>0.01035081112158987</v>
+        <v>0.006172825339918039</v>
       </c>
       <c r="R41" t="n">
-        <v>0.0426842503760913</v>
+        <v>0.08284213911341864</v>
       </c>
       <c r="S41" t="n">
-        <v>0.07483658465332935</v>
+        <v>0.101496853003636</v>
       </c>
       <c r="T41" t="n">
-        <v>0.08190030388026465</v>
+        <v>0.09483825747396263</v>
       </c>
       <c r="U41" t="n">
-        <v>0.03151852697706126</v>
+        <v>0.04371641581628631</v>
       </c>
       <c r="V41" t="n">
-        <v>0.09303171552192023</v>
+        <v>0.08818423731784435</v>
       </c>
       <c r="W41" t="n">
-        <v>0.04576708605073319</v>
+        <v>0.06394413335925098</v>
       </c>
       <c r="X41" t="n">
-        <v>0.01520790474399275</v>
+        <v>0.01728762267694818</v>
       </c>
       <c r="Y41" t="n">
-        <v>0.001762003223956372</v>
+        <v>0.006199226932818685</v>
       </c>
       <c r="Z41" t="n">
-        <v>0.02570972264387428</v>
+        <v>0.02261150044279496</v>
       </c>
       <c r="AA41" t="n">
-        <v>0.0002915339830894235</v>
+        <v>0.07929238633477845</v>
       </c>
       <c r="AB41" t="n">
-        <v>0.01740828584825786</v>
+        <v>0.0100726503494092</v>
       </c>
       <c r="AC41" t="n">
-        <v>0.1454647524234101</v>
+        <v>0.1546372211322629</v>
       </c>
     </row>
     <row r="42">
@@ -4395,79 +4395,79 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>0.2076946301466724</v>
+        <v>0.2157001554594996</v>
       </c>
       <c r="F42" t="n">
-        <v>0.02464878898404692</v>
+        <v>0.01306624003590467</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0210434615296093</v>
+        <v>0.09212740801291647</v>
       </c>
       <c r="H42" t="n">
-        <v>0.1032176323491147</v>
+        <v>0.08076788675942528</v>
       </c>
       <c r="I42" t="n">
-        <v>0.06802436207535796</v>
+        <v>0.02090425195320969</v>
       </c>
       <c r="J42" t="n">
-        <v>0.002827473723588711</v>
+        <v>0.06199233156515797</v>
       </c>
       <c r="K42" t="n">
-        <v>0.02764398105024226</v>
+        <v>0.01723249354462181</v>
       </c>
       <c r="L42" t="n">
-        <v>0.04990077483394246</v>
+        <v>0.02332201013532005</v>
       </c>
       <c r="M42" t="n">
-        <v>0.09361880957259662</v>
+        <v>0.05635122465322532</v>
       </c>
       <c r="N42" t="n">
-        <v>0.02387184385506587</v>
+        <v>0.0008967539331317407</v>
       </c>
       <c r="O42" t="n">
-        <v>0.002436521415606312</v>
+        <v>0.007628193932808036</v>
       </c>
       <c r="P42" t="n">
-        <v>0.04482844003993999</v>
+        <v>0.08982186623424274</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.0219368814573891</v>
+        <v>0.05485666691641747</v>
       </c>
       <c r="R42" t="n">
-        <v>0.08768269490804136</v>
+        <v>0.1067455474960632</v>
       </c>
       <c r="S42" t="n">
-        <v>0.07384639119495159</v>
+        <v>0.01550548265033314</v>
       </c>
       <c r="T42" t="n">
-        <v>0.04084477099909011</v>
+        <v>0.02182728846993367</v>
       </c>
       <c r="U42" t="n">
-        <v>0.09351590847633121</v>
+        <v>0.04067123886699595</v>
       </c>
       <c r="V42" t="n">
-        <v>0.01532723883176602</v>
+        <v>0.03403871225736764</v>
       </c>
       <c r="W42" t="n">
-        <v>0.03376704753390202</v>
+        <v>0.04723219375670728</v>
       </c>
       <c r="X42" t="n">
-        <v>0.09664059737896749</v>
+        <v>0.08026488701335777</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.02897090641055864</v>
+        <v>0.09572339874824475</v>
       </c>
       <c r="Z42" t="n">
-        <v>0.01836791385981198</v>
+        <v>0.007620763136163204</v>
       </c>
       <c r="AA42" t="n">
-        <v>0.006064296637777877</v>
+        <v>0.005881726002470657</v>
       </c>
       <c r="AB42" t="n">
-        <v>0.02097326288230131</v>
+        <v>0.02552143392598167</v>
       </c>
       <c r="AC42" t="n">
-        <v>0.03435261780493961</v>
+        <v>0.05597683064991897</v>
       </c>
     </row>
     <row r="43">
@@ -4490,79 +4490,79 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>0.3243096241025079</v>
+        <v>0.3638375633441492</v>
       </c>
       <c r="F43" t="n">
-        <v>0.08492050485896217</v>
+        <v>0.0245602135802605</v>
       </c>
       <c r="G43" t="n">
-        <v>0.04780630525381416</v>
+        <v>0.01951906033064603</v>
       </c>
       <c r="H43" t="n">
-        <v>0.002592523135207439</v>
+        <v>0.102137790179246</v>
       </c>
       <c r="I43" t="n">
-        <v>0.001108040789026208</v>
+        <v>0.02205553468607818</v>
       </c>
       <c r="J43" t="n">
-        <v>0.03386357517938221</v>
+        <v>0.05728074192717292</v>
       </c>
       <c r="K43" t="n">
-        <v>0.0485672704835684</v>
+        <v>0.007991711890114677</v>
       </c>
       <c r="L43" t="n">
-        <v>0.002964326302683315</v>
+        <v>0.05009590558026523</v>
       </c>
       <c r="M43" t="n">
-        <v>0.04927759892140105</v>
+        <v>0.03898160074540977</v>
       </c>
       <c r="N43" t="n">
-        <v>0.0286279869875793</v>
+        <v>0.0101616578583419</v>
       </c>
       <c r="O43" t="n">
-        <v>0.02923450193324674</v>
+        <v>0.07545072473366139</v>
       </c>
       <c r="P43" t="n">
-        <v>0.03614114738797647</v>
+        <v>0.02917015018393092</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.07139917614154538</v>
+        <v>0.014522382271398</v>
       </c>
       <c r="R43" t="n">
-        <v>0.01523817976823552</v>
+        <v>0.03241390946089891</v>
       </c>
       <c r="S43" t="n">
-        <v>0.04608580261335219</v>
+        <v>0.07849872206365618</v>
       </c>
       <c r="T43" t="n">
-        <v>0.1104255919751925</v>
+        <v>0.1113224632652443</v>
       </c>
       <c r="U43" t="n">
-        <v>0.02913851569075243</v>
+        <v>0.06091905424644982</v>
       </c>
       <c r="V43" t="n">
-        <v>0.128253144783215</v>
+        <v>0.1118637536587071</v>
       </c>
       <c r="W43" t="n">
-        <v>0.01468296303528948</v>
+        <v>0.02414205192024544</v>
       </c>
       <c r="X43" t="n">
-        <v>0.004302713453854885</v>
+        <v>0.05678776366762554</v>
       </c>
       <c r="Y43" t="n">
-        <v>0.1022457836305887</v>
+        <v>0.02773117488228692</v>
       </c>
       <c r="Z43" t="n">
-        <v>0.03649798316622681</v>
+        <v>0.008144435041878954</v>
       </c>
       <c r="AA43" t="n">
-        <v>0.007899090779737883</v>
+        <v>0.03282575874207846</v>
       </c>
       <c r="AB43" t="n">
-        <v>0.06872727372916188</v>
+        <v>0.003423439084402724</v>
       </c>
       <c r="AC43" t="n">
-        <v>0.08121713682090591</v>
+        <v>0.01972873107971296</v>
       </c>
     </row>
     <row r="44">
@@ -4585,79 +4585,79 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>0.2057777074126992</v>
+        <v>0.2093837889568839</v>
       </c>
       <c r="F44" t="n">
-        <v>0.03124715288512123</v>
+        <v>0.05225180911598903</v>
       </c>
       <c r="G44" t="n">
-        <v>0.005004283976012414</v>
+        <v>0.006598240820289094</v>
       </c>
       <c r="H44" t="n">
-        <v>0.01562974049856419</v>
+        <v>0.05300020457482597</v>
       </c>
       <c r="I44" t="n">
-        <v>0.01663582641096899</v>
+        <v>0.02565572256051538</v>
       </c>
       <c r="J44" t="n">
-        <v>0.07562492888686836</v>
+        <v>0.0489255182590666</v>
       </c>
       <c r="K44" t="n">
-        <v>0.05557147156478161</v>
+        <v>0.0874513259656423</v>
       </c>
       <c r="L44" t="n">
-        <v>0.06510993755972934</v>
+        <v>0.08349138485425449</v>
       </c>
       <c r="M44" t="n">
-        <v>0.04888482841146718</v>
+        <v>0.02812524188809661</v>
       </c>
       <c r="N44" t="n">
-        <v>0.01927878138890066</v>
+        <v>0.003529498604773719</v>
       </c>
       <c r="O44" t="n">
-        <v>0.06660289968830661</v>
+        <v>0.02785575341542826</v>
       </c>
       <c r="P44" t="n">
-        <v>0.07192395128058036</v>
+        <v>0.06058518165919601</v>
       </c>
       <c r="Q44" t="n">
-        <v>0.02478561708854046</v>
+        <v>0.01149500553057026</v>
       </c>
       <c r="R44" t="n">
-        <v>0.05433334540630345</v>
+        <v>0.06295666389103784</v>
       </c>
       <c r="S44" t="n">
-        <v>0.08023379665429478</v>
+        <v>0.08664913735706314</v>
       </c>
       <c r="T44" t="n">
-        <v>0.06481833798753039</v>
+        <v>0.08030138313617176</v>
       </c>
       <c r="U44" t="n">
-        <v>0.01916388050281339</v>
+        <v>0.08165297750330101</v>
       </c>
       <c r="V44" t="n">
-        <v>0.01558533485104648</v>
+        <v>0.01499952043621278</v>
       </c>
       <c r="W44" t="n">
-        <v>0.003600452401842202</v>
+        <v>0.001225820965170983</v>
       </c>
       <c r="X44" t="n">
-        <v>0.04061198777694774</v>
+        <v>0.07938879394157487</v>
       </c>
       <c r="Y44" t="n">
-        <v>0.01390183160937243</v>
+        <v>0.01807700199032702</v>
       </c>
       <c r="Z44" t="n">
-        <v>0.06303999350270086</v>
+        <v>0.03430317730178267</v>
       </c>
       <c r="AA44" t="n">
-        <v>0.06923312853068465</v>
+        <v>0.004385497157454902</v>
       </c>
       <c r="AB44" t="n">
-        <v>0.0791784911366222</v>
+        <v>0.0470951390712552</v>
       </c>
       <c r="AC44" t="n">
-        <v>0.03715818435271305</v>
+        <v>0.02978259451089352</v>
       </c>
     </row>
     <row r="45">
@@ -4680,79 +4680,79 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>0.5314256993415971</v>
+        <v>0.4367828194497165</v>
       </c>
       <c r="F45" t="n">
-        <v>0.05691095874696052</v>
+        <v>0.08641926985822096</v>
       </c>
       <c r="G45" t="n">
-        <v>0.001161148254579154</v>
+        <v>0.07694416679702393</v>
       </c>
       <c r="H45" t="n">
-        <v>0.0762363078587935</v>
+        <v>0.0756812144108978</v>
       </c>
       <c r="I45" t="n">
-        <v>0.02266726279788145</v>
+        <v>0.02893155084921353</v>
       </c>
       <c r="J45" t="n">
-        <v>0.005358113816284913</v>
+        <v>0.03681289476021664</v>
       </c>
       <c r="K45" t="n">
-        <v>0.03917635940218261</v>
+        <v>0.03051110267716434</v>
       </c>
       <c r="L45" t="n">
-        <v>0.0170960077258287</v>
+        <v>0.0190199025112244</v>
       </c>
       <c r="M45" t="n">
-        <v>0.04024810849498488</v>
+        <v>0.006100559972271597</v>
       </c>
       <c r="N45" t="n">
-        <v>0.01848950169664746</v>
+        <v>0.000365564689715054</v>
       </c>
       <c r="O45" t="n">
-        <v>0.08834832714303371</v>
+        <v>0.07454907238060178</v>
       </c>
       <c r="P45" t="n">
-        <v>0.05880137796702185</v>
+        <v>0.003077945593605008</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.05545470067327025</v>
+        <v>0.03071104442163683</v>
       </c>
       <c r="R45" t="n">
-        <v>0.04702191979555556</v>
+        <v>0.03829178290729862</v>
       </c>
       <c r="S45" t="n">
-        <v>0.002643256120920663</v>
+        <v>0.01268262209742296</v>
       </c>
       <c r="T45" t="n">
-        <v>0.01371524239994</v>
+        <v>0.01794001348838184</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05325839759671593</v>
+        <v>0.02899932776866699</v>
       </c>
       <c r="V45" t="n">
-        <v>0.03586788313204384</v>
+        <v>0.08585017650403312</v>
       </c>
       <c r="W45" t="n">
-        <v>0.08024919816371173</v>
+        <v>0.05582302229633351</v>
       </c>
       <c r="X45" t="n">
-        <v>0.0437510275726742</v>
+        <v>0.0325038899538441</v>
       </c>
       <c r="Y45" t="n">
-        <v>0.07241020202089224</v>
+        <v>0.08959782696263725</v>
       </c>
       <c r="Z45" t="n">
-        <v>0.06303341483115296</v>
+        <v>0.08548043303948662</v>
       </c>
       <c r="AA45" t="n">
-        <v>0.08575499020180394</v>
+        <v>0.07222676429039356</v>
       </c>
       <c r="AB45" t="n">
-        <v>0.02234629358711979</v>
+        <v>0.01147985176970969</v>
       </c>
       <c r="AC45" t="n">
-        <v>0.02236503426017778</v>
+        <v>0.03904622824837738</v>
       </c>
     </row>
     <row r="46">
@@ -4775,79 +4775,79 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>0.178314292436078</v>
+        <v>0.1718947519897033</v>
       </c>
       <c r="F46" t="n">
-        <v>0.09634186315893303</v>
+        <v>0.09592402886308393</v>
       </c>
       <c r="G46" t="n">
-        <v>0.01090538218072559</v>
+        <v>0.01868677029526169</v>
       </c>
       <c r="H46" t="n">
-        <v>0.05390603690839899</v>
+        <v>0.06864749212689639</v>
       </c>
       <c r="I46" t="n">
-        <v>0.0784609750853552</v>
+        <v>0.06065886045075172</v>
       </c>
       <c r="J46" t="n">
-        <v>0.1111201458983436</v>
+        <v>0.0793971884975274</v>
       </c>
       <c r="K46" t="n">
-        <v>0.003683875144374793</v>
+        <v>0.01331081059389968</v>
       </c>
       <c r="L46" t="n">
-        <v>0.009334803260031639</v>
+        <v>0.02736648224206394</v>
       </c>
       <c r="M46" t="n">
-        <v>0.0009303027722281517</v>
+        <v>0.001712899598702346</v>
       </c>
       <c r="N46" t="n">
-        <v>0.02116220237096423</v>
+        <v>0.02904499720890227</v>
       </c>
       <c r="O46" t="n">
-        <v>0.0484155903464678</v>
+        <v>0.01087524265628126</v>
       </c>
       <c r="P46" t="n">
-        <v>0.1113526769660612</v>
+        <v>0.01910146926723711</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.03074159032065178</v>
+        <v>0.03921480020858279</v>
       </c>
       <c r="R46" t="n">
-        <v>0.03590534538803152</v>
+        <v>0.00764135577869167</v>
       </c>
       <c r="S46" t="n">
-        <v>0.006502575650550092</v>
+        <v>0.002988010597363902</v>
       </c>
       <c r="T46" t="n">
-        <v>0.02794012535447906</v>
+        <v>0.06716396758824027</v>
       </c>
       <c r="U46" t="n">
-        <v>0.02561674025023951</v>
+        <v>0.05696877500146816</v>
       </c>
       <c r="V46" t="n">
-        <v>0.0004895989194197174</v>
+        <v>0.002971921930990348</v>
       </c>
       <c r="W46" t="n">
-        <v>0.09427700912761026</v>
+        <v>0.06494509470273954</v>
       </c>
       <c r="X46" t="n">
-        <v>0.0584470837232112</v>
+        <v>0.1030850607231138</v>
       </c>
       <c r="Y46" t="n">
-        <v>0.01073084479482814</v>
+        <v>0.05321989884752574</v>
       </c>
       <c r="Z46" t="n">
-        <v>0.08109725027457088</v>
+        <v>0.08632082291835413</v>
       </c>
       <c r="AA46" t="n">
-        <v>0.06790559621599604</v>
+        <v>0.08308827426739891</v>
       </c>
       <c r="AB46" t="n">
-        <v>0.01473238588852762</v>
+        <v>0.007665775634923278</v>
       </c>
       <c r="AC46" t="n">
-        <v>-0.06583910550071984</v>
+        <v>-0.05041354899459961</v>
       </c>
     </row>
     <row r="47">
@@ -4870,79 +4870,79 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>0.5461056765023505</v>
+        <v>0.3038730876643326</v>
       </c>
       <c r="F47" t="n">
-        <v>0.04386382794496366</v>
+        <v>0.09646402813530112</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03516021113845041</v>
+        <v>0.01105008153583227</v>
       </c>
       <c r="H47" t="n">
-        <v>0.02202415390100944</v>
+        <v>0.006114810697034235</v>
       </c>
       <c r="I47" t="n">
-        <v>0.01163068152689385</v>
+        <v>0.04112075675057071</v>
       </c>
       <c r="J47" t="n">
-        <v>0.08044754114341562</v>
+        <v>0.04856541626234264</v>
       </c>
       <c r="K47" t="n">
-        <v>0.0005826911386634921</v>
+        <v>0.006267163936953608</v>
       </c>
       <c r="L47" t="n">
-        <v>0.005249532062431352</v>
+        <v>0.09310549036914771</v>
       </c>
       <c r="M47" t="n">
-        <v>0.01906543700134106</v>
+        <v>0.03144309162897065</v>
       </c>
       <c r="N47" t="n">
-        <v>0.07834865301765749</v>
+        <v>0.09827965218338469</v>
       </c>
       <c r="O47" t="n">
-        <v>0.08524825013931848</v>
+        <v>0.05924452763117083</v>
       </c>
       <c r="P47" t="n">
-        <v>0.04563798633254972</v>
+        <v>0.01019616758195221</v>
       </c>
       <c r="Q47" t="n">
-        <v>0.05392090404565125</v>
+        <v>0.04746561713136351</v>
       </c>
       <c r="R47" t="n">
-        <v>0.07398926379225934</v>
+        <v>0.05537033634895406</v>
       </c>
       <c r="S47" t="n">
-        <v>0.04047984193113884</v>
+        <v>0.01500986391208223</v>
       </c>
       <c r="T47" t="n">
-        <v>0.01669154213772083</v>
+        <v>0.002366669553498576</v>
       </c>
       <c r="U47" t="n">
-        <v>0.07747272709753357</v>
+        <v>0.006590506932799535</v>
       </c>
       <c r="V47" t="n">
-        <v>0.0775749499798189</v>
+        <v>0.001259043260266911</v>
       </c>
       <c r="W47" t="n">
-        <v>0.03817082883397951</v>
+        <v>0.0453946540561334</v>
       </c>
       <c r="X47" t="n">
-        <v>0.002701317998114495</v>
+        <v>0.08384473299976207</v>
       </c>
       <c r="Y47" t="n">
-        <v>0.07184681210869455</v>
+        <v>0.07439069228793183</v>
       </c>
       <c r="Z47" t="n">
-        <v>0.0235602977019342</v>
+        <v>0.09889319485123445</v>
       </c>
       <c r="AA47" t="n">
-        <v>0.08502813474784972</v>
+        <v>0.05114223240894625</v>
       </c>
       <c r="AB47" t="n">
-        <v>0.01130441427861002</v>
+        <v>0.01642126954436639</v>
       </c>
       <c r="AC47" t="n">
-        <v>-0.08606578252273069</v>
+        <v>-0.08321886499833031</v>
       </c>
     </row>
     <row r="48">
@@ -4965,79 +4965,79 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>0.1168712268782486</v>
+        <v>0.1198024921879178</v>
       </c>
       <c r="F48" t="n">
-        <v>0.01250599949335427</v>
+        <v>0.006518360311409337</v>
       </c>
       <c r="G48" t="n">
-        <v>0.09322666552853172</v>
+        <v>0.03960608248157002</v>
       </c>
       <c r="H48" t="n">
-        <v>0.02993104948168866</v>
+        <v>0.06867822323320762</v>
       </c>
       <c r="I48" t="n">
-        <v>0.01101332135176068</v>
+        <v>0.001633300968560339</v>
       </c>
       <c r="J48" t="n">
-        <v>0.004662080198660489</v>
+        <v>0.03996673036624526</v>
       </c>
       <c r="K48" t="n">
-        <v>0.02515965139077602</v>
+        <v>0.04403736557271604</v>
       </c>
       <c r="L48" t="n">
-        <v>0.05882161391516705</v>
+        <v>0.03895235722104133</v>
       </c>
       <c r="M48" t="n">
-        <v>0.03848787934984148</v>
+        <v>0.07949074859607534</v>
       </c>
       <c r="N48" t="n">
-        <v>0.03746103308338485</v>
+        <v>0.004803543988252926</v>
       </c>
       <c r="O48" t="n">
-        <v>0.03908265207162084</v>
+        <v>0.04025291837152756</v>
       </c>
       <c r="P48" t="n">
-        <v>0.08832396733122089</v>
+        <v>0.05121106924831569</v>
       </c>
       <c r="Q48" t="n">
-        <v>0.06956038342174811</v>
+        <v>0.01735932851669342</v>
       </c>
       <c r="R48" t="n">
-        <v>0.01501564709444372</v>
+        <v>0.001675765426073409</v>
       </c>
       <c r="S48" t="n">
-        <v>0.06082449213255472</v>
+        <v>0.06295799631519497</v>
       </c>
       <c r="T48" t="n">
-        <v>0.04662246605855935</v>
+        <v>0.08037906609571133</v>
       </c>
       <c r="U48" t="n">
-        <v>0.05064304741453413</v>
+        <v>0.08561645317440549</v>
       </c>
       <c r="V48" t="n">
-        <v>0.00266134019924173</v>
+        <v>0.03748816971978453</v>
       </c>
       <c r="W48" t="n">
-        <v>0.08371280271348029</v>
+        <v>0.08343409901072696</v>
       </c>
       <c r="X48" t="n">
-        <v>0.07981599011192964</v>
+        <v>0.07357765595643254</v>
       </c>
       <c r="Y48" t="n">
-        <v>0.03800633608995997</v>
+        <v>0.04107283880218903</v>
       </c>
       <c r="Z48" t="n">
-        <v>0.002215078929853176</v>
+        <v>0.01391839488292393</v>
       </c>
       <c r="AA48" t="n">
-        <v>0.03215997193064774</v>
+        <v>0.0211497342081096</v>
       </c>
       <c r="AB48" t="n">
-        <v>0.08008653070704055</v>
+        <v>0.06621979753283329</v>
       </c>
       <c r="AC48" t="n">
-        <v>-0.1033774318657585</v>
+        <v>-0.131274698122713</v>
       </c>
     </row>
     <row r="49">
@@ -5060,79 +5060,79 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>0.1650126120342213</v>
+        <v>0.1678781106127444</v>
       </c>
       <c r="F49" t="n">
-        <v>0.02927247691799767</v>
+        <v>0.04097181678509942</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04867267638633317</v>
+        <v>0.008735904283223501</v>
       </c>
       <c r="H49" t="n">
-        <v>0.01440707546519925</v>
+        <v>0.03223800796728198</v>
       </c>
       <c r="I49" t="n">
-        <v>0.008233926331088073</v>
+        <v>0.009243338523149524</v>
       </c>
       <c r="J49" t="n">
-        <v>0.01271256538469344</v>
+        <v>0.03512598720188964</v>
       </c>
       <c r="K49" t="n">
-        <v>0.02644130506443302</v>
+        <v>0.07758708493883405</v>
       </c>
       <c r="L49" t="n">
-        <v>0.0162117333284703</v>
+        <v>0.03815156921727667</v>
       </c>
       <c r="M49" t="n">
-        <v>0.05623410552157261</v>
+        <v>0.06457563286969292</v>
       </c>
       <c r="N49" t="n">
-        <v>0.005846124831901778</v>
+        <v>0.01277056421783715</v>
       </c>
       <c r="O49" t="n">
-        <v>0.02345382180631132</v>
+        <v>0.06901169777618421</v>
       </c>
       <c r="P49" t="n">
-        <v>0.01331949405046371</v>
+        <v>0.02774610750411403</v>
       </c>
       <c r="Q49" t="n">
-        <v>0.1164547639428139</v>
+        <v>0.08615425997161585</v>
       </c>
       <c r="R49" t="n">
-        <v>0.06054414500187607</v>
+        <v>0.001231071313723478</v>
       </c>
       <c r="S49" t="n">
-        <v>0.07567136157838487</v>
+        <v>0.03315884956612673</v>
       </c>
       <c r="T49" t="n">
-        <v>0.006740389505369408</v>
+        <v>0.006579337302271043</v>
       </c>
       <c r="U49" t="n">
-        <v>0.0522973352530765</v>
+        <v>0.03476091412320956</v>
       </c>
       <c r="V49" t="n">
-        <v>0.07672263353876264</v>
+        <v>0.07732313032783072</v>
       </c>
       <c r="W49" t="n">
-        <v>0.02425604773681871</v>
+        <v>0.009786241024436877</v>
       </c>
       <c r="X49" t="n">
-        <v>0.03306970342940486</v>
+        <v>0.02304966870617419</v>
       </c>
       <c r="Y49" t="n">
-        <v>0.0987377262422322</v>
+        <v>0.09944686267352384</v>
       </c>
       <c r="Z49" t="n">
-        <v>0.08824235986487176</v>
+        <v>0.09659581418738994</v>
       </c>
       <c r="AA49" t="n">
-        <v>0.04891780609426396</v>
+        <v>0.05955648798325585</v>
       </c>
       <c r="AB49" t="n">
-        <v>0.06354042272366087</v>
+        <v>0.05619965153585873</v>
       </c>
       <c r="AC49" t="n">
-        <v>-0.1447366959655899</v>
+        <v>-0.1446512613410191</v>
       </c>
     </row>
     <row r="50">
@@ -5155,79 +5155,79 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>0.1165297033440204</v>
+        <v>0.1193546512133385</v>
       </c>
       <c r="F50" t="n">
-        <v>0.003658112053152944</v>
+        <v>0.03426460044355966</v>
       </c>
       <c r="G50" t="n">
-        <v>0.027958515970633</v>
+        <v>0.06847534544433474</v>
       </c>
       <c r="H50" t="n">
-        <v>0.01531167177937754</v>
+        <v>0.02272740540700776</v>
       </c>
       <c r="I50" t="n">
-        <v>0.00458486604536415</v>
+        <v>0.005677719543155267</v>
       </c>
       <c r="J50" t="n">
-        <v>0.1153085506194847</v>
+        <v>0.08603748820355697</v>
       </c>
       <c r="K50" t="n">
-        <v>0.01276943980782609</v>
+        <v>0.02328160560682599</v>
       </c>
       <c r="L50" t="n">
-        <v>0.06466430350615981</v>
+        <v>0.04866404682113539</v>
       </c>
       <c r="M50" t="n">
-        <v>0.1102110898855913</v>
+        <v>0.0264452705444496</v>
       </c>
       <c r="N50" t="n">
-        <v>0.003632323362924859</v>
+        <v>0.005297272305587326</v>
       </c>
       <c r="O50" t="n">
-        <v>0.02837600718789372</v>
+        <v>0.07474041484328618</v>
       </c>
       <c r="P50" t="n">
-        <v>0.05046835492659509</v>
+        <v>0.06904009898328314</v>
       </c>
       <c r="Q50" t="n">
-        <v>0.0131546712565475</v>
+        <v>0.02418374617670798</v>
       </c>
       <c r="R50" t="n">
-        <v>0.020538290718701</v>
+        <v>0.06211956954776379</v>
       </c>
       <c r="S50" t="n">
-        <v>0.07968406555633856</v>
+        <v>0.05314685637964153</v>
       </c>
       <c r="T50" t="n">
-        <v>0.02325903768892819</v>
+        <v>0.00585579046238757</v>
       </c>
       <c r="U50" t="n">
-        <v>0.1206232822390784</v>
+        <v>0.08296256403406799</v>
       </c>
       <c r="V50" t="n">
-        <v>0.001302204029941965</v>
+        <v>0.02160622339436081</v>
       </c>
       <c r="W50" t="n">
-        <v>0.04915799168859321</v>
+        <v>0.09281213712912217</v>
       </c>
       <c r="X50" t="n">
-        <v>0.08402731128927667</v>
+        <v>0.08323799759237598</v>
       </c>
       <c r="Y50" t="n">
-        <v>0.0202354860427159</v>
+        <v>0.01142766314313897</v>
       </c>
       <c r="Z50" t="n">
-        <v>0.09165985784477784</v>
+        <v>0.001268140768431872</v>
       </c>
       <c r="AA50" t="n">
-        <v>0.02070789899949113</v>
+        <v>0.09034481330788689</v>
       </c>
       <c r="AB50" t="n">
-        <v>0.03870666750060628</v>
+        <v>0.006383229917932509</v>
       </c>
       <c r="AC50" t="n">
-        <v>0.09686235988120949</v>
+        <v>0.08833056891999445</v>
       </c>
     </row>
     <row r="51">
@@ -5250,79 +5250,79 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>0.1408896298606015</v>
+        <v>0.134897504768678</v>
       </c>
       <c r="F51" t="n">
-        <v>0.09788120529969842</v>
+        <v>0.08330314101240287</v>
       </c>
       <c r="G51" t="n">
-        <v>0.02539185622538858</v>
+        <v>0.03726092289075253</v>
       </c>
       <c r="H51" t="n">
-        <v>0.009604644763495618</v>
+        <v>0.00310303334993405</v>
       </c>
       <c r="I51" t="n">
-        <v>0.008243548662118632</v>
+        <v>0.003693748242699692</v>
       </c>
       <c r="J51" t="n">
-        <v>0.07398161450182397</v>
+        <v>0.07792566972135416</v>
       </c>
       <c r="K51" t="n">
-        <v>0.03811516644395644</v>
+        <v>0.03064528926583183</v>
       </c>
       <c r="L51" t="n">
-        <v>0.01859667720557448</v>
+        <v>0.006003097858551599</v>
       </c>
       <c r="M51" t="n">
-        <v>0.1211082343651522</v>
+        <v>0.08618181901507346</v>
       </c>
       <c r="N51" t="n">
-        <v>0.004460102149905738</v>
+        <v>0.008932961496935534</v>
       </c>
       <c r="O51" t="n">
-        <v>0.02853258316837789</v>
+        <v>0.01882582408397557</v>
       </c>
       <c r="P51" t="n">
-        <v>0.02808877601801524</v>
+        <v>0.05209528067898041</v>
       </c>
       <c r="Q51" t="n">
-        <v>0.1017996686205476</v>
+        <v>0.07204864086662173</v>
       </c>
       <c r="R51" t="n">
-        <v>0.01218545036157109</v>
+        <v>0.03827129382155404</v>
       </c>
       <c r="S51" t="n">
-        <v>0.00623769872267194</v>
+        <v>0.05151708823390315</v>
       </c>
       <c r="T51" t="n">
-        <v>0.09141115784397719</v>
+        <v>0.02513439444152488</v>
       </c>
       <c r="U51" t="n">
-        <v>0.05661509279479789</v>
+        <v>0.03314033482259127</v>
       </c>
       <c r="V51" t="n">
-        <v>0.01564669473452957</v>
+        <v>0.07214976867374302</v>
       </c>
       <c r="W51" t="n">
-        <v>0.04271976049393833</v>
+        <v>0.008228611505246387</v>
       </c>
       <c r="X51" t="n">
-        <v>0.02212006369794069</v>
+        <v>0.05339397606230632</v>
       </c>
       <c r="Y51" t="n">
-        <v>0.01924991355170737</v>
+        <v>0.07046078371293166</v>
       </c>
       <c r="Z51" t="n">
-        <v>0.1111896944219015</v>
+        <v>0.09232448768347051</v>
       </c>
       <c r="AA51" t="n">
-        <v>0.0317817129198799</v>
+        <v>0.03120537831862297</v>
       </c>
       <c r="AB51" t="n">
-        <v>0.03503868303302982</v>
+        <v>0.04415445424099246</v>
       </c>
       <c r="AC51" t="n">
-        <v>0.1545542984444849</v>
+        <v>0.1331291343494277</v>
       </c>
     </row>
     <row r="52">
@@ -5345,79 +5345,79 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>0.1401739679379849</v>
+        <v>0.1364034374939202</v>
       </c>
       <c r="F52" t="n">
-        <v>0.004513868961192366</v>
+        <v>0.0002543836993413875</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05661596832460887</v>
+        <v>0.07773310958868379</v>
       </c>
       <c r="H52" t="n">
-        <v>0.008930572702839638</v>
+        <v>0.0631227535267436</v>
       </c>
       <c r="I52" t="n">
-        <v>0.02455222650808535</v>
+        <v>0.02376490996220611</v>
       </c>
       <c r="J52" t="n">
-        <v>0.05686715473661313</v>
+        <v>0.04301106642418941</v>
       </c>
       <c r="K52" t="n">
-        <v>0.02377238030634111</v>
+        <v>0.09036380671838005</v>
       </c>
       <c r="L52" t="n">
-        <v>0.09135099115108072</v>
+        <v>0.07283527448021314</v>
       </c>
       <c r="M52" t="n">
-        <v>0.009879239523053768</v>
+        <v>0.005909829946872511</v>
       </c>
       <c r="N52" t="n">
-        <v>0.004354602094485602</v>
+        <v>0.004321391202736133</v>
       </c>
       <c r="O52" t="n">
-        <v>0.08982772268140651</v>
+        <v>0.009074495671017672</v>
       </c>
       <c r="P52" t="n">
-        <v>0.05166391764184464</v>
+        <v>0.05915616607615936</v>
       </c>
       <c r="Q52" t="n">
-        <v>0.05530373663096132</v>
+        <v>0.07949693943531042</v>
       </c>
       <c r="R52" t="n">
-        <v>0.0817840809499663</v>
+        <v>0.06945296427379169</v>
       </c>
       <c r="S52" t="n">
-        <v>0.06021014425162265</v>
+        <v>0.008796005192012494</v>
       </c>
       <c r="T52" t="n">
-        <v>0.01758769045892522</v>
+        <v>0.09776495413415529</v>
       </c>
       <c r="U52" t="n">
-        <v>0.05556472305427448</v>
+        <v>0.07756941961720801</v>
       </c>
       <c r="V52" t="n">
-        <v>0.08508469311021959</v>
+        <v>0.07021519055615805</v>
       </c>
       <c r="W52" t="n">
-        <v>0.05618259414015548</v>
+        <v>0.06705238703071936</v>
       </c>
       <c r="X52" t="n">
-        <v>0.0245305588402346</v>
+        <v>0.02461860478196504</v>
       </c>
       <c r="Y52" t="n">
-        <v>0.005447504028423739</v>
+        <v>0.03008520423931034</v>
       </c>
       <c r="Z52" t="n">
-        <v>0.001795490317596887</v>
+        <v>0.00262764783784092</v>
       </c>
       <c r="AA52" t="n">
-        <v>0.0886236478208732</v>
+        <v>0.002531097497537682</v>
       </c>
       <c r="AB52" t="n">
-        <v>0.04555649176519473</v>
+        <v>0.02024239810744756</v>
       </c>
       <c r="AC52" t="n">
-        <v>0.06859152454239748</v>
+        <v>0.03351564910520254</v>
       </c>
     </row>
     <row r="53">
@@ -5440,79 +5440,79 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>0.8966023062704839</v>
+        <v>0.5718640384783548</v>
       </c>
       <c r="F53" t="n">
-        <v>0.01681994359956327</v>
+        <v>0.09123258567979042</v>
       </c>
       <c r="G53" t="n">
-        <v>0.08397347558411267</v>
+        <v>0.08573848110380909</v>
       </c>
       <c r="H53" t="n">
-        <v>0.04026789100545802</v>
+        <v>0.02818517447063454</v>
       </c>
       <c r="I53" t="n">
-        <v>0.03006186139362582</v>
+        <v>0.01639748075990725</v>
       </c>
       <c r="J53" t="n">
-        <v>0.05572190125389562</v>
+        <v>0.01057101665532695</v>
       </c>
       <c r="K53" t="n">
-        <v>0.03770605878409485</v>
+        <v>0.0178672159997444</v>
       </c>
       <c r="L53" t="n">
-        <v>0.01639771724676458</v>
+        <v>0.01090687845832682</v>
       </c>
       <c r="M53" t="n">
-        <v>0.0007590075841096265</v>
+        <v>0.0009906424569324334</v>
       </c>
       <c r="N53" t="n">
-        <v>0.03570183589127594</v>
+        <v>0.03103789621403599</v>
       </c>
       <c r="O53" t="n">
-        <v>0.000772186035773642</v>
+        <v>0.01376302038398908</v>
       </c>
       <c r="P53" t="n">
-        <v>0.08060542000728585</v>
+        <v>0.06165404081938457</v>
       </c>
       <c r="Q53" t="n">
-        <v>0.02346326579975714</v>
+        <v>0.01922598173931329</v>
       </c>
       <c r="R53" t="n">
-        <v>0.02769772161024402</v>
+        <v>0.05440738506890513</v>
       </c>
       <c r="S53" t="n">
-        <v>0.08317305507446243</v>
+        <v>0.02658792210900185</v>
       </c>
       <c r="T53" t="n">
-        <v>0.02109297999894606</v>
+        <v>0.07065787783459569</v>
       </c>
       <c r="U53" t="n">
-        <v>0.06438174595156619</v>
+        <v>0.003132750795646599</v>
       </c>
       <c r="V53" t="n">
-        <v>0.004435710308461126</v>
+        <v>0.008440473084548743</v>
       </c>
       <c r="W53" t="n">
-        <v>0.01261290279950207</v>
+        <v>0.07117504344742097</v>
       </c>
       <c r="X53" t="n">
-        <v>0.1034412242780693</v>
+        <v>0.08385936563143684</v>
       </c>
       <c r="Y53" t="n">
-        <v>0.01285625311117513</v>
+        <v>0.08085612353998944</v>
       </c>
       <c r="Z53" t="n">
-        <v>0.1092153288754633</v>
+        <v>0.08347627220946012</v>
       </c>
       <c r="AA53" t="n">
-        <v>0.04905338071918837</v>
+        <v>0.0407926279629833</v>
       </c>
       <c r="AB53" t="n">
-        <v>0.08978913308720485</v>
+        <v>0.08904374357481651</v>
       </c>
       <c r="AC53" t="n">
-        <v>0.05293799105957257</v>
+        <v>0.05987009946767346</v>
       </c>
     </row>
     <row r="54">
@@ -5535,79 +5535,79 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>0.1664691379696255</v>
+        <v>0.1661700313873271</v>
       </c>
       <c r="F54" t="n">
-        <v>0.001376214152988164</v>
+        <v>0.003399481410580186</v>
       </c>
       <c r="G54" t="n">
-        <v>0.004251510355917081</v>
+        <v>0.01492997740264684</v>
       </c>
       <c r="H54" t="n">
-        <v>0.07519931545523932</v>
+        <v>0.02508309153402934</v>
       </c>
       <c r="I54" t="n">
-        <v>0.04901534665742</v>
+        <v>0.08344294888553183</v>
       </c>
       <c r="J54" t="n">
-        <v>0.05129929354533736</v>
+        <v>0.04748150055950063</v>
       </c>
       <c r="K54" t="n">
-        <v>0.06811668738518888</v>
+        <v>0.004129424852827662</v>
       </c>
       <c r="L54" t="n">
-        <v>0.03147843799296572</v>
+        <v>0.01589798016877187</v>
       </c>
       <c r="M54" t="n">
-        <v>0.04693677603273266</v>
+        <v>0.04424442079661728</v>
       </c>
       <c r="N54" t="n">
-        <v>0.06471528903511187</v>
+        <v>0.02554166037036944</v>
       </c>
       <c r="O54" t="n">
-        <v>0.03528622323230182</v>
+        <v>0.04253421558618083</v>
       </c>
       <c r="P54" t="n">
-        <v>0.06961596302475122</v>
+        <v>0.09358702246094441</v>
       </c>
       <c r="Q54" t="n">
-        <v>0.0748614065008249</v>
+        <v>0.05895066865637995</v>
       </c>
       <c r="R54" t="n">
-        <v>0.07146098849809582</v>
+        <v>0.1097175102487957</v>
       </c>
       <c r="S54" t="n">
-        <v>0.03593330529026548</v>
+        <v>0.1184226846746395</v>
       </c>
       <c r="T54" t="n">
-        <v>0.07916182720333451</v>
+        <v>0.02855160656978045</v>
       </c>
       <c r="U54" t="n">
-        <v>0.06719275524970657</v>
+        <v>0.02835503181722501</v>
       </c>
       <c r="V54" t="n">
-        <v>0.04405961729999087</v>
+        <v>0.05313248521082034</v>
       </c>
       <c r="W54" t="n">
-        <v>0.002652120989459581</v>
+        <v>0.01203445141997477</v>
       </c>
       <c r="X54" t="n">
-        <v>0.05276455917498947</v>
+        <v>0.01374862278208556</v>
       </c>
       <c r="Y54" t="n">
-        <v>0.04365036194579271</v>
+        <v>0.08317726749382977</v>
       </c>
       <c r="Z54" t="n">
-        <v>0.01562464012486036</v>
+        <v>0.05101692221113742</v>
       </c>
       <c r="AA54" t="n">
-        <v>0.004508506173107688</v>
+        <v>0.02248004021116042</v>
       </c>
       <c r="AB54" t="n">
-        <v>0.01083885467961791</v>
+        <v>0.02014098467617068</v>
       </c>
       <c r="AC54" t="n">
-        <v>-0.0922424933611274</v>
+        <v>-0.03872326659956191</v>
       </c>
     </row>
     <row r="55">
@@ -5630,79 +5630,79 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>0.193324606806486</v>
+        <v>0.2071917820385282</v>
       </c>
       <c r="F55" t="n">
-        <v>0.01096172027738937</v>
+        <v>0.01917314404652243</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02598002282296073</v>
+        <v>0.05151457549874622</v>
       </c>
       <c r="H55" t="n">
-        <v>0.06312456850879108</v>
+        <v>0.06232097310233227</v>
       </c>
       <c r="I55" t="n">
-        <v>0.02502585998919429</v>
+        <v>0.02401750446696933</v>
       </c>
       <c r="J55" t="n">
-        <v>0.0524636516863716</v>
+        <v>0.03147880834577289</v>
       </c>
       <c r="K55" t="n">
-        <v>0.003600252287733048</v>
+        <v>0.01921192456827111</v>
       </c>
       <c r="L55" t="n">
-        <v>0.004824260156209281</v>
+        <v>0.00803167071341525</v>
       </c>
       <c r="M55" t="n">
-        <v>0.09510649986932219</v>
+        <v>0.08069107599626098</v>
       </c>
       <c r="N55" t="n">
-        <v>0.04959331738408887</v>
+        <v>0.02435509244885128</v>
       </c>
       <c r="O55" t="n">
-        <v>0.05010448542076557</v>
+        <v>0.03861941811721775</v>
       </c>
       <c r="P55" t="n">
-        <v>0.09143989671949691</v>
+        <v>0.02387526663005721</v>
       </c>
       <c r="Q55" t="n">
-        <v>0.007708254167993733</v>
+        <v>0.08939458433190527</v>
       </c>
       <c r="R55" t="n">
-        <v>0.0887112126140247</v>
+        <v>0.02777412347311185</v>
       </c>
       <c r="S55" t="n">
-        <v>0.06127278096630358</v>
+        <v>0.02157033921445076</v>
       </c>
       <c r="T55" t="n">
-        <v>0.01599313237906502</v>
+        <v>0.06178787967137796</v>
       </c>
       <c r="U55" t="n">
-        <v>0.04029343368333277</v>
+        <v>0.00789083679848377</v>
       </c>
       <c r="V55" t="n">
-        <v>0.0005266742951224131</v>
+        <v>0.08179610099212666</v>
       </c>
       <c r="W55" t="n">
-        <v>0.009515949541357547</v>
+        <v>0.01749883493711969</v>
       </c>
       <c r="X55" t="n">
-        <v>0.08051898454453511</v>
+        <v>0.06509884248885249</v>
       </c>
       <c r="Y55" t="n">
-        <v>0.06986897923373865</v>
+        <v>0.08852425487212613</v>
       </c>
       <c r="Z55" t="n">
-        <v>0.09242248694048096</v>
+        <v>0.07016941650514215</v>
       </c>
       <c r="AA55" t="n">
-        <v>0.01972668421845874</v>
+        <v>0.06108609898949342</v>
       </c>
       <c r="AB55" t="n">
-        <v>0.04121689229326377</v>
+        <v>0.02411923379139332</v>
       </c>
       <c r="AC55" t="n">
-        <v>-0.0487036717490799</v>
+        <v>-0.07296990268570148</v>
       </c>
     </row>
     <row r="56">
@@ -5725,79 +5725,79 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>0.2147101484318301</v>
+        <v>0.2145954821063756</v>
       </c>
       <c r="F56" t="n">
-        <v>0.05212330660659677</v>
+        <v>0.09126669141440821</v>
       </c>
       <c r="G56" t="n">
-        <v>0.01654610521785338</v>
+        <v>0.01526170246489231</v>
       </c>
       <c r="H56" t="n">
-        <v>0.039419046651971</v>
+        <v>0.09858001740856819</v>
       </c>
       <c r="I56" t="n">
-        <v>0.01484379284561797</v>
+        <v>0.01557670372934481</v>
       </c>
       <c r="J56" t="n">
-        <v>0.04381134706531675</v>
+        <v>0.02814478562702191</v>
       </c>
       <c r="K56" t="n">
-        <v>0.02848296165261667</v>
+        <v>0.06194031945131103</v>
       </c>
       <c r="L56" t="n">
-        <v>0.02200543246475047</v>
+        <v>0.01985717461995959</v>
       </c>
       <c r="M56" t="n">
-        <v>0.06347334221546343</v>
+        <v>0.02133151702194271</v>
       </c>
       <c r="N56" t="n">
-        <v>0.01174619750862359</v>
+        <v>0.003774415161687861</v>
       </c>
       <c r="O56" t="n">
-        <v>0.06387944192135939</v>
+        <v>0.09402407488774966</v>
       </c>
       <c r="P56" t="n">
-        <v>0.03394291122804203</v>
+        <v>0.04452401144871865</v>
       </c>
       <c r="Q56" t="n">
-        <v>0.07599932543003642</v>
+        <v>0.08552527911080481</v>
       </c>
       <c r="R56" t="n">
-        <v>0.06539651264321238</v>
+        <v>0.0691911599134155</v>
       </c>
       <c r="S56" t="n">
-        <v>0.006728598201589101</v>
+        <v>0.002321742355634413</v>
       </c>
       <c r="T56" t="n">
-        <v>0.0298786073764137</v>
+        <v>0.005264674626786814</v>
       </c>
       <c r="U56" t="n">
-        <v>0.07348833242619197</v>
+        <v>0.06520941467742877</v>
       </c>
       <c r="V56" t="n">
-        <v>0.01268135119900163</v>
+        <v>0.008551099201619207</v>
       </c>
       <c r="W56" t="n">
-        <v>0.07194182443189913</v>
+        <v>0.05483503543921502</v>
       </c>
       <c r="X56" t="n">
-        <v>0.05144666897411263</v>
+        <v>0.08492561618515738</v>
       </c>
       <c r="Y56" t="n">
-        <v>0.0512339986482911</v>
+        <v>0.0004038442689558992</v>
       </c>
       <c r="Z56" t="n">
-        <v>0.07991261176575803</v>
+        <v>0.0653431049457016</v>
       </c>
       <c r="AA56" t="n">
-        <v>0.05078653174697595</v>
+        <v>0.04635359992481756</v>
       </c>
       <c r="AB56" t="n">
-        <v>0.04023175177830645</v>
+        <v>0.017794016114858</v>
       </c>
       <c r="AC56" t="n">
-        <v>0.09211789837797493</v>
+        <v>0.1163191734599165</v>
       </c>
     </row>
     <row r="57">
@@ -5820,82 +5820,82 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>0.2482342344688493</v>
+        <v>0.2329192123626021</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1008687714058701</v>
+        <v>0.1085973776428791</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0519609723862029</v>
+        <v>0.03574020633732786</v>
       </c>
       <c r="H57" t="n">
-        <v>0.004321846443812383</v>
+        <v>0.00566880692516985</v>
       </c>
       <c r="I57" t="n">
-        <v>0.01333252191928405</v>
+        <v>0.01360668257595704</v>
       </c>
       <c r="J57" t="n">
-        <v>0.003941619996545855</v>
+        <v>0.07202490401858479</v>
       </c>
       <c r="K57" t="n">
-        <v>0.03764175144347318</v>
+        <v>0.002374304352264688</v>
       </c>
       <c r="L57" t="n">
-        <v>0.06422277664309732</v>
+        <v>0.02911715516764274</v>
       </c>
       <c r="M57" t="n">
-        <v>0.06927813846647116</v>
+        <v>0.1078131477527392</v>
       </c>
       <c r="N57" t="n">
-        <v>0.03134961109754419</v>
+        <v>0.02842238804586497</v>
       </c>
       <c r="O57" t="n">
-        <v>0.08648059218675624</v>
+        <v>0.02286588816907202</v>
       </c>
       <c r="P57" t="n">
-        <v>0.02777336242127844</v>
+        <v>0.01957740989826946</v>
       </c>
       <c r="Q57" t="n">
-        <v>0.07288316188401643</v>
+        <v>0.07460052412439663</v>
       </c>
       <c r="R57" t="n">
-        <v>0.04963860960436425</v>
+        <v>0.04685343176878826</v>
       </c>
       <c r="S57" t="n">
-        <v>0.0187776207256917</v>
+        <v>0.06503608622393374</v>
       </c>
       <c r="T57" t="n">
-        <v>0.0625789615623929</v>
+        <v>0.03282310754475186</v>
       </c>
       <c r="U57" t="n">
-        <v>0.03192511720880765</v>
+        <v>0.06336734053727283</v>
       </c>
       <c r="V57" t="n">
-        <v>0.01086853865616857</v>
+        <v>0.04768078160779396</v>
       </c>
       <c r="W57" t="n">
-        <v>0.08190554626811467</v>
+        <v>0.01937465683335416</v>
       </c>
       <c r="X57" t="n">
-        <v>0.03051659574809789</v>
+        <v>0.03218886427393445</v>
       </c>
       <c r="Y57" t="n">
-        <v>0.08061794928136998</v>
+        <v>0.05437055788757159</v>
       </c>
       <c r="Z57" t="n">
-        <v>0.06343449313145202</v>
+        <v>0.1098544300717015</v>
       </c>
       <c r="AA57" t="n">
-        <v>0.002997899339781255</v>
+        <v>0.0004035879325348462</v>
       </c>
       <c r="AB57" t="n">
-        <v>0.00268354217940691</v>
+        <v>0.007638360308194329</v>
       </c>
       <c r="AC57" t="n">
-        <v>0.1183627517465083</v>
+        <v>0.06219180581000838</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>